--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TAK</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,149 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8650900</v>
+        <v>7442900</v>
       </c>
       <c r="E8" s="3">
-        <v>7017200</v>
+        <v>8366000</v>
       </c>
       <c r="F8" s="3">
-        <v>7622800</v>
+        <v>6786100</v>
       </c>
       <c r="G8" s="3">
-        <v>7187200</v>
+        <v>7371800</v>
       </c>
       <c r="H8" s="3">
-        <v>7304900</v>
+        <v>6950500</v>
       </c>
       <c r="I8" s="3">
-        <v>7030200</v>
+        <v>7064300</v>
       </c>
       <c r="J8" s="3">
+        <v>6798700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7828400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2197900</v>
+        <v>2429800</v>
       </c>
       <c r="E9" s="3">
-        <v>2308900</v>
+        <v>2125500</v>
       </c>
       <c r="F9" s="3">
-        <v>2306100</v>
+        <v>2232900</v>
       </c>
       <c r="G9" s="3">
-        <v>2274200</v>
+        <v>2230200</v>
       </c>
       <c r="H9" s="3">
-        <v>2168900</v>
+        <v>2199300</v>
       </c>
       <c r="I9" s="3">
-        <v>2260900</v>
+        <v>2097500</v>
       </c>
       <c r="J9" s="3">
+        <v>2186500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2546900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6453000</v>
+        <v>5013100</v>
       </c>
       <c r="E10" s="3">
-        <v>4708300</v>
+        <v>6240500</v>
       </c>
       <c r="F10" s="3">
-        <v>5316700</v>
+        <v>4553300</v>
       </c>
       <c r="G10" s="3">
-        <v>4913000</v>
+        <v>5141600</v>
       </c>
       <c r="H10" s="3">
-        <v>5136000</v>
+        <v>4751200</v>
       </c>
       <c r="I10" s="3">
-        <v>4769300</v>
+        <v>4966800</v>
       </c>
       <c r="J10" s="3">
+        <v>4612200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5281400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,37 +819,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1115800</v>
+        <v>1159400</v>
       </c>
       <c r="E12" s="3">
-        <v>1032100</v>
+        <v>1079000</v>
       </c>
       <c r="F12" s="3">
-        <v>1071000</v>
+        <v>998100</v>
       </c>
       <c r="G12" s="3">
-        <v>1076400</v>
+        <v>1035800</v>
       </c>
       <c r="H12" s="3">
-        <v>973100</v>
+        <v>1041000</v>
       </c>
       <c r="I12" s="3">
-        <v>1269100</v>
+        <v>941100</v>
       </c>
       <c r="J12" s="3">
+        <v>1227300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1117900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,66 +881,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>144200</v>
+        <v>209600</v>
       </c>
       <c r="E14" s="3">
-        <v>268200</v>
+        <v>139400</v>
       </c>
       <c r="F14" s="3">
-        <v>189600</v>
+        <v>259400</v>
       </c>
       <c r="G14" s="3">
-        <v>380100</v>
+        <v>183400</v>
       </c>
       <c r="H14" s="3">
-        <v>217700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>367600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>210600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>936700</v>
+        <v>905000</v>
       </c>
       <c r="E15" s="3">
-        <v>1041200</v>
+        <v>905900</v>
       </c>
       <c r="F15" s="3">
-        <v>906200</v>
+        <v>1006900</v>
       </c>
       <c r="G15" s="3">
-        <v>946000</v>
+        <v>876400</v>
       </c>
       <c r="H15" s="3">
-        <v>949700</v>
+        <v>914900</v>
       </c>
       <c r="I15" s="3">
-        <v>1150300</v>
+        <v>918400</v>
       </c>
       <c r="J15" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="K15" s="3">
         <v>946800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +958,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6386600</v>
+        <v>6584500</v>
       </c>
       <c r="E17" s="3">
-        <v>5645800</v>
+        <v>6176300</v>
       </c>
       <c r="F17" s="3">
-        <v>6318800</v>
+        <v>5459900</v>
       </c>
       <c r="G17" s="3">
-        <v>6747200</v>
+        <v>6110700</v>
       </c>
       <c r="H17" s="3">
-        <v>5780900</v>
+        <v>6525000</v>
       </c>
       <c r="I17" s="3">
-        <v>7596300</v>
+        <v>5590500</v>
       </c>
       <c r="J17" s="3">
+        <v>7346100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7340900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2264300</v>
+        <v>858300</v>
       </c>
       <c r="E18" s="3">
-        <v>1371400</v>
+        <v>2189700</v>
       </c>
       <c r="F18" s="3">
-        <v>1304000</v>
+        <v>1326300</v>
       </c>
       <c r="G18" s="3">
-        <v>440000</v>
+        <v>1261100</v>
       </c>
       <c r="H18" s="3">
-        <v>1524000</v>
+        <v>425500</v>
       </c>
       <c r="I18" s="3">
-        <v>-566100</v>
+        <v>1473800</v>
       </c>
       <c r="J18" s="3">
+        <v>-547400</v>
+      </c>
+      <c r="K18" s="3">
         <v>487500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1036,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-233000</v>
+        <v>-317000</v>
       </c>
       <c r="E20" s="3">
-        <v>-179100</v>
+        <v>-225300</v>
       </c>
       <c r="F20" s="3">
-        <v>-303800</v>
+        <v>-173200</v>
       </c>
       <c r="G20" s="3">
-        <v>-483100</v>
+        <v>-293800</v>
       </c>
       <c r="H20" s="3">
-        <v>-337000</v>
+        <v>-467200</v>
       </c>
       <c r="I20" s="3">
-        <v>-497600</v>
+        <v>-325900</v>
       </c>
       <c r="J20" s="3">
+        <v>-481300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-261200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3333600</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
+        <v>1780400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3223800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2381100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2198500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1182400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2395200</v>
       </c>
       <c r="J21" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K21" s="3">
         <v>4215800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1130,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2031300</v>
+        <v>541300</v>
       </c>
       <c r="E23" s="3">
-        <v>1192300</v>
+        <v>1964400</v>
       </c>
       <c r="F23" s="3">
-        <v>1000200</v>
+        <v>1153000</v>
       </c>
       <c r="G23" s="3">
-        <v>-43100</v>
+        <v>967300</v>
       </c>
       <c r="H23" s="3">
-        <v>1187000</v>
+        <v>-41700</v>
       </c>
       <c r="I23" s="3">
-        <v>-1063700</v>
+        <v>1147900</v>
       </c>
       <c r="J23" s="3">
+        <v>-1028700</v>
+      </c>
+      <c r="K23" s="3">
         <v>226300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>776600</v>
+        <v>136100</v>
       </c>
       <c r="E24" s="3">
-        <v>-603700</v>
+        <v>751100</v>
       </c>
       <c r="F24" s="3">
-        <v>158100</v>
+        <v>-583800</v>
       </c>
       <c r="G24" s="3">
-        <v>-80200</v>
+        <v>152900</v>
       </c>
       <c r="H24" s="3">
-        <v>435200</v>
+        <v>-77500</v>
       </c>
       <c r="I24" s="3">
-        <v>-1077900</v>
+        <v>420900</v>
       </c>
       <c r="J24" s="3">
+        <v>-1042400</v>
+      </c>
+      <c r="K24" s="3">
         <v>518800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1226,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1254700</v>
+        <v>405200</v>
       </c>
       <c r="E26" s="3">
-        <v>1796000</v>
+        <v>1213400</v>
       </c>
       <c r="F26" s="3">
-        <v>842100</v>
+        <v>1736800</v>
       </c>
       <c r="G26" s="3">
-        <v>37100</v>
+        <v>814400</v>
       </c>
       <c r="H26" s="3">
-        <v>751700</v>
+        <v>35900</v>
       </c>
       <c r="I26" s="3">
-        <v>14200</v>
+        <v>727000</v>
       </c>
       <c r="J26" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-292500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1254300</v>
+        <v>404900</v>
       </c>
       <c r="E27" s="3">
-        <v>1795600</v>
+        <v>1213000</v>
       </c>
       <c r="F27" s="3">
-        <v>841400</v>
+        <v>1736400</v>
       </c>
       <c r="G27" s="3">
-        <v>36800</v>
+        <v>813700</v>
       </c>
       <c r="H27" s="3">
-        <v>751700</v>
+        <v>35600</v>
       </c>
       <c r="I27" s="3">
-        <v>15700</v>
+        <v>726900</v>
       </c>
       <c r="J27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-293500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1322,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1354,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1386,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1418,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>233000</v>
+        <v>317000</v>
       </c>
       <c r="E32" s="3">
-        <v>179100</v>
+        <v>225300</v>
       </c>
       <c r="F32" s="3">
-        <v>303800</v>
+        <v>173200</v>
       </c>
       <c r="G32" s="3">
-        <v>483100</v>
+        <v>293800</v>
       </c>
       <c r="H32" s="3">
-        <v>337000</v>
+        <v>467200</v>
       </c>
       <c r="I32" s="3">
-        <v>497600</v>
+        <v>325900</v>
       </c>
       <c r="J32" s="3">
+        <v>481300</v>
+      </c>
+      <c r="K32" s="3">
         <v>261200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1254300</v>
+        <v>404900</v>
       </c>
       <c r="E33" s="3">
-        <v>1795600</v>
+        <v>1213000</v>
       </c>
       <c r="F33" s="3">
-        <v>841400</v>
+        <v>1736400</v>
       </c>
       <c r="G33" s="3">
-        <v>36800</v>
+        <v>813700</v>
       </c>
       <c r="H33" s="3">
-        <v>751700</v>
+        <v>35600</v>
       </c>
       <c r="I33" s="3">
-        <v>15700</v>
+        <v>726900</v>
       </c>
       <c r="J33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-293500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1514,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1254300</v>
+        <v>404900</v>
       </c>
       <c r="E35" s="3">
-        <v>1795600</v>
+        <v>1213000</v>
       </c>
       <c r="F35" s="3">
-        <v>841400</v>
+        <v>1736400</v>
       </c>
       <c r="G35" s="3">
-        <v>36800</v>
+        <v>813700</v>
       </c>
       <c r="H35" s="3">
-        <v>751700</v>
+        <v>35600</v>
       </c>
       <c r="I35" s="3">
-        <v>15700</v>
+        <v>726900</v>
       </c>
       <c r="J35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-293500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1599,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,269 +1613,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5966300</v>
+        <v>5355400</v>
       </c>
       <c r="E41" s="3">
-        <v>8802300</v>
+        <v>5769800</v>
       </c>
       <c r="F41" s="3">
-        <v>5626700</v>
+        <v>8512400</v>
       </c>
       <c r="G41" s="3">
-        <v>5747200</v>
+        <v>5441400</v>
       </c>
       <c r="H41" s="3">
-        <v>5373000</v>
+        <v>5557900</v>
       </c>
       <c r="I41" s="3">
-        <v>5808700</v>
+        <v>5196000</v>
       </c>
       <c r="J41" s="3">
+        <v>5617400</v>
+      </c>
+      <c r="K41" s="3">
         <v>5177000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>272700</v>
+        <v>226800</v>
       </c>
       <c r="E42" s="3">
-        <v>333400</v>
+        <v>263700</v>
       </c>
       <c r="F42" s="3">
-        <v>334000</v>
+        <v>322400</v>
       </c>
       <c r="G42" s="3">
-        <v>139500</v>
+        <v>323000</v>
       </c>
       <c r="H42" s="3">
-        <v>101500</v>
+        <v>134900</v>
       </c>
       <c r="I42" s="3">
-        <v>144100</v>
+        <v>98100</v>
       </c>
       <c r="J42" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K42" s="3">
         <v>183500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7825100</v>
+        <v>7817100</v>
       </c>
       <c r="E43" s="3">
-        <v>7403800</v>
+        <v>7567400</v>
       </c>
       <c r="F43" s="3">
-        <v>7551700</v>
+        <v>7160000</v>
       </c>
       <c r="G43" s="3">
-        <v>7012900</v>
+        <v>7303000</v>
       </c>
       <c r="H43" s="3">
-        <v>7427100</v>
+        <v>6782000</v>
       </c>
       <c r="I43" s="3">
-        <v>7150600</v>
+        <v>7182500</v>
       </c>
       <c r="J43" s="3">
+        <v>6915200</v>
+      </c>
+      <c r="K43" s="3">
         <v>7762900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7098000</v>
+        <v>6902400</v>
       </c>
       <c r="E44" s="3">
-        <v>6867900</v>
+        <v>6864300</v>
       </c>
       <c r="F44" s="3">
-        <v>6735500</v>
+        <v>6641700</v>
       </c>
       <c r="G44" s="3">
-        <v>6773100</v>
+        <v>6513700</v>
       </c>
       <c r="H44" s="3">
-        <v>6917900</v>
+        <v>6550100</v>
       </c>
       <c r="I44" s="3">
-        <v>6919900</v>
+        <v>6690100</v>
       </c>
       <c r="J44" s="3">
+        <v>6692100</v>
+      </c>
+      <c r="K44" s="3">
         <v>7300200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1398400</v>
+        <v>1338800</v>
       </c>
       <c r="E45" s="3">
-        <v>1307100</v>
+        <v>1352400</v>
       </c>
       <c r="F45" s="3">
-        <v>3589400</v>
+        <v>1264000</v>
       </c>
       <c r="G45" s="3">
-        <v>3877800</v>
+        <v>3471200</v>
       </c>
       <c r="H45" s="3">
-        <v>2725600</v>
+        <v>3750100</v>
       </c>
       <c r="I45" s="3">
-        <v>2473100</v>
+        <v>2635900</v>
       </c>
       <c r="J45" s="3">
+        <v>2391700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2536500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22560500</v>
+        <v>21640500</v>
       </c>
       <c r="E46" s="3">
-        <v>24714500</v>
+        <v>21817600</v>
       </c>
       <c r="F46" s="3">
-        <v>23837200</v>
+        <v>23900600</v>
       </c>
       <c r="G46" s="3">
-        <v>23550600</v>
+        <v>23052200</v>
       </c>
       <c r="H46" s="3">
-        <v>22545100</v>
+        <v>22775000</v>
       </c>
       <c r="I46" s="3">
-        <v>22496500</v>
+        <v>21802700</v>
       </c>
       <c r="J46" s="3">
+        <v>21755700</v>
+      </c>
+      <c r="K46" s="3">
         <v>22960200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3413100</v>
+        <v>3101900</v>
       </c>
       <c r="E47" s="3">
-        <v>3173500</v>
+        <v>3300700</v>
       </c>
       <c r="F47" s="3">
-        <v>3425800</v>
+        <v>3069000</v>
       </c>
       <c r="G47" s="3">
-        <v>3184900</v>
+        <v>3313000</v>
       </c>
       <c r="H47" s="3">
-        <v>3066800</v>
+        <v>3080000</v>
       </c>
       <c r="I47" s="3">
-        <v>3365700</v>
+        <v>2965800</v>
       </c>
       <c r="J47" s="3">
+        <v>3254900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3594200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13229300</v>
+        <v>12861900</v>
       </c>
       <c r="E48" s="3">
-        <v>13245200</v>
+        <v>12793600</v>
       </c>
       <c r="F48" s="3">
-        <v>12418200</v>
+        <v>12809000</v>
       </c>
       <c r="G48" s="3">
-        <v>12452900</v>
+        <v>12009300</v>
       </c>
       <c r="H48" s="3">
-        <v>12445900</v>
+        <v>12042800</v>
       </c>
       <c r="I48" s="3">
-        <v>12629800</v>
+        <v>12036000</v>
       </c>
       <c r="J48" s="3">
+        <v>12213900</v>
+      </c>
+      <c r="K48" s="3">
         <v>13381200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72109000</v>
+        <v>69264600</v>
       </c>
       <c r="E49" s="3">
-        <v>72360900</v>
+        <v>69734400</v>
       </c>
       <c r="F49" s="3">
-        <v>69067700</v>
+        <v>69978000</v>
       </c>
       <c r="G49" s="3">
-        <v>70460400</v>
+        <v>66793300</v>
       </c>
       <c r="H49" s="3">
-        <v>73129900</v>
+        <v>68140100</v>
       </c>
       <c r="I49" s="3">
-        <v>74555200</v>
+        <v>70721600</v>
       </c>
       <c r="J49" s="3">
+        <v>72100100</v>
+      </c>
+      <c r="K49" s="3">
         <v>76638300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1931,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1963,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3995400</v>
+        <v>3787100</v>
       </c>
       <c r="E52" s="3">
-        <v>4136900</v>
+        <v>3863900</v>
       </c>
       <c r="F52" s="3">
-        <v>3177800</v>
+        <v>4000700</v>
       </c>
       <c r="G52" s="3">
-        <v>3449500</v>
+        <v>3073100</v>
       </c>
       <c r="H52" s="3">
-        <v>3724600</v>
+        <v>3336000</v>
       </c>
       <c r="I52" s="3">
-        <v>3752800</v>
+        <v>3601900</v>
       </c>
       <c r="J52" s="3">
+        <v>3629300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2143100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2027,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115307400</v>
+        <v>110656000</v>
       </c>
       <c r="E54" s="3">
-        <v>117631000</v>
+        <v>111510200</v>
       </c>
       <c r="F54" s="3">
-        <v>111926700</v>
+        <v>113757300</v>
       </c>
       <c r="G54" s="3">
-        <v>113098300</v>
+        <v>108240900</v>
       </c>
       <c r="H54" s="3">
-        <v>114912200</v>
+        <v>109373900</v>
       </c>
       <c r="I54" s="3">
-        <v>116800200</v>
+        <v>111128000</v>
       </c>
       <c r="J54" s="3">
+        <v>112953800</v>
+      </c>
+      <c r="K54" s="3">
         <v>118716900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2075,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2089,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2921100</v>
+        <v>2965400</v>
       </c>
       <c r="E57" s="3">
-        <v>3132400</v>
+        <v>2824900</v>
       </c>
       <c r="F57" s="3">
-        <v>2978800</v>
+        <v>3029200</v>
       </c>
       <c r="G57" s="3">
-        <v>2485000</v>
+        <v>2880700</v>
       </c>
       <c r="H57" s="3">
-        <v>2639500</v>
+        <v>2403200</v>
       </c>
       <c r="I57" s="3">
-        <v>2904400</v>
+        <v>2552600</v>
       </c>
       <c r="J57" s="3">
+        <v>2808800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2732000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>221100</v>
+        <v>1893100</v>
       </c>
       <c r="E58" s="3">
-        <v>201800</v>
+        <v>213800</v>
       </c>
       <c r="F58" s="3">
-        <v>2591600</v>
+        <v>195200</v>
       </c>
       <c r="G58" s="3">
-        <v>2520000</v>
+        <v>2506200</v>
       </c>
       <c r="H58" s="3">
-        <v>5290500</v>
+        <v>2437000</v>
       </c>
       <c r="I58" s="3">
-        <v>5345900</v>
+        <v>5116200</v>
       </c>
       <c r="J58" s="3">
+        <v>5169900</v>
+      </c>
+      <c r="K58" s="3">
         <v>5572600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12406600</v>
+        <v>12045600</v>
       </c>
       <c r="E59" s="3">
-        <v>12819500</v>
+        <v>11998000</v>
       </c>
       <c r="F59" s="3">
-        <v>10872800</v>
+        <v>12397300</v>
       </c>
       <c r="G59" s="3">
-        <v>10570000</v>
+        <v>10514800</v>
       </c>
       <c r="H59" s="3">
-        <v>10577400</v>
+        <v>10222000</v>
       </c>
       <c r="I59" s="3">
-        <v>11572100</v>
+        <v>10229000</v>
       </c>
       <c r="J59" s="3">
+        <v>11191000</v>
+      </c>
+      <c r="K59" s="3">
         <v>11075700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15548800</v>
+        <v>16904200</v>
       </c>
       <c r="E60" s="3">
-        <v>16153600</v>
+        <v>15036700</v>
       </c>
       <c r="F60" s="3">
-        <v>16443200</v>
+        <v>15621700</v>
       </c>
       <c r="G60" s="3">
-        <v>15575000</v>
+        <v>15901700</v>
       </c>
       <c r="H60" s="3">
-        <v>18507400</v>
+        <v>15062100</v>
       </c>
       <c r="I60" s="3">
-        <v>19822400</v>
+        <v>17897900</v>
       </c>
       <c r="J60" s="3">
+        <v>19169700</v>
+      </c>
+      <c r="K60" s="3">
         <v>19380300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39916300</v>
+        <v>35385100</v>
       </c>
       <c r="E61" s="3">
-        <v>42026400</v>
+        <v>38601800</v>
       </c>
       <c r="F61" s="3">
-        <v>40690500</v>
+        <v>40642500</v>
       </c>
       <c r="G61" s="3">
-        <v>42192200</v>
+        <v>39350500</v>
       </c>
       <c r="H61" s="3">
-        <v>40942400</v>
+        <v>40802800</v>
       </c>
       <c r="I61" s="3">
-        <v>41054100</v>
+        <v>39594100</v>
       </c>
       <c r="J61" s="3">
+        <v>39702200</v>
+      </c>
+      <c r="K61" s="3">
         <v>41997600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12118300</v>
+        <v>11459100</v>
       </c>
       <c r="E62" s="3">
-        <v>12286900</v>
+        <v>11719200</v>
       </c>
       <c r="F62" s="3">
-        <v>12527900</v>
+        <v>11882200</v>
       </c>
       <c r="G62" s="3">
-        <v>12819300</v>
+        <v>12115300</v>
       </c>
       <c r="H62" s="3">
-        <v>12729600</v>
+        <v>12397200</v>
       </c>
       <c r="I62" s="3">
-        <v>12856200</v>
+        <v>12310400</v>
       </c>
       <c r="J62" s="3">
+        <v>12432900</v>
+      </c>
+      <c r="K62" s="3">
         <v>12916700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2311,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2343,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2375,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>67586900</v>
+        <v>63752100</v>
       </c>
       <c r="E66" s="3">
-        <v>70504600</v>
+        <v>65361200</v>
       </c>
       <c r="F66" s="3">
-        <v>69698600</v>
+        <v>68182800</v>
       </c>
       <c r="G66" s="3">
-        <v>70623900</v>
+        <v>67403400</v>
       </c>
       <c r="H66" s="3">
-        <v>72215800</v>
+        <v>68298200</v>
       </c>
       <c r="I66" s="3">
-        <v>73769200</v>
+        <v>69837700</v>
       </c>
       <c r="J66" s="3">
+        <v>71340000</v>
+      </c>
+      <c r="K66" s="3">
         <v>74332300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2423,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2453,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2485,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2517,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2549,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13699700</v>
+        <v>13665600</v>
       </c>
       <c r="E72" s="3">
-        <v>13755200</v>
+        <v>13248600</v>
       </c>
       <c r="F72" s="3">
-        <v>11902800</v>
+        <v>13302300</v>
       </c>
       <c r="G72" s="3">
-        <v>12180700</v>
+        <v>11510900</v>
       </c>
       <c r="H72" s="3">
-        <v>12116800</v>
+        <v>11779500</v>
       </c>
       <c r="I72" s="3">
-        <v>12480400</v>
+        <v>11717800</v>
       </c>
       <c r="J72" s="3">
+        <v>12069500</v>
+      </c>
+      <c r="K72" s="3">
         <v>12557700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2613,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2645,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2677,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47720500</v>
+        <v>46903900</v>
       </c>
       <c r="E76" s="3">
-        <v>47126400</v>
+        <v>46149100</v>
       </c>
       <c r="F76" s="3">
-        <v>42228100</v>
+        <v>45574500</v>
       </c>
       <c r="G76" s="3">
-        <v>42474500</v>
+        <v>40837500</v>
       </c>
       <c r="H76" s="3">
-        <v>42696400</v>
+        <v>41075800</v>
       </c>
       <c r="I76" s="3">
-        <v>43030900</v>
+        <v>41290400</v>
       </c>
       <c r="J76" s="3">
+        <v>41613900</v>
+      </c>
+      <c r="K76" s="3">
         <v>44384600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2741,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1254300</v>
+        <v>404900</v>
       </c>
       <c r="E81" s="3">
-        <v>1795600</v>
+        <v>1213000</v>
       </c>
       <c r="F81" s="3">
-        <v>841400</v>
+        <v>1736400</v>
       </c>
       <c r="G81" s="3">
-        <v>36800</v>
+        <v>813700</v>
       </c>
       <c r="H81" s="3">
-        <v>751700</v>
+        <v>35600</v>
       </c>
       <c r="I81" s="3">
-        <v>15700</v>
+        <v>726900</v>
       </c>
       <c r="J81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-293500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2826,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1302300</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
+        <v>1239100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1259400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1231200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1224100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1247400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1283900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2888,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2920,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2952,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +2984,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3016,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1520100</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
+        <v>2054100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3533100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1921400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2166800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1633700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3064,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-271800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+        <v>-271000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-262900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-318600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-216400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-240900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-203800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-328100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3126,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3158,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-641800</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+        <v>-289900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-620600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2584200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>634100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>242800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>319300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3206,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1202800</v>
+        <v>-84100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1163200</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-76500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1171100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-76100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1172700</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-73300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3268,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3300,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3332,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3744600</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
+        <v>-2179300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3621200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3260300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-2643600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1986200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1698300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1268000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>214100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-74100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2836000</v>
-      </c>
-      <c r="E102" s="3" t="s">
+        <v>-414400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2742600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3071100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>361900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-421400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>610800</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,161 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7442900</v>
+        <v>7688000</v>
       </c>
       <c r="E8" s="3">
-        <v>8366000</v>
+        <v>7206300</v>
       </c>
       <c r="F8" s="3">
-        <v>6786100</v>
+        <v>8100100</v>
       </c>
       <c r="G8" s="3">
-        <v>7371800</v>
+        <v>6570400</v>
       </c>
       <c r="H8" s="3">
-        <v>6950500</v>
+        <v>7137500</v>
       </c>
       <c r="I8" s="3">
-        <v>7064300</v>
+        <v>6729600</v>
       </c>
       <c r="J8" s="3">
+        <v>6839800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6798700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7828400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2429800</v>
+        <v>2400400</v>
       </c>
       <c r="E9" s="3">
-        <v>2125500</v>
+        <v>2352500</v>
       </c>
       <c r="F9" s="3">
-        <v>2232900</v>
+        <v>2058000</v>
       </c>
       <c r="G9" s="3">
-        <v>2230200</v>
+        <v>2161900</v>
       </c>
       <c r="H9" s="3">
-        <v>2199300</v>
+        <v>2159300</v>
       </c>
       <c r="I9" s="3">
-        <v>2097500</v>
+        <v>2129400</v>
       </c>
       <c r="J9" s="3">
+        <v>2030800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2186500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2546900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5013100</v>
+        <v>5287700</v>
       </c>
       <c r="E10" s="3">
-        <v>6240500</v>
+        <v>4853800</v>
       </c>
       <c r="F10" s="3">
-        <v>4553300</v>
+        <v>6042100</v>
       </c>
       <c r="G10" s="3">
-        <v>5141600</v>
+        <v>4408500</v>
       </c>
       <c r="H10" s="3">
-        <v>4751200</v>
+        <v>4978200</v>
       </c>
       <c r="I10" s="3">
-        <v>4966800</v>
+        <v>4600200</v>
       </c>
       <c r="J10" s="3">
+        <v>4809000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4612200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5281400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,40 +832,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1159400</v>
+        <v>1095100</v>
       </c>
       <c r="E12" s="3">
-        <v>1079000</v>
+        <v>1122500</v>
       </c>
       <c r="F12" s="3">
-        <v>998100</v>
+        <v>1044800</v>
       </c>
       <c r="G12" s="3">
-        <v>1035800</v>
+        <v>966400</v>
       </c>
       <c r="H12" s="3">
-        <v>1041000</v>
+        <v>1002800</v>
       </c>
       <c r="I12" s="3">
-        <v>941100</v>
+        <v>1007900</v>
       </c>
       <c r="J12" s="3">
+        <v>911200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1227300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1117900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,72 +900,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>209600</v>
+        <v>228300</v>
       </c>
       <c r="E14" s="3">
-        <v>139400</v>
+        <v>238700</v>
       </c>
       <c r="F14" s="3">
-        <v>259400</v>
+        <v>142900</v>
       </c>
       <c r="G14" s="3">
-        <v>183400</v>
+        <v>251100</v>
       </c>
       <c r="H14" s="3">
-        <v>367600</v>
+        <v>177500</v>
       </c>
       <c r="I14" s="3">
-        <v>210600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>355900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>203900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>905000</v>
+        <v>1007300</v>
       </c>
       <c r="E15" s="3">
-        <v>905900</v>
+        <v>876200</v>
       </c>
       <c r="F15" s="3">
-        <v>1006900</v>
+        <v>877100</v>
       </c>
       <c r="G15" s="3">
-        <v>876400</v>
+        <v>974900</v>
       </c>
       <c r="H15" s="3">
-        <v>914900</v>
+        <v>848500</v>
       </c>
       <c r="I15" s="3">
-        <v>918400</v>
+        <v>885800</v>
       </c>
       <c r="J15" s="3">
+        <v>889300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1112500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>946800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -959,72 +984,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6584500</v>
+        <v>6694400</v>
       </c>
       <c r="E17" s="3">
-        <v>6176300</v>
+        <v>6375300</v>
       </c>
       <c r="F17" s="3">
-        <v>5459900</v>
+        <v>5980000</v>
       </c>
       <c r="G17" s="3">
-        <v>6110700</v>
+        <v>5286300</v>
       </c>
       <c r="H17" s="3">
-        <v>6525000</v>
+        <v>5916500</v>
       </c>
       <c r="I17" s="3">
-        <v>5590500</v>
+        <v>6317600</v>
       </c>
       <c r="J17" s="3">
+        <v>5412800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7346100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7340900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>858300</v>
+        <v>993600</v>
       </c>
       <c r="E18" s="3">
-        <v>2189700</v>
+        <v>831100</v>
       </c>
       <c r="F18" s="3">
-        <v>1326300</v>
+        <v>2120100</v>
       </c>
       <c r="G18" s="3">
-        <v>1261100</v>
+        <v>1284100</v>
       </c>
       <c r="H18" s="3">
-        <v>425500</v>
+        <v>1221000</v>
       </c>
       <c r="I18" s="3">
-        <v>1473800</v>
+        <v>412000</v>
       </c>
       <c r="J18" s="3">
+        <v>1426900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-547400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>487500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,72 +1069,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-317000</v>
+        <v>-377800</v>
       </c>
       <c r="E20" s="3">
-        <v>-225300</v>
+        <v>-306900</v>
       </c>
       <c r="F20" s="3">
-        <v>-173200</v>
+        <v>-218100</v>
       </c>
       <c r="G20" s="3">
-        <v>-293800</v>
+        <v>-167700</v>
       </c>
       <c r="H20" s="3">
-        <v>-467200</v>
+        <v>-284400</v>
       </c>
       <c r="I20" s="3">
-        <v>-325900</v>
+        <v>-452400</v>
       </c>
       <c r="J20" s="3">
+        <v>-315600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-481300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-261200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1780400</v>
+        <v>1872100</v>
       </c>
       <c r="E21" s="3">
-        <v>3223800</v>
+        <v>1723900</v>
       </c>
       <c r="F21" s="3">
-        <v>2381100</v>
+        <v>3121300</v>
       </c>
       <c r="G21" s="3">
-        <v>2198500</v>
+        <v>2305400</v>
       </c>
       <c r="H21" s="3">
-        <v>1182400</v>
+        <v>2128600</v>
       </c>
       <c r="I21" s="3">
-        <v>2395200</v>
+        <v>1144800</v>
       </c>
       <c r="J21" s="3">
+        <v>2319100</v>
+      </c>
+      <c r="K21" s="3">
         <v>255200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4215800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1133,72 +1172,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>541300</v>
+        <v>615800</v>
       </c>
       <c r="E23" s="3">
-        <v>1964400</v>
+        <v>524100</v>
       </c>
       <c r="F23" s="3">
-        <v>1153000</v>
+        <v>1902000</v>
       </c>
       <c r="G23" s="3">
-        <v>967300</v>
+        <v>1116400</v>
       </c>
       <c r="H23" s="3">
-        <v>-41700</v>
+        <v>936600</v>
       </c>
       <c r="I23" s="3">
-        <v>1147900</v>
+        <v>-40300</v>
       </c>
       <c r="J23" s="3">
+        <v>1111400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1028700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>226300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>136100</v>
+        <v>122600</v>
       </c>
       <c r="E24" s="3">
-        <v>751100</v>
+        <v>131800</v>
       </c>
       <c r="F24" s="3">
-        <v>-583800</v>
+        <v>727200</v>
       </c>
       <c r="G24" s="3">
-        <v>152900</v>
+        <v>-565200</v>
       </c>
       <c r="H24" s="3">
-        <v>-77500</v>
+        <v>148100</v>
       </c>
       <c r="I24" s="3">
-        <v>420900</v>
+        <v>-75100</v>
       </c>
       <c r="J24" s="3">
+        <v>407500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1042400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>518800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1229,72 +1277,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>405200</v>
+        <v>493200</v>
       </c>
       <c r="E26" s="3">
-        <v>1213400</v>
+        <v>392300</v>
       </c>
       <c r="F26" s="3">
-        <v>1736800</v>
+        <v>1174800</v>
       </c>
       <c r="G26" s="3">
-        <v>814400</v>
+        <v>1681600</v>
       </c>
       <c r="H26" s="3">
-        <v>35900</v>
+        <v>788500</v>
       </c>
       <c r="I26" s="3">
-        <v>727000</v>
+        <v>34700</v>
       </c>
       <c r="J26" s="3">
+        <v>703900</v>
+      </c>
+      <c r="K26" s="3">
         <v>13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-292500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>404900</v>
+        <v>492800</v>
       </c>
       <c r="E27" s="3">
-        <v>1213000</v>
+        <v>392100</v>
       </c>
       <c r="F27" s="3">
-        <v>1736400</v>
+        <v>1174400</v>
       </c>
       <c r="G27" s="3">
-        <v>813700</v>
+        <v>1681200</v>
       </c>
       <c r="H27" s="3">
-        <v>35600</v>
+        <v>787800</v>
       </c>
       <c r="I27" s="3">
-        <v>726900</v>
+        <v>34400</v>
       </c>
       <c r="J27" s="3">
+        <v>703800</v>
+      </c>
+      <c r="K27" s="3">
         <v>15200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-293500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,8 +1382,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1357,8 +1417,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1389,8 +1452,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1421,72 +1487,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>317000</v>
+        <v>377800</v>
       </c>
       <c r="E32" s="3">
-        <v>225300</v>
+        <v>306900</v>
       </c>
       <c r="F32" s="3">
-        <v>173200</v>
+        <v>218100</v>
       </c>
       <c r="G32" s="3">
-        <v>293800</v>
+        <v>167700</v>
       </c>
       <c r="H32" s="3">
-        <v>467200</v>
+        <v>284400</v>
       </c>
       <c r="I32" s="3">
-        <v>325900</v>
+        <v>452400</v>
       </c>
       <c r="J32" s="3">
+        <v>315600</v>
+      </c>
+      <c r="K32" s="3">
         <v>481300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>261200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>404900</v>
+        <v>492800</v>
       </c>
       <c r="E33" s="3">
-        <v>1213000</v>
+        <v>392100</v>
       </c>
       <c r="F33" s="3">
-        <v>1736400</v>
+        <v>1174400</v>
       </c>
       <c r="G33" s="3">
-        <v>813700</v>
+        <v>1681200</v>
       </c>
       <c r="H33" s="3">
-        <v>35600</v>
+        <v>787800</v>
       </c>
       <c r="I33" s="3">
-        <v>726900</v>
+        <v>34400</v>
       </c>
       <c r="J33" s="3">
+        <v>703800</v>
+      </c>
+      <c r="K33" s="3">
         <v>15200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-293500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1517,77 +1592,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>404900</v>
+        <v>492800</v>
       </c>
       <c r="E35" s="3">
-        <v>1213000</v>
+        <v>392100</v>
       </c>
       <c r="F35" s="3">
-        <v>1736400</v>
+        <v>1174400</v>
       </c>
       <c r="G35" s="3">
-        <v>813700</v>
+        <v>1681200</v>
       </c>
       <c r="H35" s="3">
-        <v>35600</v>
+        <v>787800</v>
       </c>
       <c r="I35" s="3">
-        <v>726900</v>
+        <v>34400</v>
       </c>
       <c r="J35" s="3">
+        <v>703800</v>
+      </c>
+      <c r="K35" s="3">
         <v>15200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-293500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1600,8 +1684,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1614,296 +1699,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5355400</v>
+        <v>6178600</v>
       </c>
       <c r="E41" s="3">
-        <v>5769800</v>
+        <v>5185200</v>
       </c>
       <c r="F41" s="3">
-        <v>8512400</v>
+        <v>5586500</v>
       </c>
       <c r="G41" s="3">
-        <v>5441400</v>
+        <v>8241900</v>
       </c>
       <c r="H41" s="3">
-        <v>5557900</v>
+        <v>5268400</v>
       </c>
       <c r="I41" s="3">
-        <v>5196000</v>
+        <v>5381300</v>
       </c>
       <c r="J41" s="3">
+        <v>5030900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5617400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5177000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>226800</v>
+        <v>235000</v>
       </c>
       <c r="E42" s="3">
-        <v>263700</v>
+        <v>219600</v>
       </c>
       <c r="F42" s="3">
-        <v>322400</v>
+        <v>255300</v>
       </c>
       <c r="G42" s="3">
-        <v>323000</v>
+        <v>312200</v>
       </c>
       <c r="H42" s="3">
-        <v>134900</v>
+        <v>312700</v>
       </c>
       <c r="I42" s="3">
-        <v>98100</v>
+        <v>130600</v>
       </c>
       <c r="J42" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K42" s="3">
         <v>139400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>183500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7817100</v>
+        <v>6449700</v>
       </c>
       <c r="E43" s="3">
-        <v>7567400</v>
+        <v>7568600</v>
       </c>
       <c r="F43" s="3">
-        <v>7160000</v>
+        <v>7326900</v>
       </c>
       <c r="G43" s="3">
-        <v>7303000</v>
+        <v>6932500</v>
       </c>
       <c r="H43" s="3">
-        <v>6782000</v>
+        <v>7070900</v>
       </c>
       <c r="I43" s="3">
-        <v>7182500</v>
+        <v>6566400</v>
       </c>
       <c r="J43" s="3">
+        <v>6954300</v>
+      </c>
+      <c r="K43" s="3">
         <v>6915200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7762900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6902400</v>
+        <v>6920600</v>
       </c>
       <c r="E44" s="3">
-        <v>6864300</v>
+        <v>6683100</v>
       </c>
       <c r="F44" s="3">
-        <v>6641700</v>
+        <v>6646100</v>
       </c>
       <c r="G44" s="3">
-        <v>6513700</v>
+        <v>6430600</v>
       </c>
       <c r="H44" s="3">
-        <v>6550100</v>
+        <v>6306700</v>
       </c>
       <c r="I44" s="3">
-        <v>6690100</v>
+        <v>6341900</v>
       </c>
       <c r="J44" s="3">
+        <v>6477500</v>
+      </c>
+      <c r="K44" s="3">
         <v>6692100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7300200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1338800</v>
+        <v>1352500</v>
       </c>
       <c r="E45" s="3">
-        <v>1352400</v>
+        <v>1296200</v>
       </c>
       <c r="F45" s="3">
-        <v>1264000</v>
+        <v>1309400</v>
       </c>
       <c r="G45" s="3">
-        <v>3471200</v>
+        <v>1223900</v>
       </c>
       <c r="H45" s="3">
-        <v>3750100</v>
+        <v>3360900</v>
       </c>
       <c r="I45" s="3">
-        <v>2635900</v>
+        <v>3630900</v>
       </c>
       <c r="J45" s="3">
+        <v>2552100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2391700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2536500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21640500</v>
+        <v>21136400</v>
       </c>
       <c r="E46" s="3">
-        <v>21817600</v>
+        <v>20952700</v>
       </c>
       <c r="F46" s="3">
-        <v>23900600</v>
+        <v>21124200</v>
       </c>
       <c r="G46" s="3">
-        <v>23052200</v>
+        <v>23141000</v>
       </c>
       <c r="H46" s="3">
-        <v>22775000</v>
+        <v>22319600</v>
       </c>
       <c r="I46" s="3">
-        <v>21802700</v>
+        <v>22051200</v>
       </c>
       <c r="J46" s="3">
+        <v>21109700</v>
+      </c>
+      <c r="K46" s="3">
         <v>21755700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22960200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3101900</v>
+        <v>2855900</v>
       </c>
       <c r="E47" s="3">
-        <v>3300700</v>
+        <v>3003300</v>
       </c>
       <c r="F47" s="3">
-        <v>3069000</v>
+        <v>3195800</v>
       </c>
       <c r="G47" s="3">
-        <v>3313000</v>
+        <v>2971400</v>
       </c>
       <c r="H47" s="3">
-        <v>3080000</v>
+        <v>3207700</v>
       </c>
       <c r="I47" s="3">
-        <v>2965800</v>
+        <v>2982100</v>
       </c>
       <c r="J47" s="3">
+        <v>2871500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3254900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3594200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12861900</v>
+        <v>12740300</v>
       </c>
       <c r="E48" s="3">
-        <v>12793600</v>
+        <v>12453100</v>
       </c>
       <c r="F48" s="3">
-        <v>12809000</v>
+        <v>12387000</v>
       </c>
       <c r="G48" s="3">
-        <v>12009300</v>
+        <v>12401900</v>
       </c>
       <c r="H48" s="3">
-        <v>12042800</v>
+        <v>11627600</v>
       </c>
       <c r="I48" s="3">
-        <v>12036000</v>
+        <v>11660100</v>
       </c>
       <c r="J48" s="3">
+        <v>11653500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12213900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13381200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>69264600</v>
+        <v>67897700</v>
       </c>
       <c r="E49" s="3">
-        <v>69734400</v>
+        <v>67063300</v>
       </c>
       <c r="F49" s="3">
-        <v>69978000</v>
+        <v>67518100</v>
       </c>
       <c r="G49" s="3">
-        <v>66793300</v>
+        <v>67754000</v>
       </c>
       <c r="H49" s="3">
-        <v>68140100</v>
+        <v>64670400</v>
       </c>
       <c r="I49" s="3">
-        <v>70721600</v>
+        <v>65974500</v>
       </c>
       <c r="J49" s="3">
+        <v>68474000</v>
+      </c>
+      <c r="K49" s="3">
         <v>72100100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76638300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2047,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1966,40 +2082,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3787100</v>
+        <v>3688000</v>
       </c>
       <c r="E52" s="3">
-        <v>3863900</v>
+        <v>3666700</v>
       </c>
       <c r="F52" s="3">
-        <v>4000700</v>
+        <v>3741100</v>
       </c>
       <c r="G52" s="3">
-        <v>3073100</v>
+        <v>3873600</v>
       </c>
       <c r="H52" s="3">
-        <v>3336000</v>
+        <v>2975400</v>
       </c>
       <c r="I52" s="3">
-        <v>3601900</v>
+        <v>3229900</v>
       </c>
       <c r="J52" s="3">
+        <v>3487500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3629300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2143100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2030,40 +2152,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110656000</v>
+        <v>108318400</v>
       </c>
       <c r="E54" s="3">
-        <v>111510200</v>
+        <v>107139100</v>
       </c>
       <c r="F54" s="3">
-        <v>113757300</v>
+        <v>107966200</v>
       </c>
       <c r="G54" s="3">
-        <v>108240900</v>
+        <v>110141900</v>
       </c>
       <c r="H54" s="3">
-        <v>109373900</v>
+        <v>104800700</v>
       </c>
       <c r="I54" s="3">
-        <v>111128000</v>
+        <v>105897800</v>
       </c>
       <c r="J54" s="3">
+        <v>107596200</v>
+      </c>
+      <c r="K54" s="3">
         <v>112953800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118716900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2076,8 +2204,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2090,200 +2219,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2965400</v>
+        <v>2995600</v>
       </c>
       <c r="E57" s="3">
-        <v>2824900</v>
+        <v>2871200</v>
       </c>
       <c r="F57" s="3">
-        <v>3029200</v>
+        <v>2735100</v>
       </c>
       <c r="G57" s="3">
-        <v>2880700</v>
+        <v>2932900</v>
       </c>
       <c r="H57" s="3">
-        <v>2403200</v>
+        <v>2789100</v>
       </c>
       <c r="I57" s="3">
-        <v>2552600</v>
+        <v>2326800</v>
       </c>
       <c r="J57" s="3">
+        <v>2471500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2808800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2732000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1893100</v>
+        <v>1048600</v>
       </c>
       <c r="E58" s="3">
-        <v>213800</v>
+        <v>1833000</v>
       </c>
       <c r="F58" s="3">
-        <v>195200</v>
+        <v>207000</v>
       </c>
       <c r="G58" s="3">
-        <v>2506200</v>
+        <v>189000</v>
       </c>
       <c r="H58" s="3">
-        <v>2437000</v>
+        <v>2426600</v>
       </c>
       <c r="I58" s="3">
-        <v>5116200</v>
+        <v>2359500</v>
       </c>
       <c r="J58" s="3">
+        <v>4953600</v>
+      </c>
+      <c r="K58" s="3">
         <v>5169900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5572600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12045600</v>
+        <v>11388700</v>
       </c>
       <c r="E59" s="3">
-        <v>11998000</v>
+        <v>11662800</v>
       </c>
       <c r="F59" s="3">
-        <v>12397300</v>
+        <v>11616700</v>
       </c>
       <c r="G59" s="3">
-        <v>10514800</v>
+        <v>12003300</v>
       </c>
       <c r="H59" s="3">
-        <v>10222000</v>
+        <v>10180600</v>
       </c>
       <c r="I59" s="3">
-        <v>10229000</v>
+        <v>9897100</v>
       </c>
       <c r="J59" s="3">
+        <v>9903900</v>
+      </c>
+      <c r="K59" s="3">
         <v>11191000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11075700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16904200</v>
+        <v>15432900</v>
       </c>
       <c r="E60" s="3">
-        <v>15036700</v>
+        <v>16366900</v>
       </c>
       <c r="F60" s="3">
-        <v>15621700</v>
+        <v>14558900</v>
       </c>
       <c r="G60" s="3">
-        <v>15901700</v>
+        <v>15125200</v>
       </c>
       <c r="H60" s="3">
-        <v>15062100</v>
+        <v>15396300</v>
       </c>
       <c r="I60" s="3">
-        <v>17897900</v>
+        <v>14583400</v>
       </c>
       <c r="J60" s="3">
+        <v>17329100</v>
+      </c>
+      <c r="K60" s="3">
         <v>19169700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19380300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35385100</v>
+        <v>36098400</v>
       </c>
       <c r="E61" s="3">
-        <v>38601800</v>
+        <v>34260500</v>
       </c>
       <c r="F61" s="3">
-        <v>40642500</v>
+        <v>37375000</v>
       </c>
       <c r="G61" s="3">
-        <v>39350500</v>
+        <v>39350700</v>
       </c>
       <c r="H61" s="3">
-        <v>40802800</v>
+        <v>38099900</v>
       </c>
       <c r="I61" s="3">
-        <v>39594100</v>
+        <v>39506000</v>
       </c>
       <c r="J61" s="3">
+        <v>38335700</v>
+      </c>
+      <c r="K61" s="3">
         <v>39702200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41997600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11459100</v>
+        <v>11306500</v>
       </c>
       <c r="E62" s="3">
-        <v>11719200</v>
+        <v>11094900</v>
       </c>
       <c r="F62" s="3">
-        <v>11882200</v>
+        <v>11346800</v>
       </c>
       <c r="G62" s="3">
-        <v>12115300</v>
+        <v>11504600</v>
       </c>
       <c r="H62" s="3">
-        <v>12397200</v>
+        <v>11730300</v>
       </c>
       <c r="I62" s="3">
-        <v>12310400</v>
+        <v>12003200</v>
       </c>
       <c r="J62" s="3">
+        <v>11919100</v>
+      </c>
+      <c r="K62" s="3">
         <v>12432900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12916700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,8 +2462,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2497,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2378,40 +2532,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63752100</v>
+        <v>62842100</v>
       </c>
       <c r="E66" s="3">
-        <v>65361200</v>
+        <v>61726000</v>
       </c>
       <c r="F66" s="3">
-        <v>68182800</v>
+        <v>63283900</v>
       </c>
       <c r="G66" s="3">
-        <v>67403400</v>
+        <v>66015900</v>
       </c>
       <c r="H66" s="3">
-        <v>68298200</v>
+        <v>65261200</v>
       </c>
       <c r="I66" s="3">
-        <v>69837700</v>
+        <v>66127500</v>
       </c>
       <c r="J66" s="3">
+        <v>67618100</v>
+      </c>
+      <c r="K66" s="3">
         <v>71340000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74332300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2424,8 +2584,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2456,8 +2617,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2488,8 +2652,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2520,8 +2687,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2552,40 +2722,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13665600</v>
+        <v>12512900</v>
       </c>
       <c r="E72" s="3">
-        <v>13248600</v>
+        <v>13231300</v>
       </c>
       <c r="F72" s="3">
-        <v>13302300</v>
+        <v>12827500</v>
       </c>
       <c r="G72" s="3">
-        <v>11510900</v>
+        <v>12879500</v>
       </c>
       <c r="H72" s="3">
-        <v>11779500</v>
+        <v>11145000</v>
       </c>
       <c r="I72" s="3">
-        <v>11717800</v>
+        <v>11405200</v>
       </c>
       <c r="J72" s="3">
+        <v>11345400</v>
+      </c>
+      <c r="K72" s="3">
         <v>12069500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12557700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2616,8 +2792,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2648,8 +2827,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2680,40 +2862,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46903900</v>
+        <v>45476200</v>
       </c>
       <c r="E76" s="3">
-        <v>46149100</v>
+        <v>45413200</v>
       </c>
       <c r="F76" s="3">
-        <v>45574500</v>
+        <v>44682300</v>
       </c>
       <c r="G76" s="3">
-        <v>40837500</v>
+        <v>44126000</v>
       </c>
       <c r="H76" s="3">
-        <v>41075800</v>
+        <v>39539600</v>
       </c>
       <c r="I76" s="3">
-        <v>41290400</v>
+        <v>39770300</v>
       </c>
       <c r="J76" s="3">
+        <v>39978100</v>
+      </c>
+      <c r="K76" s="3">
         <v>41613900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44384600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2744,77 +2932,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>404900</v>
+        <v>492800</v>
       </c>
       <c r="E81" s="3">
-        <v>1213000</v>
+        <v>392100</v>
       </c>
       <c r="F81" s="3">
-        <v>1736400</v>
+        <v>1174400</v>
       </c>
       <c r="G81" s="3">
-        <v>813700</v>
+        <v>1681200</v>
       </c>
       <c r="H81" s="3">
-        <v>35600</v>
+        <v>787800</v>
       </c>
       <c r="I81" s="3">
-        <v>726900</v>
+        <v>34400</v>
       </c>
       <c r="J81" s="3">
+        <v>703800</v>
+      </c>
+      <c r="K81" s="3">
         <v>15200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-293500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2827,40 +3024,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1239100</v>
+        <v>1256300</v>
       </c>
       <c r="E83" s="3">
-        <v>1259400</v>
+        <v>1199700</v>
       </c>
       <c r="F83" s="3">
-        <v>1228000</v>
+        <v>1219300</v>
       </c>
       <c r="G83" s="3">
-        <v>1231200</v>
+        <v>1189000</v>
       </c>
       <c r="H83" s="3">
-        <v>1224100</v>
+        <v>1192100</v>
       </c>
       <c r="I83" s="3">
-        <v>1247400</v>
+        <v>1185200</v>
       </c>
       <c r="J83" s="3">
+        <v>1207700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1283900</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2891,8 +3092,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2923,8 +3127,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2955,8 +3162,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2987,8 +3197,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3019,40 +3232,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2054100</v>
+        <v>2964300</v>
       </c>
       <c r="E89" s="3">
-        <v>1470000</v>
+        <v>1988800</v>
       </c>
       <c r="F89" s="3">
-        <v>3533100</v>
+        <v>1423300</v>
       </c>
       <c r="G89" s="3">
-        <v>1921400</v>
+        <v>3420800</v>
       </c>
       <c r="H89" s="3">
-        <v>2166800</v>
+        <v>1860300</v>
       </c>
       <c r="I89" s="3">
-        <v>1285000</v>
+        <v>2097900</v>
       </c>
       <c r="J89" s="3">
+        <v>1244200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1633700</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3065,40 +3284,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-271000</v>
+        <v>-230900</v>
       </c>
       <c r="E91" s="3">
-        <v>-262900</v>
+        <v>-262400</v>
       </c>
       <c r="F91" s="3">
-        <v>-318600</v>
+        <v>-254500</v>
       </c>
       <c r="G91" s="3">
-        <v>-216400</v>
+        <v>-308500</v>
       </c>
       <c r="H91" s="3">
-        <v>-240900</v>
+        <v>-209500</v>
       </c>
       <c r="I91" s="3">
-        <v>-203800</v>
+        <v>-233200</v>
       </c>
       <c r="J91" s="3">
+        <v>-197300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-328100</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3129,8 +3352,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3161,40 +3387,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-289900</v>
+        <v>-589700</v>
       </c>
       <c r="E94" s="3">
-        <v>-620600</v>
+        <v>-280700</v>
       </c>
       <c r="F94" s="3">
-        <v>2584200</v>
+        <v>-600900</v>
       </c>
       <c r="G94" s="3">
-        <v>634100</v>
+        <v>2502100</v>
       </c>
       <c r="H94" s="3">
-        <v>242800</v>
+        <v>613900</v>
       </c>
       <c r="I94" s="3">
-        <v>5800</v>
+        <v>235100</v>
       </c>
       <c r="J94" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K94" s="3">
         <v>319300</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3207,40 +3439,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-84100</v>
+        <v>-1121300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1163200</v>
+        <v>-81400</v>
       </c>
       <c r="F96" s="3">
-        <v>-76500</v>
+        <v>-1126200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1171100</v>
+        <v>-74000</v>
       </c>
       <c r="H96" s="3">
-        <v>-76100</v>
+        <v>-1133900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1172700</v>
+        <v>-73700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1135500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-73300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3271,8 +3507,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3303,8 +3542,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3335,100 +3577,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2179300</v>
+        <v>-1433600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3621200</v>
+        <v>-2110000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3260300</v>
+        <v>-3506200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2643600</v>
+        <v>-3156700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1986200</v>
+        <v>-2559600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1698300</v>
+        <v>-1923000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1644300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1268000</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>29300</v>
-      </c>
       <c r="F101" s="3">
-        <v>214100</v>
+        <v>28400</v>
       </c>
       <c r="G101" s="3">
-        <v>-28400</v>
+        <v>207300</v>
       </c>
       <c r="H101" s="3">
-        <v>-61500</v>
+        <v>-27500</v>
       </c>
       <c r="I101" s="3">
-        <v>-14000</v>
+        <v>-59600</v>
       </c>
       <c r="J101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-74100</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-414400</v>
+        <v>993400</v>
       </c>
       <c r="E102" s="3">
-        <v>-2742600</v>
+        <v>-401300</v>
       </c>
       <c r="F102" s="3">
-        <v>3071100</v>
+        <v>-2655400</v>
       </c>
       <c r="G102" s="3">
-        <v>-116600</v>
+        <v>2973400</v>
       </c>
       <c r="H102" s="3">
-        <v>361900</v>
+        <v>-112900</v>
       </c>
       <c r="I102" s="3">
-        <v>-421400</v>
+        <v>350400</v>
       </c>
       <c r="J102" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="K102" s="3">
         <v>610800</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,178 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7688000</v>
+        <v>6802900</v>
       </c>
       <c r="E8" s="3">
-        <v>7206300</v>
+        <v>7021100</v>
       </c>
       <c r="F8" s="3">
-        <v>8100100</v>
+        <v>6581100</v>
       </c>
       <c r="G8" s="3">
-        <v>6570400</v>
+        <v>7397400</v>
       </c>
       <c r="H8" s="3">
-        <v>7137500</v>
+        <v>6000400</v>
       </c>
       <c r="I8" s="3">
-        <v>6729600</v>
+        <v>6518300</v>
       </c>
       <c r="J8" s="3">
+        <v>6145800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6839800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6798700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7828400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2400400</v>
+        <v>2402300</v>
       </c>
       <c r="E9" s="3">
-        <v>2352500</v>
+        <v>2192100</v>
       </c>
       <c r="F9" s="3">
-        <v>2058000</v>
+        <v>2148500</v>
       </c>
       <c r="G9" s="3">
-        <v>2161900</v>
+        <v>1879400</v>
       </c>
       <c r="H9" s="3">
-        <v>2159300</v>
+        <v>1974300</v>
       </c>
       <c r="I9" s="3">
-        <v>2129400</v>
+        <v>1972000</v>
       </c>
       <c r="J9" s="3">
+        <v>1944700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2030800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2186500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2546900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5287700</v>
+        <v>4400600</v>
       </c>
       <c r="E10" s="3">
-        <v>4853800</v>
+        <v>4828900</v>
       </c>
       <c r="F10" s="3">
-        <v>6042100</v>
+        <v>4432700</v>
       </c>
       <c r="G10" s="3">
-        <v>4408500</v>
+        <v>5518000</v>
       </c>
       <c r="H10" s="3">
-        <v>4978200</v>
+        <v>4026100</v>
       </c>
       <c r="I10" s="3">
-        <v>4600200</v>
+        <v>4546300</v>
       </c>
       <c r="J10" s="3">
+        <v>4201100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4809000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4612200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5281400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,43 +850,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1095100</v>
+        <v>1118900</v>
       </c>
       <c r="E12" s="3">
-        <v>1122500</v>
+        <v>1000100</v>
       </c>
       <c r="F12" s="3">
-        <v>1044800</v>
+        <v>1025200</v>
       </c>
       <c r="G12" s="3">
-        <v>966400</v>
+        <v>954100</v>
       </c>
       <c r="H12" s="3">
-        <v>1002800</v>
+        <v>882500</v>
       </c>
       <c r="I12" s="3">
-        <v>1007900</v>
+        <v>915800</v>
       </c>
       <c r="J12" s="3">
+        <v>920400</v>
+      </c>
+      <c r="K12" s="3">
         <v>911200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1227300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1117900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,78 +924,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>228300</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>238700</v>
+        <v>208500</v>
       </c>
       <c r="F14" s="3">
-        <v>142900</v>
+        <v>218000</v>
       </c>
       <c r="G14" s="3">
-        <v>251100</v>
+        <v>130500</v>
       </c>
       <c r="H14" s="3">
-        <v>177500</v>
+        <v>229300</v>
       </c>
       <c r="I14" s="3">
-        <v>355900</v>
+        <v>162100</v>
       </c>
       <c r="J14" s="3">
+        <v>325000</v>
+      </c>
+      <c r="K14" s="3">
         <v>203900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1007300</v>
+        <v>1162900</v>
       </c>
       <c r="E15" s="3">
-        <v>876200</v>
+        <v>919900</v>
       </c>
       <c r="F15" s="3">
-        <v>877100</v>
+        <v>800200</v>
       </c>
       <c r="G15" s="3">
-        <v>974900</v>
+        <v>801000</v>
       </c>
       <c r="H15" s="3">
-        <v>848500</v>
+        <v>890400</v>
       </c>
       <c r="I15" s="3">
-        <v>885800</v>
+        <v>774900</v>
       </c>
       <c r="J15" s="3">
+        <v>809000</v>
+      </c>
+      <c r="K15" s="3">
         <v>889300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1112500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>946800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -985,78 +1015,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6694400</v>
+        <v>6815500</v>
       </c>
       <c r="E17" s="3">
-        <v>6375300</v>
+        <v>6113700</v>
       </c>
       <c r="F17" s="3">
-        <v>5980000</v>
+        <v>5822200</v>
       </c>
       <c r="G17" s="3">
-        <v>5286300</v>
+        <v>5461200</v>
       </c>
       <c r="H17" s="3">
-        <v>5916500</v>
+        <v>4827700</v>
       </c>
       <c r="I17" s="3">
-        <v>6317600</v>
+        <v>5403200</v>
       </c>
       <c r="J17" s="3">
+        <v>5769500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5412800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7346100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7340900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>993600</v>
+        <v>-12600</v>
       </c>
       <c r="E18" s="3">
-        <v>831100</v>
+        <v>907400</v>
       </c>
       <c r="F18" s="3">
-        <v>2120100</v>
+        <v>759000</v>
       </c>
       <c r="G18" s="3">
-        <v>1284100</v>
+        <v>1936200</v>
       </c>
       <c r="H18" s="3">
-        <v>1221000</v>
+        <v>1172700</v>
       </c>
       <c r="I18" s="3">
-        <v>412000</v>
+        <v>1115100</v>
       </c>
       <c r="J18" s="3">
+        <v>376300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1426900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-547400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>487500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,78 +1107,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-377800</v>
+        <v>-408400</v>
       </c>
       <c r="E20" s="3">
-        <v>-306900</v>
+        <v>-345000</v>
       </c>
       <c r="F20" s="3">
-        <v>-218100</v>
+        <v>-280300</v>
       </c>
       <c r="G20" s="3">
-        <v>-167700</v>
+        <v>-199200</v>
       </c>
       <c r="H20" s="3">
-        <v>-284400</v>
+        <v>-153200</v>
       </c>
       <c r="I20" s="3">
-        <v>-452400</v>
+        <v>-259800</v>
       </c>
       <c r="J20" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-315600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-481300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-261200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1872100</v>
+        <v>765200</v>
       </c>
       <c r="E21" s="3">
-        <v>1723900</v>
+        <v>1709700</v>
       </c>
       <c r="F21" s="3">
-        <v>3121300</v>
+        <v>1574300</v>
       </c>
       <c r="G21" s="3">
-        <v>2305400</v>
+        <v>2850600</v>
       </c>
       <c r="H21" s="3">
-        <v>2128600</v>
+        <v>2105400</v>
       </c>
       <c r="I21" s="3">
-        <v>1144800</v>
+        <v>1944000</v>
       </c>
       <c r="J21" s="3">
+        <v>1045500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2319100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>255200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4215800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,78 +1219,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>615800</v>
+        <v>-421000</v>
       </c>
       <c r="E23" s="3">
-        <v>524100</v>
+        <v>562400</v>
       </c>
       <c r="F23" s="3">
-        <v>1902000</v>
+        <v>478700</v>
       </c>
       <c r="G23" s="3">
-        <v>1116400</v>
+        <v>1737000</v>
       </c>
       <c r="H23" s="3">
-        <v>936600</v>
+        <v>1019500</v>
       </c>
       <c r="I23" s="3">
-        <v>-40300</v>
+        <v>855300</v>
       </c>
       <c r="J23" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1111400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1028700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>226300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>122600</v>
+        <v>-332400</v>
       </c>
       <c r="E24" s="3">
-        <v>131800</v>
+        <v>112000</v>
       </c>
       <c r="F24" s="3">
-        <v>727200</v>
+        <v>120400</v>
       </c>
       <c r="G24" s="3">
-        <v>-565200</v>
+        <v>664100</v>
       </c>
       <c r="H24" s="3">
-        <v>148100</v>
+        <v>-516200</v>
       </c>
       <c r="I24" s="3">
-        <v>-75100</v>
+        <v>135200</v>
       </c>
       <c r="J24" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="K24" s="3">
         <v>407500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1042400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>518800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,78 +1333,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>493200</v>
+        <v>-88600</v>
       </c>
       <c r="E26" s="3">
-        <v>392300</v>
+        <v>450400</v>
       </c>
       <c r="F26" s="3">
-        <v>1174800</v>
+        <v>358300</v>
       </c>
       <c r="G26" s="3">
-        <v>1681600</v>
+        <v>1072900</v>
       </c>
       <c r="H26" s="3">
-        <v>788500</v>
+        <v>1535800</v>
       </c>
       <c r="I26" s="3">
-        <v>34700</v>
+        <v>720100</v>
       </c>
       <c r="J26" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K26" s="3">
         <v>703900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-292500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>492800</v>
+        <v>-88500</v>
       </c>
       <c r="E27" s="3">
-        <v>392100</v>
+        <v>450000</v>
       </c>
       <c r="F27" s="3">
-        <v>1174400</v>
+        <v>358100</v>
       </c>
       <c r="G27" s="3">
-        <v>1681200</v>
+        <v>1072600</v>
       </c>
       <c r="H27" s="3">
-        <v>787800</v>
+        <v>1535400</v>
       </c>
       <c r="I27" s="3">
-        <v>34400</v>
+        <v>719500</v>
       </c>
       <c r="J27" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K27" s="3">
         <v>703800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-293500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,78 +1561,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>377800</v>
+        <v>408400</v>
       </c>
       <c r="E32" s="3">
-        <v>306900</v>
+        <v>345000</v>
       </c>
       <c r="F32" s="3">
-        <v>218100</v>
+        <v>280300</v>
       </c>
       <c r="G32" s="3">
-        <v>167700</v>
+        <v>199200</v>
       </c>
       <c r="H32" s="3">
-        <v>284400</v>
+        <v>153200</v>
       </c>
       <c r="I32" s="3">
-        <v>452400</v>
+        <v>259800</v>
       </c>
       <c r="J32" s="3">
+        <v>413100</v>
+      </c>
+      <c r="K32" s="3">
         <v>315600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>481300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>261200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>492800</v>
+        <v>-88500</v>
       </c>
       <c r="E33" s="3">
-        <v>392100</v>
+        <v>450000</v>
       </c>
       <c r="F33" s="3">
-        <v>1174400</v>
+        <v>358100</v>
       </c>
       <c r="G33" s="3">
-        <v>1681200</v>
+        <v>1072600</v>
       </c>
       <c r="H33" s="3">
-        <v>787800</v>
+        <v>1535400</v>
       </c>
       <c r="I33" s="3">
-        <v>34400</v>
+        <v>719500</v>
       </c>
       <c r="J33" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K33" s="3">
         <v>703800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-293500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,83 +1675,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>492800</v>
+        <v>-88500</v>
       </c>
       <c r="E35" s="3">
-        <v>392100</v>
+        <v>450000</v>
       </c>
       <c r="F35" s="3">
-        <v>1174400</v>
+        <v>358100</v>
       </c>
       <c r="G35" s="3">
-        <v>1681200</v>
+        <v>1072600</v>
       </c>
       <c r="H35" s="3">
-        <v>787800</v>
+        <v>1535400</v>
       </c>
       <c r="I35" s="3">
-        <v>34400</v>
+        <v>719500</v>
       </c>
       <c r="J35" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K35" s="3">
         <v>703800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-293500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1700,323 +1790,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6178600</v>
+        <v>6619100</v>
       </c>
       <c r="E41" s="3">
-        <v>5185200</v>
+        <v>5642600</v>
       </c>
       <c r="F41" s="3">
-        <v>5586500</v>
+        <v>4735400</v>
       </c>
       <c r="G41" s="3">
-        <v>8241900</v>
+        <v>5101800</v>
       </c>
       <c r="H41" s="3">
-        <v>5268400</v>
+        <v>7526900</v>
       </c>
       <c r="I41" s="3">
-        <v>5381300</v>
+        <v>4811400</v>
       </c>
       <c r="J41" s="3">
+        <v>4914500</v>
+      </c>
+      <c r="K41" s="3">
         <v>5030900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5617400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5177000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>235000</v>
+        <v>197100</v>
       </c>
       <c r="E42" s="3">
-        <v>219600</v>
+        <v>214700</v>
       </c>
       <c r="F42" s="3">
-        <v>255300</v>
+        <v>200500</v>
       </c>
       <c r="G42" s="3">
-        <v>312200</v>
+        <v>233200</v>
       </c>
       <c r="H42" s="3">
-        <v>312700</v>
+        <v>285100</v>
       </c>
       <c r="I42" s="3">
-        <v>130600</v>
+        <v>285600</v>
       </c>
       <c r="J42" s="3">
+        <v>119300</v>
+      </c>
+      <c r="K42" s="3">
         <v>95000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>139400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>183500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6449700</v>
+        <v>5642900</v>
       </c>
       <c r="E43" s="3">
-        <v>7568600</v>
+        <v>5890200</v>
       </c>
       <c r="F43" s="3">
-        <v>7326900</v>
+        <v>6912000</v>
       </c>
       <c r="G43" s="3">
-        <v>6932500</v>
+        <v>6691300</v>
       </c>
       <c r="H43" s="3">
-        <v>7070900</v>
+        <v>6331000</v>
       </c>
       <c r="I43" s="3">
-        <v>6566400</v>
+        <v>6457500</v>
       </c>
       <c r="J43" s="3">
+        <v>5996800</v>
+      </c>
+      <c r="K43" s="3">
         <v>6954300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6915200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7762900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6920600</v>
+        <v>6646200</v>
       </c>
       <c r="E44" s="3">
-        <v>6683100</v>
+        <v>6320200</v>
       </c>
       <c r="F44" s="3">
-        <v>6646100</v>
+        <v>6103300</v>
       </c>
       <c r="G44" s="3">
-        <v>6430600</v>
+        <v>6069600</v>
       </c>
       <c r="H44" s="3">
-        <v>6306700</v>
+        <v>5872700</v>
       </c>
       <c r="I44" s="3">
-        <v>6341900</v>
+        <v>5759600</v>
       </c>
       <c r="J44" s="3">
+        <v>5791700</v>
+      </c>
+      <c r="K44" s="3">
         <v>6477500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6692100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7300200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1352500</v>
+        <v>1099200</v>
       </c>
       <c r="E45" s="3">
-        <v>1296200</v>
+        <v>1235200</v>
       </c>
       <c r="F45" s="3">
-        <v>1309400</v>
+        <v>1183800</v>
       </c>
       <c r="G45" s="3">
-        <v>1223900</v>
+        <v>1195800</v>
       </c>
       <c r="H45" s="3">
-        <v>3360900</v>
+        <v>1117700</v>
       </c>
       <c r="I45" s="3">
-        <v>3630900</v>
+        <v>3069300</v>
       </c>
       <c r="J45" s="3">
+        <v>3315900</v>
+      </c>
+      <c r="K45" s="3">
         <v>2552100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2391700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2536500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21136400</v>
+        <v>20204500</v>
       </c>
       <c r="E46" s="3">
-        <v>20952700</v>
+        <v>19302800</v>
       </c>
       <c r="F46" s="3">
-        <v>21124200</v>
+        <v>19135000</v>
       </c>
       <c r="G46" s="3">
-        <v>23141000</v>
+        <v>19291600</v>
       </c>
       <c r="H46" s="3">
-        <v>22319600</v>
+        <v>21133400</v>
       </c>
       <c r="I46" s="3">
-        <v>22051200</v>
+        <v>20383300</v>
       </c>
       <c r="J46" s="3">
+        <v>20138200</v>
+      </c>
+      <c r="K46" s="3">
         <v>21109700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21755700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22960200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2855900</v>
+        <v>2571700</v>
       </c>
       <c r="E47" s="3">
-        <v>3003300</v>
+        <v>2608200</v>
       </c>
       <c r="F47" s="3">
-        <v>3195800</v>
+        <v>2742800</v>
       </c>
       <c r="G47" s="3">
-        <v>2971400</v>
+        <v>2918600</v>
       </c>
       <c r="H47" s="3">
-        <v>3207700</v>
+        <v>2713600</v>
       </c>
       <c r="I47" s="3">
-        <v>2982100</v>
+        <v>2929400</v>
       </c>
       <c r="J47" s="3">
+        <v>2723400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2871500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3254900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3594200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12740300</v>
+        <v>12330000</v>
       </c>
       <c r="E48" s="3">
-        <v>12453100</v>
+        <v>11635000</v>
       </c>
       <c r="F48" s="3">
-        <v>12387000</v>
+        <v>11372800</v>
       </c>
       <c r="G48" s="3">
-        <v>12401900</v>
+        <v>11312400</v>
       </c>
       <c r="H48" s="3">
-        <v>11627600</v>
+        <v>11326000</v>
       </c>
       <c r="I48" s="3">
-        <v>11660100</v>
+        <v>10618900</v>
       </c>
       <c r="J48" s="3">
+        <v>10648500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11653500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12213900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13381200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>67897700</v>
+        <v>64082800</v>
       </c>
       <c r="E49" s="3">
-        <v>67063300</v>
+        <v>62007400</v>
       </c>
       <c r="F49" s="3">
-        <v>67518100</v>
+        <v>61245300</v>
       </c>
       <c r="G49" s="3">
-        <v>67754000</v>
+        <v>61660700</v>
       </c>
       <c r="H49" s="3">
-        <v>64670400</v>
+        <v>61876100</v>
       </c>
       <c r="I49" s="3">
-        <v>65974500</v>
+        <v>59060100</v>
       </c>
       <c r="J49" s="3">
+        <v>60251000</v>
+      </c>
+      <c r="K49" s="3">
         <v>68474000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>72100100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>76638300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2050,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,43 +2206,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3688000</v>
+        <v>3467700</v>
       </c>
       <c r="E52" s="3">
-        <v>3666700</v>
+        <v>3368100</v>
       </c>
       <c r="F52" s="3">
-        <v>3741100</v>
+        <v>3348600</v>
       </c>
       <c r="G52" s="3">
-        <v>3873600</v>
+        <v>3416500</v>
       </c>
       <c r="H52" s="3">
-        <v>2975400</v>
+        <v>3537500</v>
       </c>
       <c r="I52" s="3">
-        <v>3229900</v>
+        <v>2717300</v>
       </c>
       <c r="J52" s="3">
+        <v>2949700</v>
+      </c>
+      <c r="K52" s="3">
         <v>3487500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3629300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2143100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,43 +2282,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108318400</v>
+        <v>102656800</v>
       </c>
       <c r="E54" s="3">
-        <v>107139100</v>
+        <v>98921500</v>
       </c>
       <c r="F54" s="3">
-        <v>107966200</v>
+        <v>97844500</v>
       </c>
       <c r="G54" s="3">
-        <v>110141900</v>
+        <v>98599900</v>
       </c>
       <c r="H54" s="3">
-        <v>104800700</v>
+        <v>100586800</v>
       </c>
       <c r="I54" s="3">
-        <v>105897800</v>
+        <v>95709000</v>
       </c>
       <c r="J54" s="3">
+        <v>96710900</v>
+      </c>
+      <c r="K54" s="3">
         <v>107596200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112953800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118716900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2220,218 +2354,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2995600</v>
+        <v>4022000</v>
       </c>
       <c r="E57" s="3">
-        <v>2871200</v>
+        <v>2735700</v>
       </c>
       <c r="F57" s="3">
-        <v>2735100</v>
+        <v>2622100</v>
       </c>
       <c r="G57" s="3">
-        <v>2932900</v>
+        <v>2497800</v>
       </c>
       <c r="H57" s="3">
-        <v>2789100</v>
+        <v>2678500</v>
       </c>
       <c r="I57" s="3">
-        <v>2326800</v>
+        <v>2547200</v>
       </c>
       <c r="J57" s="3">
+        <v>2124900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2471500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2808800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2732000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1048600</v>
+        <v>1589100</v>
       </c>
       <c r="E58" s="3">
-        <v>1833000</v>
+        <v>957700</v>
       </c>
       <c r="F58" s="3">
-        <v>207000</v>
+        <v>1674000</v>
       </c>
       <c r="G58" s="3">
-        <v>189000</v>
+        <v>189100</v>
       </c>
       <c r="H58" s="3">
-        <v>2426600</v>
+        <v>172600</v>
       </c>
       <c r="I58" s="3">
-        <v>2359500</v>
+        <v>2216100</v>
       </c>
       <c r="J58" s="3">
+        <v>2154800</v>
+      </c>
+      <c r="K58" s="3">
         <v>4953600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5169900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5572600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11388700</v>
+        <v>11104200</v>
       </c>
       <c r="E59" s="3">
-        <v>11662800</v>
+        <v>10400700</v>
       </c>
       <c r="F59" s="3">
-        <v>11616700</v>
+        <v>10651000</v>
       </c>
       <c r="G59" s="3">
-        <v>12003300</v>
+        <v>10608900</v>
       </c>
       <c r="H59" s="3">
-        <v>10180600</v>
+        <v>10962000</v>
       </c>
       <c r="I59" s="3">
-        <v>9897100</v>
+        <v>9297400</v>
       </c>
       <c r="J59" s="3">
+        <v>9038500</v>
+      </c>
+      <c r="K59" s="3">
         <v>9903900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11191000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11075700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15432900</v>
+        <v>16715200</v>
       </c>
       <c r="E60" s="3">
-        <v>16366900</v>
+        <v>14094100</v>
       </c>
       <c r="F60" s="3">
-        <v>14558900</v>
+        <v>14947100</v>
       </c>
       <c r="G60" s="3">
-        <v>15125200</v>
+        <v>13295800</v>
       </c>
       <c r="H60" s="3">
-        <v>15396300</v>
+        <v>13813000</v>
       </c>
       <c r="I60" s="3">
-        <v>14583400</v>
+        <v>14060600</v>
       </c>
       <c r="J60" s="3">
+        <v>13318300</v>
+      </c>
+      <c r="K60" s="3">
         <v>17329100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19169700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19380300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36098400</v>
+        <v>32261600</v>
       </c>
       <c r="E61" s="3">
-        <v>34260500</v>
+        <v>32966800</v>
       </c>
       <c r="F61" s="3">
-        <v>37375000</v>
+        <v>31288300</v>
       </c>
       <c r="G61" s="3">
-        <v>39350700</v>
+        <v>34132600</v>
       </c>
       <c r="H61" s="3">
-        <v>38099900</v>
+        <v>35937000</v>
       </c>
       <c r="I61" s="3">
-        <v>39506000</v>
+        <v>34794600</v>
       </c>
       <c r="J61" s="3">
+        <v>36078700</v>
+      </c>
+      <c r="K61" s="3">
         <v>38335700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39702200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41997600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11306500</v>
+        <v>9405200</v>
       </c>
       <c r="E62" s="3">
-        <v>11094900</v>
+        <v>10325700</v>
       </c>
       <c r="F62" s="3">
-        <v>11346800</v>
+        <v>10132400</v>
       </c>
       <c r="G62" s="3">
-        <v>11504600</v>
+        <v>10362400</v>
       </c>
       <c r="H62" s="3">
-        <v>11730300</v>
+        <v>10506500</v>
       </c>
       <c r="I62" s="3">
-        <v>12003200</v>
+        <v>10712600</v>
       </c>
       <c r="J62" s="3">
+        <v>10961800</v>
+      </c>
+      <c r="K62" s="3">
         <v>11919100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12432900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12916700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2535,43 +2694,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62842100</v>
+        <v>58386000</v>
       </c>
       <c r="E66" s="3">
-        <v>61726000</v>
+        <v>57390400</v>
       </c>
       <c r="F66" s="3">
-        <v>63283900</v>
+        <v>56371100</v>
       </c>
       <c r="G66" s="3">
-        <v>66015900</v>
+        <v>57793800</v>
       </c>
       <c r="H66" s="3">
-        <v>65261200</v>
+        <v>60288800</v>
       </c>
       <c r="I66" s="3">
-        <v>66127500</v>
+        <v>59599600</v>
       </c>
       <c r="J66" s="3">
+        <v>60390800</v>
+      </c>
+      <c r="K66" s="3">
         <v>67618100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71340000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74332300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2585,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2620,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2655,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2690,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,43 +2900,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12512900</v>
+        <v>11527000</v>
       </c>
       <c r="E72" s="3">
-        <v>13231300</v>
+        <v>11427400</v>
       </c>
       <c r="F72" s="3">
-        <v>12827500</v>
+        <v>12083500</v>
       </c>
       <c r="G72" s="3">
-        <v>12879500</v>
+        <v>11714700</v>
       </c>
       <c r="H72" s="3">
-        <v>11145000</v>
+        <v>11762200</v>
       </c>
       <c r="I72" s="3">
-        <v>11405200</v>
+        <v>10178200</v>
       </c>
       <c r="J72" s="3">
+        <v>10415700</v>
+      </c>
+      <c r="K72" s="3">
         <v>11345400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12069500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12557700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2830,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2865,43 +3052,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45476200</v>
+        <v>44270700</v>
       </c>
       <c r="E76" s="3">
-        <v>45413200</v>
+        <v>41531100</v>
       </c>
       <c r="F76" s="3">
-        <v>44682300</v>
+        <v>41473500</v>
       </c>
       <c r="G76" s="3">
-        <v>44126000</v>
+        <v>40806000</v>
       </c>
       <c r="H76" s="3">
-        <v>39539600</v>
+        <v>40298000</v>
       </c>
       <c r="I76" s="3">
-        <v>39770300</v>
+        <v>36109400</v>
       </c>
       <c r="J76" s="3">
+        <v>36320100</v>
+      </c>
+      <c r="K76" s="3">
         <v>39978100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41613900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44384600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,83 +3128,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>492800</v>
+        <v>-88500</v>
       </c>
       <c r="E81" s="3">
-        <v>392100</v>
+        <v>450000</v>
       </c>
       <c r="F81" s="3">
-        <v>1174400</v>
+        <v>358100</v>
       </c>
       <c r="G81" s="3">
-        <v>1681200</v>
+        <v>1072600</v>
       </c>
       <c r="H81" s="3">
-        <v>787800</v>
+        <v>1535400</v>
       </c>
       <c r="I81" s="3">
-        <v>34400</v>
+        <v>719500</v>
       </c>
       <c r="J81" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K81" s="3">
         <v>703800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-293500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,43 +3227,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1256300</v>
+        <v>1186200</v>
       </c>
       <c r="E83" s="3">
-        <v>1199700</v>
+        <v>1147300</v>
       </c>
       <c r="F83" s="3">
-        <v>1219300</v>
+        <v>1095600</v>
       </c>
       <c r="G83" s="3">
-        <v>1189000</v>
+        <v>1113600</v>
       </c>
       <c r="H83" s="3">
-        <v>1192100</v>
+        <v>1085800</v>
       </c>
       <c r="I83" s="3">
-        <v>1185200</v>
+        <v>1088700</v>
       </c>
       <c r="J83" s="3">
+        <v>1082400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1207700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1283900</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3235,43 +3453,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2964300</v>
+        <v>2925800</v>
       </c>
       <c r="E89" s="3">
-        <v>1988800</v>
+        <v>2707100</v>
       </c>
       <c r="F89" s="3">
-        <v>1423300</v>
+        <v>1816300</v>
       </c>
       <c r="G89" s="3">
-        <v>3420800</v>
+        <v>1299800</v>
       </c>
       <c r="H89" s="3">
-        <v>1860300</v>
+        <v>3124000</v>
       </c>
       <c r="I89" s="3">
-        <v>2097900</v>
+        <v>1698900</v>
       </c>
       <c r="J89" s="3">
+        <v>1915900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1244200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1633700</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3285,43 +3509,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-230900</v>
+        <v>-277200</v>
       </c>
       <c r="E91" s="3">
-        <v>-262400</v>
+        <v>-210900</v>
       </c>
       <c r="F91" s="3">
-        <v>-254500</v>
+        <v>-239600</v>
       </c>
       <c r="G91" s="3">
-        <v>-308500</v>
+        <v>-232400</v>
       </c>
       <c r="H91" s="3">
-        <v>-209500</v>
+        <v>-281700</v>
       </c>
       <c r="I91" s="3">
-        <v>-233200</v>
+        <v>-191300</v>
       </c>
       <c r="J91" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-197300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-328100</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3355,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3390,43 +3621,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-589700</v>
+        <v>-199700</v>
       </c>
       <c r="E94" s="3">
-        <v>-280700</v>
+        <v>-538600</v>
       </c>
       <c r="F94" s="3">
-        <v>-600900</v>
+        <v>-256300</v>
       </c>
       <c r="G94" s="3">
-        <v>2502100</v>
+        <v>-548800</v>
       </c>
       <c r="H94" s="3">
-        <v>613900</v>
+        <v>2285000</v>
       </c>
       <c r="I94" s="3">
-        <v>235100</v>
+        <v>560700</v>
       </c>
       <c r="J94" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K94" s="3">
         <v>5600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>319300</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3440,43 +3677,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1121300</v>
+        <v>-82900</v>
       </c>
       <c r="E96" s="3">
-        <v>-81400</v>
+        <v>-1024000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1126200</v>
+        <v>-74300</v>
       </c>
       <c r="G96" s="3">
-        <v>-74000</v>
+        <v>-1028500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1133900</v>
+        <v>-67600</v>
       </c>
       <c r="I96" s="3">
-        <v>-73700</v>
+        <v>-1035500</v>
       </c>
       <c r="J96" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1135500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-73300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3545,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3580,109 +3827,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1433600</v>
+        <v>-1899200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2110000</v>
+        <v>-1309200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3506200</v>
+        <v>-1927000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3156700</v>
+        <v>-3202000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2559600</v>
+        <v>-2882900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1923000</v>
+        <v>-2337600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1756200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1644300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1268000</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>52400</v>
+        <v>149600</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>47900</v>
       </c>
       <c r="F101" s="3">
-        <v>28400</v>
+        <v>600</v>
       </c>
       <c r="G101" s="3">
-        <v>207300</v>
+        <v>25900</v>
       </c>
       <c r="H101" s="3">
-        <v>-27500</v>
+        <v>189300</v>
       </c>
       <c r="I101" s="3">
-        <v>-59600</v>
+        <v>-25100</v>
       </c>
       <c r="J101" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-13500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-74100</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>993400</v>
+        <v>976500</v>
       </c>
       <c r="E102" s="3">
-        <v>-401300</v>
+        <v>907200</v>
       </c>
       <c r="F102" s="3">
-        <v>-2655400</v>
+        <v>-366400</v>
       </c>
       <c r="G102" s="3">
-        <v>2973400</v>
+        <v>-2425000</v>
       </c>
       <c r="H102" s="3">
-        <v>-112900</v>
+        <v>2715500</v>
       </c>
       <c r="I102" s="3">
-        <v>350400</v>
+        <v>-103100</v>
       </c>
       <c r="J102" s="3">
+        <v>320000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-408000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>610800</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,177 +666,190 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6802900</v>
+        <v>7128200</v>
       </c>
       <c r="E8" s="3">
-        <v>7021100</v>
+        <v>6401200</v>
       </c>
       <c r="F8" s="3">
-        <v>6581100</v>
+        <v>6606500</v>
       </c>
       <c r="G8" s="3">
-        <v>7397400</v>
+        <v>6192500</v>
       </c>
       <c r="H8" s="3">
-        <v>6000400</v>
+        <v>6960600</v>
       </c>
       <c r="I8" s="3">
-        <v>6518300</v>
+        <v>5646100</v>
       </c>
       <c r="J8" s="3">
+        <v>6133400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6145800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6839800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6798700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7828400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2402300</v>
+        <v>2146800</v>
       </c>
       <c r="E9" s="3">
-        <v>2192100</v>
+        <v>2260400</v>
       </c>
       <c r="F9" s="3">
-        <v>2148500</v>
+        <v>2062700</v>
       </c>
       <c r="G9" s="3">
-        <v>1879400</v>
+        <v>2021600</v>
       </c>
       <c r="H9" s="3">
-        <v>1974300</v>
+        <v>1768500</v>
       </c>
       <c r="I9" s="3">
-        <v>1972000</v>
+        <v>1857800</v>
       </c>
       <c r="J9" s="3">
+        <v>1855500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1944700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2030800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2186500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2546900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4400600</v>
+        <v>4981300</v>
       </c>
       <c r="E10" s="3">
-        <v>4828900</v>
+        <v>4140800</v>
       </c>
       <c r="F10" s="3">
-        <v>4432700</v>
+        <v>4543800</v>
       </c>
       <c r="G10" s="3">
-        <v>5518000</v>
+        <v>4170900</v>
       </c>
       <c r="H10" s="3">
-        <v>4026100</v>
+        <v>5192100</v>
       </c>
       <c r="I10" s="3">
-        <v>4546300</v>
+        <v>3788300</v>
       </c>
       <c r="J10" s="3">
+        <v>4277900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4201100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4809000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4612200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5281400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,46 +864,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1118900</v>
+        <v>1052600</v>
       </c>
       <c r="E12" s="3">
-        <v>1000100</v>
+        <v>1052800</v>
       </c>
       <c r="F12" s="3">
-        <v>1025200</v>
+        <v>941000</v>
       </c>
       <c r="G12" s="3">
-        <v>954100</v>
+        <v>964600</v>
       </c>
       <c r="H12" s="3">
-        <v>882500</v>
+        <v>897800</v>
       </c>
       <c r="I12" s="3">
-        <v>915800</v>
+        <v>830400</v>
       </c>
       <c r="J12" s="3">
+        <v>861800</v>
+      </c>
+      <c r="K12" s="3">
         <v>920400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>911200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1227300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1117900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -936,75 +956,81 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>208500</v>
+        <v>242300</v>
       </c>
       <c r="F14" s="3">
-        <v>218000</v>
+        <v>196200</v>
       </c>
       <c r="G14" s="3">
-        <v>130500</v>
+        <v>205100</v>
       </c>
       <c r="H14" s="3">
-        <v>229300</v>
+        <v>122800</v>
       </c>
       <c r="I14" s="3">
-        <v>162100</v>
+        <v>215800</v>
       </c>
       <c r="J14" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K14" s="3">
         <v>325000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>203900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1162900</v>
+        <v>962300</v>
       </c>
       <c r="E15" s="3">
-        <v>919900</v>
+        <v>1094200</v>
       </c>
       <c r="F15" s="3">
-        <v>800200</v>
+        <v>865600</v>
       </c>
       <c r="G15" s="3">
-        <v>801000</v>
+        <v>752900</v>
       </c>
       <c r="H15" s="3">
-        <v>890400</v>
+        <v>753700</v>
       </c>
       <c r="I15" s="3">
-        <v>774900</v>
+        <v>837800</v>
       </c>
       <c r="J15" s="3">
+        <v>729100</v>
+      </c>
+      <c r="K15" s="3">
         <v>809000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>889300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1112500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>946800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,84 +1042,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6815500</v>
+        <v>6024900</v>
       </c>
       <c r="E17" s="3">
-        <v>6113700</v>
+        <v>6413100</v>
       </c>
       <c r="F17" s="3">
-        <v>5822200</v>
+        <v>5752700</v>
       </c>
       <c r="G17" s="3">
-        <v>5461200</v>
+        <v>5478400</v>
       </c>
       <c r="H17" s="3">
-        <v>4827700</v>
+        <v>5138700</v>
       </c>
       <c r="I17" s="3">
-        <v>5403200</v>
+        <v>4542700</v>
       </c>
       <c r="J17" s="3">
+        <v>5084200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5769500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5412800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7346100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7340900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-12600</v>
+        <v>1103300</v>
       </c>
       <c r="E18" s="3">
-        <v>907400</v>
+        <v>-11900</v>
       </c>
       <c r="F18" s="3">
-        <v>759000</v>
+        <v>853800</v>
       </c>
       <c r="G18" s="3">
-        <v>1936200</v>
+        <v>714100</v>
       </c>
       <c r="H18" s="3">
-        <v>1172700</v>
+        <v>1821900</v>
       </c>
       <c r="I18" s="3">
-        <v>1115100</v>
+        <v>1103500</v>
       </c>
       <c r="J18" s="3">
+        <v>1049200</v>
+      </c>
+      <c r="K18" s="3">
         <v>376300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1426900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-547400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>487500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,84 +1141,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-408400</v>
+        <v>36300</v>
       </c>
       <c r="E20" s="3">
-        <v>-345000</v>
+        <v>-384300</v>
       </c>
       <c r="F20" s="3">
-        <v>-280300</v>
+        <v>-324700</v>
       </c>
       <c r="G20" s="3">
-        <v>-199200</v>
+        <v>-263700</v>
       </c>
       <c r="H20" s="3">
-        <v>-153200</v>
+        <v>-187500</v>
       </c>
       <c r="I20" s="3">
-        <v>-259800</v>
+        <v>-144100</v>
       </c>
       <c r="J20" s="3">
+        <v>-244400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-413100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-315600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-481300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-261200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>765200</v>
+        <v>2299800</v>
       </c>
       <c r="E21" s="3">
-        <v>1709700</v>
+        <v>720000</v>
       </c>
       <c r="F21" s="3">
-        <v>1574300</v>
+        <v>1608800</v>
       </c>
       <c r="G21" s="3">
-        <v>2850600</v>
+        <v>1481300</v>
       </c>
       <c r="H21" s="3">
-        <v>2105400</v>
+        <v>2682200</v>
       </c>
       <c r="I21" s="3">
-        <v>1944000</v>
+        <v>1981100</v>
       </c>
       <c r="J21" s="3">
+        <v>1829200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1045500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2319100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>255200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4215800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,84 +1262,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-421000</v>
+        <v>1139600</v>
       </c>
       <c r="E23" s="3">
-        <v>562400</v>
+        <v>-396200</v>
       </c>
       <c r="F23" s="3">
-        <v>478700</v>
+        <v>529200</v>
       </c>
       <c r="G23" s="3">
-        <v>1737000</v>
+        <v>450400</v>
       </c>
       <c r="H23" s="3">
-        <v>1019500</v>
+        <v>1634400</v>
       </c>
       <c r="I23" s="3">
-        <v>855300</v>
+        <v>959300</v>
       </c>
       <c r="J23" s="3">
+        <v>804800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-36800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1111400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1028700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>226300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-332400</v>
+        <v>369800</v>
       </c>
       <c r="E24" s="3">
-        <v>112000</v>
+        <v>-312800</v>
       </c>
       <c r="F24" s="3">
-        <v>120400</v>
+        <v>105400</v>
       </c>
       <c r="G24" s="3">
-        <v>664100</v>
+        <v>113300</v>
       </c>
       <c r="H24" s="3">
-        <v>-516200</v>
+        <v>624900</v>
       </c>
       <c r="I24" s="3">
-        <v>135200</v>
+        <v>-485700</v>
       </c>
       <c r="J24" s="3">
+        <v>127200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-68600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>407500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1042400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>518800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,84 +1385,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-88600</v>
+        <v>769800</v>
       </c>
       <c r="E26" s="3">
-        <v>450400</v>
+        <v>-83400</v>
       </c>
       <c r="F26" s="3">
-        <v>358300</v>
+        <v>423800</v>
       </c>
       <c r="G26" s="3">
-        <v>1072900</v>
+        <v>337100</v>
       </c>
       <c r="H26" s="3">
-        <v>1535800</v>
+        <v>1009500</v>
       </c>
       <c r="I26" s="3">
-        <v>720100</v>
+        <v>1445100</v>
       </c>
       <c r="J26" s="3">
+        <v>677600</v>
+      </c>
+      <c r="K26" s="3">
         <v>31700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>703900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-292500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-88500</v>
+        <v>769800</v>
       </c>
       <c r="E27" s="3">
-        <v>450000</v>
+        <v>-83300</v>
       </c>
       <c r="F27" s="3">
-        <v>358100</v>
+        <v>423500</v>
       </c>
       <c r="G27" s="3">
-        <v>1072600</v>
+        <v>336900</v>
       </c>
       <c r="H27" s="3">
-        <v>1535400</v>
+        <v>1009200</v>
       </c>
       <c r="I27" s="3">
-        <v>719500</v>
+        <v>1444700</v>
       </c>
       <c r="J27" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K27" s="3">
         <v>31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>703800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-293500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,84 +1631,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>408400</v>
+        <v>-36300</v>
       </c>
       <c r="E32" s="3">
-        <v>345000</v>
+        <v>384300</v>
       </c>
       <c r="F32" s="3">
-        <v>280300</v>
+        <v>324700</v>
       </c>
       <c r="G32" s="3">
-        <v>199200</v>
+        <v>263700</v>
       </c>
       <c r="H32" s="3">
-        <v>153200</v>
+        <v>187500</v>
       </c>
       <c r="I32" s="3">
-        <v>259800</v>
+        <v>144100</v>
       </c>
       <c r="J32" s="3">
+        <v>244400</v>
+      </c>
+      <c r="K32" s="3">
         <v>413100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>315600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>481300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>261200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-88500</v>
+        <v>769800</v>
       </c>
       <c r="E33" s="3">
-        <v>450000</v>
+        <v>-83300</v>
       </c>
       <c r="F33" s="3">
-        <v>358100</v>
+        <v>423500</v>
       </c>
       <c r="G33" s="3">
-        <v>1072600</v>
+        <v>336900</v>
       </c>
       <c r="H33" s="3">
-        <v>1535400</v>
+        <v>1009200</v>
       </c>
       <c r="I33" s="3">
-        <v>719500</v>
+        <v>1444700</v>
       </c>
       <c r="J33" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K33" s="3">
         <v>31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>703800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-293500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,89 +1754,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-88500</v>
+        <v>769800</v>
       </c>
       <c r="E35" s="3">
-        <v>450000</v>
+        <v>-83300</v>
       </c>
       <c r="F35" s="3">
-        <v>358100</v>
+        <v>423500</v>
       </c>
       <c r="G35" s="3">
-        <v>1072600</v>
+        <v>336900</v>
       </c>
       <c r="H35" s="3">
-        <v>1535400</v>
+        <v>1009200</v>
       </c>
       <c r="I35" s="3">
-        <v>719500</v>
+        <v>1444700</v>
       </c>
       <c r="J35" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K35" s="3">
         <v>31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>703800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-293500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,350 +1877,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6619100</v>
+        <v>4735100</v>
       </c>
       <c r="E41" s="3">
-        <v>5642600</v>
+        <v>6228300</v>
       </c>
       <c r="F41" s="3">
-        <v>4735400</v>
+        <v>5309400</v>
       </c>
       <c r="G41" s="3">
-        <v>5101800</v>
+        <v>4455800</v>
       </c>
       <c r="H41" s="3">
-        <v>7526900</v>
+        <v>4800600</v>
       </c>
       <c r="I41" s="3">
-        <v>4811400</v>
+        <v>7082400</v>
       </c>
       <c r="J41" s="3">
+        <v>4527300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4914500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5030900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5617400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5177000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>197100</v>
+        <v>135900</v>
       </c>
       <c r="E42" s="3">
-        <v>214700</v>
+        <v>185500</v>
       </c>
       <c r="F42" s="3">
-        <v>200500</v>
+        <v>202000</v>
       </c>
       <c r="G42" s="3">
-        <v>233200</v>
+        <v>188700</v>
       </c>
       <c r="H42" s="3">
-        <v>285100</v>
+        <v>219400</v>
       </c>
       <c r="I42" s="3">
-        <v>285600</v>
+        <v>268300</v>
       </c>
       <c r="J42" s="3">
+        <v>268700</v>
+      </c>
+      <c r="K42" s="3">
         <v>119300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>95000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>139400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>183500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5642900</v>
+        <v>5820700</v>
       </c>
       <c r="E43" s="3">
-        <v>5890200</v>
+        <v>5309700</v>
       </c>
       <c r="F43" s="3">
-        <v>6912000</v>
+        <v>5542300</v>
       </c>
       <c r="G43" s="3">
-        <v>6691300</v>
+        <v>6503900</v>
       </c>
       <c r="H43" s="3">
-        <v>6331000</v>
+        <v>6296200</v>
       </c>
       <c r="I43" s="3">
-        <v>6457500</v>
+        <v>5957200</v>
       </c>
       <c r="J43" s="3">
+        <v>6076100</v>
+      </c>
+      <c r="K43" s="3">
         <v>5996800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6954300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6915200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7762900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6646200</v>
+        <v>6798700</v>
       </c>
       <c r="E44" s="3">
-        <v>6320200</v>
+        <v>6253700</v>
       </c>
       <c r="F44" s="3">
-        <v>6103300</v>
+        <v>5947000</v>
       </c>
       <c r="G44" s="3">
-        <v>6069600</v>
+        <v>5742900</v>
       </c>
       <c r="H44" s="3">
-        <v>5872700</v>
+        <v>5711200</v>
       </c>
       <c r="I44" s="3">
-        <v>5759600</v>
+        <v>5525900</v>
       </c>
       <c r="J44" s="3">
+        <v>5419500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5791700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6477500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6692100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7300200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1099200</v>
+        <v>1197600</v>
       </c>
       <c r="E45" s="3">
-        <v>1235200</v>
+        <v>1034200</v>
       </c>
       <c r="F45" s="3">
-        <v>1183800</v>
+        <v>1162200</v>
       </c>
       <c r="G45" s="3">
-        <v>1195800</v>
+        <v>1113900</v>
       </c>
       <c r="H45" s="3">
-        <v>1117700</v>
+        <v>1125200</v>
       </c>
       <c r="I45" s="3">
-        <v>3069300</v>
+        <v>1051700</v>
       </c>
       <c r="J45" s="3">
+        <v>2888100</v>
+      </c>
+      <c r="K45" s="3">
         <v>3315900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2552100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2391700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2536500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20204500</v>
+        <v>18687900</v>
       </c>
       <c r="E46" s="3">
-        <v>19302800</v>
+        <v>19011400</v>
       </c>
       <c r="F46" s="3">
-        <v>19135000</v>
+        <v>18163000</v>
       </c>
       <c r="G46" s="3">
-        <v>19291600</v>
+        <v>18005100</v>
       </c>
       <c r="H46" s="3">
-        <v>21133400</v>
+        <v>18152400</v>
       </c>
       <c r="I46" s="3">
-        <v>20383300</v>
+        <v>19885500</v>
       </c>
       <c r="J46" s="3">
+        <v>19179700</v>
+      </c>
+      <c r="K46" s="3">
         <v>20138200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21109700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21755700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22960200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2571700</v>
+        <v>2797200</v>
       </c>
       <c r="E47" s="3">
-        <v>2608200</v>
+        <v>2419900</v>
       </c>
       <c r="F47" s="3">
-        <v>2742800</v>
+        <v>2454200</v>
       </c>
       <c r="G47" s="3">
-        <v>2918600</v>
+        <v>2580800</v>
       </c>
       <c r="H47" s="3">
-        <v>2713600</v>
+        <v>2746300</v>
       </c>
       <c r="I47" s="3">
-        <v>2929400</v>
+        <v>2553400</v>
       </c>
       <c r="J47" s="3">
+        <v>2756500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2723400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2871500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3254900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3594200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12330000</v>
+        <v>12500300</v>
       </c>
       <c r="E48" s="3">
-        <v>11635000</v>
+        <v>11601900</v>
       </c>
       <c r="F48" s="3">
-        <v>11372800</v>
+        <v>10948000</v>
       </c>
       <c r="G48" s="3">
-        <v>11312400</v>
+        <v>10701200</v>
       </c>
       <c r="H48" s="3">
-        <v>11326000</v>
+        <v>10644400</v>
       </c>
       <c r="I48" s="3">
-        <v>10618900</v>
+        <v>10657200</v>
       </c>
       <c r="J48" s="3">
+        <v>9991800</v>
+      </c>
+      <c r="K48" s="3">
         <v>10648500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11653500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12213900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13381200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>64082800</v>
+        <v>65667300</v>
       </c>
       <c r="E49" s="3">
-        <v>62007400</v>
+        <v>60298700</v>
       </c>
       <c r="F49" s="3">
-        <v>61245300</v>
+        <v>58345800</v>
       </c>
       <c r="G49" s="3">
-        <v>61660700</v>
+        <v>57628800</v>
       </c>
       <c r="H49" s="3">
-        <v>61876100</v>
+        <v>58019600</v>
       </c>
       <c r="I49" s="3">
-        <v>59060100</v>
+        <v>58222400</v>
       </c>
       <c r="J49" s="3">
+        <v>55572600</v>
+      </c>
+      <c r="K49" s="3">
         <v>60251000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>68474000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>72100100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>76638300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,46 +2326,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3467700</v>
+        <v>3446800</v>
       </c>
       <c r="E52" s="3">
-        <v>3368100</v>
+        <v>3262900</v>
       </c>
       <c r="F52" s="3">
-        <v>3348600</v>
+        <v>3169200</v>
       </c>
       <c r="G52" s="3">
-        <v>3416500</v>
+        <v>3150900</v>
       </c>
       <c r="H52" s="3">
-        <v>3537500</v>
+        <v>3214800</v>
       </c>
       <c r="I52" s="3">
-        <v>2717300</v>
+        <v>3328600</v>
       </c>
       <c r="J52" s="3">
+        <v>2556900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2949700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3487500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3629300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2143100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,46 +2408,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>102656800</v>
+        <v>103099600</v>
       </c>
       <c r="E54" s="3">
-        <v>98921500</v>
+        <v>96594900</v>
       </c>
       <c r="F54" s="3">
-        <v>97844500</v>
+        <v>93080100</v>
       </c>
       <c r="G54" s="3">
-        <v>98599900</v>
+        <v>92066800</v>
       </c>
       <c r="H54" s="3">
-        <v>100586800</v>
+        <v>92777500</v>
       </c>
       <c r="I54" s="3">
-        <v>95709000</v>
+        <v>94647100</v>
       </c>
       <c r="J54" s="3">
+        <v>90057400</v>
+      </c>
+      <c r="K54" s="3">
         <v>96710900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>107596200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112953800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118716900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,236 +2485,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4022000</v>
+        <v>3110500</v>
       </c>
       <c r="E57" s="3">
-        <v>2735700</v>
+        <v>3784500</v>
       </c>
       <c r="F57" s="3">
-        <v>2622100</v>
+        <v>2574200</v>
       </c>
       <c r="G57" s="3">
-        <v>2497800</v>
+        <v>2467300</v>
       </c>
       <c r="H57" s="3">
-        <v>2678500</v>
+        <v>2350300</v>
       </c>
       <c r="I57" s="3">
-        <v>2547200</v>
+        <v>2520300</v>
       </c>
       <c r="J57" s="3">
+        <v>2396700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2124900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2471500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2808800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2732000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1589100</v>
+        <v>2066300</v>
       </c>
       <c r="E58" s="3">
-        <v>957700</v>
+        <v>1495300</v>
       </c>
       <c r="F58" s="3">
-        <v>1674000</v>
+        <v>901100</v>
       </c>
       <c r="G58" s="3">
-        <v>189100</v>
+        <v>1575100</v>
       </c>
       <c r="H58" s="3">
-        <v>172600</v>
+        <v>177900</v>
       </c>
       <c r="I58" s="3">
-        <v>2216100</v>
+        <v>162400</v>
       </c>
       <c r="J58" s="3">
+        <v>2085200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2154800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4953600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5169900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5572600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11104200</v>
+        <v>10706800</v>
       </c>
       <c r="E59" s="3">
-        <v>10400700</v>
+        <v>10448500</v>
       </c>
       <c r="F59" s="3">
-        <v>10651000</v>
+        <v>9786500</v>
       </c>
       <c r="G59" s="3">
-        <v>10608900</v>
+        <v>10022000</v>
       </c>
       <c r="H59" s="3">
-        <v>10962000</v>
+        <v>9982500</v>
       </c>
       <c r="I59" s="3">
-        <v>9297400</v>
+        <v>10314700</v>
       </c>
       <c r="J59" s="3">
+        <v>8748400</v>
+      </c>
+      <c r="K59" s="3">
         <v>9038500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9903900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11191000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11075700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16715200</v>
+        <v>15883700</v>
       </c>
       <c r="E60" s="3">
-        <v>14094100</v>
+        <v>15728200</v>
       </c>
       <c r="F60" s="3">
-        <v>14947100</v>
+        <v>13261800</v>
       </c>
       <c r="G60" s="3">
-        <v>13295800</v>
+        <v>14064400</v>
       </c>
       <c r="H60" s="3">
-        <v>13813000</v>
+        <v>12510700</v>
       </c>
       <c r="I60" s="3">
-        <v>14060600</v>
+        <v>12997400</v>
       </c>
       <c r="J60" s="3">
+        <v>13230300</v>
+      </c>
+      <c r="K60" s="3">
         <v>13318300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17329100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19169700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19380300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32261600</v>
+        <v>31668200</v>
       </c>
       <c r="E61" s="3">
-        <v>32966800</v>
+        <v>30356600</v>
       </c>
       <c r="F61" s="3">
-        <v>31288300</v>
+        <v>31020100</v>
       </c>
       <c r="G61" s="3">
-        <v>34132600</v>
+        <v>29440700</v>
       </c>
       <c r="H61" s="3">
-        <v>35937000</v>
+        <v>32117000</v>
       </c>
       <c r="I61" s="3">
-        <v>34794600</v>
+        <v>33814900</v>
       </c>
       <c r="J61" s="3">
+        <v>32740000</v>
+      </c>
+      <c r="K61" s="3">
         <v>36078700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38335700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39702200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41997600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9405200</v>
+        <v>9241300</v>
       </c>
       <c r="E62" s="3">
-        <v>10325700</v>
+        <v>8849900</v>
       </c>
       <c r="F62" s="3">
-        <v>10132400</v>
+        <v>9715900</v>
       </c>
       <c r="G62" s="3">
-        <v>10362400</v>
+        <v>9534100</v>
       </c>
       <c r="H62" s="3">
-        <v>10506500</v>
+        <v>9750500</v>
       </c>
       <c r="I62" s="3">
-        <v>10712600</v>
+        <v>9886100</v>
       </c>
       <c r="J62" s="3">
+        <v>10080000</v>
+      </c>
+      <c r="K62" s="3">
         <v>10961800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11919100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12432900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12916700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,46 +2852,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58386000</v>
+        <v>56797200</v>
       </c>
       <c r="E66" s="3">
-        <v>57390400</v>
+        <v>54938300</v>
       </c>
       <c r="F66" s="3">
-        <v>56371100</v>
+        <v>54001500</v>
       </c>
       <c r="G66" s="3">
-        <v>57793800</v>
+        <v>53042400</v>
       </c>
       <c r="H66" s="3">
-        <v>60288800</v>
+        <v>54381100</v>
       </c>
       <c r="I66" s="3">
-        <v>59599600</v>
+        <v>56728700</v>
       </c>
       <c r="J66" s="3">
+        <v>56080200</v>
+      </c>
+      <c r="K66" s="3">
         <v>60390800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67618100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71340000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74332300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,46 +3074,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11527000</v>
+        <v>10700100</v>
       </c>
       <c r="E72" s="3">
-        <v>11427400</v>
+        <v>10846300</v>
       </c>
       <c r="F72" s="3">
-        <v>12083500</v>
+        <v>10752600</v>
       </c>
       <c r="G72" s="3">
-        <v>11714700</v>
+        <v>11369900</v>
       </c>
       <c r="H72" s="3">
-        <v>11762200</v>
+        <v>11022900</v>
       </c>
       <c r="I72" s="3">
-        <v>10178200</v>
+        <v>11067600</v>
       </c>
       <c r="J72" s="3">
+        <v>9577100</v>
+      </c>
+      <c r="K72" s="3">
         <v>10415700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11345400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12069500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12557700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,46 +3238,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44270700</v>
+        <v>46302400</v>
       </c>
       <c r="E76" s="3">
-        <v>41531100</v>
+        <v>41656500</v>
       </c>
       <c r="F76" s="3">
-        <v>41473500</v>
+        <v>39078600</v>
       </c>
       <c r="G76" s="3">
-        <v>40806000</v>
+        <v>39024400</v>
       </c>
       <c r="H76" s="3">
-        <v>40298000</v>
+        <v>38396400</v>
       </c>
       <c r="I76" s="3">
-        <v>36109400</v>
+        <v>37918400</v>
       </c>
       <c r="J76" s="3">
+        <v>33977100</v>
+      </c>
+      <c r="K76" s="3">
         <v>36320100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39978100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41613900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44384600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,89 +3320,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-88500</v>
+        <v>769800</v>
       </c>
       <c r="E81" s="3">
-        <v>450000</v>
+        <v>-83300</v>
       </c>
       <c r="F81" s="3">
-        <v>358100</v>
+        <v>423500</v>
       </c>
       <c r="G81" s="3">
-        <v>1072600</v>
+        <v>336900</v>
       </c>
       <c r="H81" s="3">
-        <v>1535400</v>
+        <v>1009200</v>
       </c>
       <c r="I81" s="3">
-        <v>719500</v>
+        <v>1444700</v>
       </c>
       <c r="J81" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K81" s="3">
         <v>31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>703800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-293500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,46 +3426,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1186200</v>
+        <v>1160200</v>
       </c>
       <c r="E83" s="3">
-        <v>1147300</v>
+        <v>1116200</v>
       </c>
       <c r="F83" s="3">
-        <v>1095600</v>
+        <v>1079600</v>
       </c>
       <c r="G83" s="3">
-        <v>1113600</v>
+        <v>1030900</v>
       </c>
       <c r="H83" s="3">
-        <v>1085800</v>
+        <v>1047800</v>
       </c>
       <c r="I83" s="3">
-        <v>1088700</v>
+        <v>1021700</v>
       </c>
       <c r="J83" s="3">
+        <v>1024400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1082400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1207700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1283900</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,46 +3670,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2925800</v>
+        <v>617500</v>
       </c>
       <c r="E89" s="3">
-        <v>2707100</v>
+        <v>2753000</v>
       </c>
       <c r="F89" s="3">
-        <v>1816300</v>
+        <v>2547200</v>
       </c>
       <c r="G89" s="3">
-        <v>1299800</v>
+        <v>1709000</v>
       </c>
       <c r="H89" s="3">
-        <v>3124000</v>
+        <v>1223100</v>
       </c>
       <c r="I89" s="3">
-        <v>1698900</v>
+        <v>2939500</v>
       </c>
       <c r="J89" s="3">
+        <v>1598600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1915900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1244200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1633700</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,46 +3730,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-277200</v>
+        <v>-308800</v>
       </c>
       <c r="E91" s="3">
-        <v>-210900</v>
+        <v>-260800</v>
       </c>
       <c r="F91" s="3">
-        <v>-239600</v>
+        <v>-198400</v>
       </c>
       <c r="G91" s="3">
-        <v>-232400</v>
+        <v>-225500</v>
       </c>
       <c r="H91" s="3">
-        <v>-281700</v>
+        <v>-218700</v>
       </c>
       <c r="I91" s="3">
-        <v>-191300</v>
+        <v>-265100</v>
       </c>
       <c r="J91" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-213000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-197300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-328100</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,46 +3851,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-199700</v>
+        <v>-694300</v>
       </c>
       <c r="E94" s="3">
-        <v>-538600</v>
+        <v>-187900</v>
       </c>
       <c r="F94" s="3">
-        <v>-256300</v>
+        <v>-506800</v>
       </c>
       <c r="G94" s="3">
-        <v>-548800</v>
+        <v>-241200</v>
       </c>
       <c r="H94" s="3">
-        <v>2285000</v>
+        <v>-516400</v>
       </c>
       <c r="I94" s="3">
-        <v>560700</v>
+        <v>2150100</v>
       </c>
       <c r="J94" s="3">
+        <v>527600</v>
+      </c>
+      <c r="K94" s="3">
         <v>214700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>319300</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,46 +3911,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-82900</v>
+        <v>-944600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1024000</v>
+        <v>-78000</v>
       </c>
       <c r="F96" s="3">
-        <v>-74300</v>
+        <v>-963500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1028500</v>
+        <v>-69900</v>
       </c>
       <c r="H96" s="3">
-        <v>-67600</v>
+        <v>-967800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1035500</v>
+        <v>-63600</v>
       </c>
       <c r="J96" s="3">
+        <v>-974300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-67300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1135500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-73300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,118 +4073,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1899200</v>
+        <v>-1581200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1309200</v>
+        <v>-1787100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1927000</v>
+        <v>-1231900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3202000</v>
+        <v>-1813200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2882900</v>
+        <v>-3012900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2337600</v>
+        <v>-2712600</v>
       </c>
       <c r="J100" s="3">
+        <v>-2199500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1756200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1644300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1268000</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>149600</v>
+        <v>164800</v>
       </c>
       <c r="E101" s="3">
-        <v>47900</v>
+        <v>140800</v>
       </c>
       <c r="F101" s="3">
+        <v>45100</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
-        <v>25900</v>
-      </c>
       <c r="H101" s="3">
-        <v>189300</v>
+        <v>24400</v>
       </c>
       <c r="I101" s="3">
-        <v>-25100</v>
+        <v>178100</v>
       </c>
       <c r="J101" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-54400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-74100</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>976500</v>
+        <v>-1493200</v>
       </c>
       <c r="E102" s="3">
-        <v>907200</v>
+        <v>918900</v>
       </c>
       <c r="F102" s="3">
-        <v>-366400</v>
+        <v>853600</v>
       </c>
       <c r="G102" s="3">
-        <v>-2425000</v>
+        <v>-344800</v>
       </c>
       <c r="H102" s="3">
-        <v>2715500</v>
+        <v>-2281800</v>
       </c>
       <c r="I102" s="3">
-        <v>-103100</v>
+        <v>2555100</v>
       </c>
       <c r="J102" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="K102" s="3">
         <v>320000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-408000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>610800</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,190 +666,203 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7128200</v>
+        <v>7106400</v>
       </c>
       <c r="E8" s="3">
-        <v>6401200</v>
+        <v>6894800</v>
       </c>
       <c r="F8" s="3">
-        <v>6606500</v>
+        <v>6191600</v>
       </c>
       <c r="G8" s="3">
-        <v>6192500</v>
+        <v>6390200</v>
       </c>
       <c r="H8" s="3">
-        <v>6960600</v>
+        <v>5989800</v>
       </c>
       <c r="I8" s="3">
-        <v>5646100</v>
+        <v>6732700</v>
       </c>
       <c r="J8" s="3">
+        <v>5461200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6133400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6145800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6839800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6798700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7828400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2146800</v>
+        <v>2165600</v>
       </c>
       <c r="E9" s="3">
-        <v>2260400</v>
+        <v>2076500</v>
       </c>
       <c r="F9" s="3">
-        <v>2062700</v>
+        <v>2186400</v>
       </c>
       <c r="G9" s="3">
-        <v>2021600</v>
+        <v>1995200</v>
       </c>
       <c r="H9" s="3">
-        <v>1768500</v>
+        <v>1955400</v>
       </c>
       <c r="I9" s="3">
-        <v>1857800</v>
+        <v>1710600</v>
       </c>
       <c r="J9" s="3">
+        <v>1796900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1855500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1944700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2030800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2186500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2546900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4981300</v>
+        <v>4940800</v>
       </c>
       <c r="E10" s="3">
-        <v>4140800</v>
+        <v>4818200</v>
       </c>
       <c r="F10" s="3">
-        <v>4543800</v>
+        <v>4005200</v>
       </c>
       <c r="G10" s="3">
-        <v>4170900</v>
+        <v>4395000</v>
       </c>
       <c r="H10" s="3">
-        <v>5192100</v>
+        <v>4034400</v>
       </c>
       <c r="I10" s="3">
-        <v>3788300</v>
+        <v>5022100</v>
       </c>
       <c r="J10" s="3">
+        <v>3664300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4277900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4201100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4809000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4612200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5281400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,49 +878,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1052600</v>
+        <v>1092900</v>
       </c>
       <c r="E12" s="3">
-        <v>1052800</v>
+        <v>1018200</v>
       </c>
       <c r="F12" s="3">
-        <v>941000</v>
+        <v>1018300</v>
       </c>
       <c r="G12" s="3">
-        <v>964600</v>
+        <v>910200</v>
       </c>
       <c r="H12" s="3">
-        <v>897800</v>
+        <v>933000</v>
       </c>
       <c r="I12" s="3">
-        <v>830400</v>
+        <v>868400</v>
       </c>
       <c r="J12" s="3">
+        <v>803200</v>
+      </c>
+      <c r="K12" s="3">
         <v>861800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>920400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>911200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1227300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1117900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -947,90 +964,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>242300</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>196200</v>
+        <v>234400</v>
       </c>
       <c r="G14" s="3">
-        <v>205100</v>
+        <v>189800</v>
       </c>
       <c r="H14" s="3">
-        <v>122800</v>
+        <v>198400</v>
       </c>
       <c r="I14" s="3">
-        <v>215800</v>
+        <v>118800</v>
       </c>
       <c r="J14" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K14" s="3">
         <v>152600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>325000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>203900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>962300</v>
+        <v>1009400</v>
       </c>
       <c r="E15" s="3">
-        <v>1094200</v>
+        <v>930800</v>
       </c>
       <c r="F15" s="3">
-        <v>865600</v>
+        <v>1058400</v>
       </c>
       <c r="G15" s="3">
-        <v>752900</v>
+        <v>837200</v>
       </c>
       <c r="H15" s="3">
-        <v>753700</v>
+        <v>728300</v>
       </c>
       <c r="I15" s="3">
-        <v>837800</v>
+        <v>729000</v>
       </c>
       <c r="J15" s="3">
+        <v>810300</v>
+      </c>
+      <c r="K15" s="3">
         <v>729100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>809000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>889300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1112500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>946800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,90 +1069,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6024900</v>
+        <v>6365900</v>
       </c>
       <c r="E17" s="3">
-        <v>6413100</v>
+        <v>5827600</v>
       </c>
       <c r="F17" s="3">
-        <v>5752700</v>
+        <v>6203100</v>
       </c>
       <c r="G17" s="3">
-        <v>5478400</v>
+        <v>5564300</v>
       </c>
       <c r="H17" s="3">
-        <v>5138700</v>
+        <v>5299000</v>
       </c>
       <c r="I17" s="3">
-        <v>4542700</v>
+        <v>4970500</v>
       </c>
       <c r="J17" s="3">
+        <v>4393900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5084200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5769500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5412800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7346100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7340900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1103300</v>
+        <v>740500</v>
       </c>
       <c r="E18" s="3">
-        <v>-11900</v>
+        <v>1067200</v>
       </c>
       <c r="F18" s="3">
-        <v>853800</v>
+        <v>-11500</v>
       </c>
       <c r="G18" s="3">
-        <v>714100</v>
+        <v>825900</v>
       </c>
       <c r="H18" s="3">
-        <v>1821900</v>
+        <v>690800</v>
       </c>
       <c r="I18" s="3">
-        <v>1103500</v>
+        <v>1762200</v>
       </c>
       <c r="J18" s="3">
+        <v>1067300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1049200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>376300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1426900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-547400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>487500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,90 +1175,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36300</v>
+        <v>-282800</v>
       </c>
       <c r="E20" s="3">
-        <v>-384300</v>
+        <v>35200</v>
       </c>
       <c r="F20" s="3">
-        <v>-324700</v>
+        <v>-371700</v>
       </c>
       <c r="G20" s="3">
-        <v>-263700</v>
+        <v>-314000</v>
       </c>
       <c r="H20" s="3">
-        <v>-187500</v>
+        <v>-255100</v>
       </c>
       <c r="I20" s="3">
-        <v>-144100</v>
+        <v>-181300</v>
       </c>
       <c r="J20" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-244400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-413100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-315600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-481300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-261200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2299800</v>
+        <v>1647500</v>
       </c>
       <c r="E21" s="3">
-        <v>720000</v>
+        <v>2224500</v>
       </c>
       <c r="F21" s="3">
-        <v>1608800</v>
+        <v>696400</v>
       </c>
       <c r="G21" s="3">
-        <v>1481300</v>
+        <v>1556100</v>
       </c>
       <c r="H21" s="3">
-        <v>2682200</v>
+        <v>1432800</v>
       </c>
       <c r="I21" s="3">
-        <v>1981100</v>
+        <v>2594400</v>
       </c>
       <c r="J21" s="3">
+        <v>1916200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1829200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1045500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2319100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>255200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4215800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,90 +1305,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1139600</v>
+        <v>457700</v>
       </c>
       <c r="E23" s="3">
-        <v>-396200</v>
+        <v>1102300</v>
       </c>
       <c r="F23" s="3">
-        <v>529200</v>
+        <v>-383200</v>
       </c>
       <c r="G23" s="3">
-        <v>450400</v>
+        <v>511800</v>
       </c>
       <c r="H23" s="3">
-        <v>1634400</v>
+        <v>435700</v>
       </c>
       <c r="I23" s="3">
-        <v>959300</v>
+        <v>1580900</v>
       </c>
       <c r="J23" s="3">
+        <v>927900</v>
+      </c>
+      <c r="K23" s="3">
         <v>804800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1111400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1028700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>226300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>369800</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="3">
-        <v>-312800</v>
+        <v>357700</v>
       </c>
       <c r="F24" s="3">
-        <v>105400</v>
+        <v>-302500</v>
       </c>
       <c r="G24" s="3">
-        <v>113300</v>
+        <v>101900</v>
       </c>
       <c r="H24" s="3">
-        <v>624900</v>
+        <v>109600</v>
       </c>
       <c r="I24" s="3">
-        <v>-485700</v>
+        <v>604400</v>
       </c>
       <c r="J24" s="3">
+        <v>-469800</v>
+      </c>
+      <c r="K24" s="3">
         <v>127200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-68600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>407500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1042400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>518800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,90 +1437,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>769800</v>
+        <v>437700</v>
       </c>
       <c r="E26" s="3">
-        <v>-83400</v>
+        <v>744600</v>
       </c>
       <c r="F26" s="3">
-        <v>423800</v>
+        <v>-80600</v>
       </c>
       <c r="G26" s="3">
-        <v>337100</v>
+        <v>409900</v>
       </c>
       <c r="H26" s="3">
-        <v>1009500</v>
+        <v>326100</v>
       </c>
       <c r="I26" s="3">
-        <v>1445100</v>
+        <v>976500</v>
       </c>
       <c r="J26" s="3">
+        <v>1397800</v>
+      </c>
+      <c r="K26" s="3">
         <v>677600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>703900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-292500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>769800</v>
+        <v>437800</v>
       </c>
       <c r="E27" s="3">
-        <v>-83300</v>
+        <v>744500</v>
       </c>
       <c r="F27" s="3">
-        <v>423500</v>
+        <v>-80500</v>
       </c>
       <c r="G27" s="3">
-        <v>336900</v>
+        <v>409600</v>
       </c>
       <c r="H27" s="3">
-        <v>1009200</v>
+        <v>325900</v>
       </c>
       <c r="I27" s="3">
-        <v>1444700</v>
+        <v>976200</v>
       </c>
       <c r="J27" s="3">
+        <v>1397400</v>
+      </c>
+      <c r="K27" s="3">
         <v>677000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>703800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-293500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,90 +1701,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36300</v>
+        <v>282800</v>
       </c>
       <c r="E32" s="3">
-        <v>384300</v>
+        <v>-35200</v>
       </c>
       <c r="F32" s="3">
-        <v>324700</v>
+        <v>371700</v>
       </c>
       <c r="G32" s="3">
-        <v>263700</v>
+        <v>314000</v>
       </c>
       <c r="H32" s="3">
-        <v>187500</v>
+        <v>255100</v>
       </c>
       <c r="I32" s="3">
-        <v>144100</v>
+        <v>181300</v>
       </c>
       <c r="J32" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K32" s="3">
         <v>244400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>413100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>315600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>481300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>261200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>769800</v>
+        <v>437800</v>
       </c>
       <c r="E33" s="3">
-        <v>-83300</v>
+        <v>744500</v>
       </c>
       <c r="F33" s="3">
-        <v>423500</v>
+        <v>-80500</v>
       </c>
       <c r="G33" s="3">
-        <v>336900</v>
+        <v>409600</v>
       </c>
       <c r="H33" s="3">
-        <v>1009200</v>
+        <v>325900</v>
       </c>
       <c r="I33" s="3">
-        <v>1444700</v>
+        <v>976200</v>
       </c>
       <c r="J33" s="3">
+        <v>1397400</v>
+      </c>
+      <c r="K33" s="3">
         <v>677000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>703800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-293500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,95 +1833,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>769800</v>
+        <v>437800</v>
       </c>
       <c r="E35" s="3">
-        <v>-83300</v>
+        <v>744500</v>
       </c>
       <c r="F35" s="3">
-        <v>423500</v>
+        <v>-80500</v>
       </c>
       <c r="G35" s="3">
-        <v>336900</v>
+        <v>409600</v>
       </c>
       <c r="H35" s="3">
-        <v>1009200</v>
+        <v>325900</v>
       </c>
       <c r="I35" s="3">
-        <v>1444700</v>
+        <v>976200</v>
       </c>
       <c r="J35" s="3">
+        <v>1397400</v>
+      </c>
+      <c r="K35" s="3">
         <v>677000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>703800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-293500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,377 +1964,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4735100</v>
+        <v>5658800</v>
       </c>
       <c r="E41" s="3">
-        <v>6228300</v>
+        <v>4580100</v>
       </c>
       <c r="F41" s="3">
-        <v>5309400</v>
+        <v>6024300</v>
       </c>
       <c r="G41" s="3">
-        <v>4455800</v>
+        <v>5135600</v>
       </c>
       <c r="H41" s="3">
-        <v>4800600</v>
+        <v>4309900</v>
       </c>
       <c r="I41" s="3">
-        <v>7082400</v>
+        <v>4643400</v>
       </c>
       <c r="J41" s="3">
+        <v>6850500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4527300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4914500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5030900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5617400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5177000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>135900</v>
+        <v>226400</v>
       </c>
       <c r="E42" s="3">
-        <v>185500</v>
+        <v>131500</v>
       </c>
       <c r="F42" s="3">
-        <v>202000</v>
+        <v>179400</v>
       </c>
       <c r="G42" s="3">
-        <v>188700</v>
+        <v>195400</v>
       </c>
       <c r="H42" s="3">
-        <v>219400</v>
+        <v>182500</v>
       </c>
       <c r="I42" s="3">
-        <v>268300</v>
+        <v>212200</v>
       </c>
       <c r="J42" s="3">
+        <v>259500</v>
+      </c>
+      <c r="K42" s="3">
         <v>268700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>119300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>95000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>139400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>183500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5820700</v>
+        <v>5675800</v>
       </c>
       <c r="E43" s="3">
-        <v>5309700</v>
+        <v>5630100</v>
       </c>
       <c r="F43" s="3">
-        <v>5542300</v>
+        <v>5135800</v>
       </c>
       <c r="G43" s="3">
-        <v>6503900</v>
+        <v>5360900</v>
       </c>
       <c r="H43" s="3">
-        <v>6296200</v>
+        <v>6290900</v>
       </c>
       <c r="I43" s="3">
-        <v>5957200</v>
+        <v>6090000</v>
       </c>
       <c r="J43" s="3">
+        <v>5762100</v>
+      </c>
+      <c r="K43" s="3">
         <v>6076100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5996800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6954300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6915200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7762900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6798700</v>
+        <v>6760000</v>
       </c>
       <c r="E44" s="3">
-        <v>6253700</v>
+        <v>6576100</v>
       </c>
       <c r="F44" s="3">
-        <v>5947000</v>
+        <v>6049000</v>
       </c>
       <c r="G44" s="3">
-        <v>5742900</v>
+        <v>5752300</v>
       </c>
       <c r="H44" s="3">
-        <v>5711200</v>
+        <v>5554800</v>
       </c>
       <c r="I44" s="3">
-        <v>5525900</v>
+        <v>5524200</v>
       </c>
       <c r="J44" s="3">
+        <v>5345000</v>
+      </c>
+      <c r="K44" s="3">
         <v>5419500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5791700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6477500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6692100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7300200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1197600</v>
+        <v>1145500</v>
       </c>
       <c r="E45" s="3">
-        <v>1034200</v>
+        <v>1158400</v>
       </c>
       <c r="F45" s="3">
-        <v>1162200</v>
+        <v>1000400</v>
       </c>
       <c r="G45" s="3">
-        <v>1113900</v>
+        <v>1124200</v>
       </c>
       <c r="H45" s="3">
-        <v>1125200</v>
+        <v>1077400</v>
       </c>
       <c r="I45" s="3">
-        <v>1051700</v>
+        <v>1088300</v>
       </c>
       <c r="J45" s="3">
+        <v>1017300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2888100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3315900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2552100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2391700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2536500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18687900</v>
+        <v>19466400</v>
       </c>
       <c r="E46" s="3">
-        <v>19011400</v>
+        <v>18076100</v>
       </c>
       <c r="F46" s="3">
-        <v>18163000</v>
+        <v>18388900</v>
       </c>
       <c r="G46" s="3">
-        <v>18005100</v>
+        <v>17568300</v>
       </c>
       <c r="H46" s="3">
-        <v>18152400</v>
+        <v>17415500</v>
       </c>
       <c r="I46" s="3">
-        <v>19885500</v>
+        <v>17558100</v>
       </c>
       <c r="J46" s="3">
+        <v>19234400</v>
+      </c>
+      <c r="K46" s="3">
         <v>19179700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20138200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21109700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21755700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22960200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2797200</v>
+        <v>3018700</v>
       </c>
       <c r="E47" s="3">
-        <v>2419900</v>
+        <v>2705600</v>
       </c>
       <c r="F47" s="3">
-        <v>2454200</v>
+        <v>2340600</v>
       </c>
       <c r="G47" s="3">
-        <v>2580800</v>
+        <v>2373800</v>
       </c>
       <c r="H47" s="3">
-        <v>2746300</v>
+        <v>2496300</v>
       </c>
       <c r="I47" s="3">
-        <v>2553400</v>
+        <v>2656300</v>
       </c>
       <c r="J47" s="3">
+        <v>2469800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2756500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2723400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2871500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3254900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3594200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12500300</v>
+        <v>12480700</v>
       </c>
       <c r="E48" s="3">
-        <v>11601900</v>
+        <v>12091100</v>
       </c>
       <c r="F48" s="3">
-        <v>10948000</v>
+        <v>11222100</v>
       </c>
       <c r="G48" s="3">
-        <v>10701200</v>
+        <v>10589500</v>
       </c>
       <c r="H48" s="3">
-        <v>10644400</v>
+        <v>10350800</v>
       </c>
       <c r="I48" s="3">
-        <v>10657200</v>
+        <v>10295900</v>
       </c>
       <c r="J48" s="3">
+        <v>10308300</v>
+      </c>
+      <c r="K48" s="3">
         <v>9991800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10648500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11653500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12213900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13381200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65667300</v>
+        <v>65098200</v>
       </c>
       <c r="E49" s="3">
-        <v>60298700</v>
+        <v>63517200</v>
       </c>
       <c r="F49" s="3">
-        <v>58345800</v>
+        <v>58324400</v>
       </c>
       <c r="G49" s="3">
-        <v>57628800</v>
+        <v>56435500</v>
       </c>
       <c r="H49" s="3">
-        <v>58019600</v>
+        <v>55741900</v>
       </c>
       <c r="I49" s="3">
-        <v>58222400</v>
+        <v>56120000</v>
       </c>
       <c r="J49" s="3">
+        <v>56316000</v>
+      </c>
+      <c r="K49" s="3">
         <v>55572600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60251000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>68474000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>72100100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76638300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,49 +2446,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3446800</v>
+        <v>3370900</v>
       </c>
       <c r="E52" s="3">
-        <v>3262900</v>
+        <v>3334000</v>
       </c>
       <c r="F52" s="3">
-        <v>3169200</v>
+        <v>3156100</v>
       </c>
       <c r="G52" s="3">
-        <v>3150900</v>
+        <v>3065400</v>
       </c>
       <c r="H52" s="3">
-        <v>3214800</v>
+        <v>3047700</v>
       </c>
       <c r="I52" s="3">
-        <v>3328600</v>
+        <v>3109500</v>
       </c>
       <c r="J52" s="3">
+        <v>3219600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2556900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2949700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3487500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3629300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2143100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,49 +2534,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103099600</v>
+        <v>103434900</v>
       </c>
       <c r="E54" s="3">
-        <v>96594900</v>
+        <v>99723900</v>
       </c>
       <c r="F54" s="3">
-        <v>93080100</v>
+        <v>93432100</v>
       </c>
       <c r="G54" s="3">
-        <v>92066800</v>
+        <v>90032500</v>
       </c>
       <c r="H54" s="3">
-        <v>92777500</v>
+        <v>89052300</v>
       </c>
       <c r="I54" s="3">
-        <v>94647100</v>
+        <v>89739800</v>
       </c>
       <c r="J54" s="3">
+        <v>91548200</v>
+      </c>
+      <c r="K54" s="3">
         <v>90057400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96710900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>107596200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112953800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118716900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,254 +2616,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3110500</v>
+        <v>2755300</v>
       </c>
       <c r="E57" s="3">
-        <v>3784500</v>
+        <v>3008700</v>
       </c>
       <c r="F57" s="3">
-        <v>2574200</v>
+        <v>3660500</v>
       </c>
       <c r="G57" s="3">
-        <v>2467300</v>
+        <v>2489900</v>
       </c>
       <c r="H57" s="3">
-        <v>2350300</v>
+        <v>2386500</v>
       </c>
       <c r="I57" s="3">
-        <v>2520300</v>
+        <v>2273400</v>
       </c>
       <c r="J57" s="3">
+        <v>2437800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2396700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2124900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2471500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2808800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2732000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2066300</v>
+        <v>4028700</v>
       </c>
       <c r="E58" s="3">
-        <v>1495300</v>
+        <v>1998600</v>
       </c>
       <c r="F58" s="3">
-        <v>901100</v>
+        <v>1446300</v>
       </c>
       <c r="G58" s="3">
-        <v>1575100</v>
+        <v>871600</v>
       </c>
       <c r="H58" s="3">
-        <v>177900</v>
+        <v>1523500</v>
       </c>
       <c r="I58" s="3">
-        <v>162400</v>
+        <v>172100</v>
       </c>
       <c r="J58" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2085200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2154800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4953600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5169900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5572600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10706800</v>
+        <v>10173300</v>
       </c>
       <c r="E59" s="3">
-        <v>10448500</v>
+        <v>10356300</v>
       </c>
       <c r="F59" s="3">
-        <v>9786500</v>
+        <v>10106400</v>
       </c>
       <c r="G59" s="3">
-        <v>10022000</v>
+        <v>9466100</v>
       </c>
       <c r="H59" s="3">
-        <v>9982500</v>
+        <v>9693900</v>
       </c>
       <c r="I59" s="3">
-        <v>10314700</v>
+        <v>9655600</v>
       </c>
       <c r="J59" s="3">
+        <v>9976900</v>
+      </c>
+      <c r="K59" s="3">
         <v>8748400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9038500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9903900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11191000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11075700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15883700</v>
+        <v>16957300</v>
       </c>
       <c r="E60" s="3">
-        <v>15728200</v>
+        <v>15363600</v>
       </c>
       <c r="F60" s="3">
-        <v>13261800</v>
+        <v>15213200</v>
       </c>
       <c r="G60" s="3">
-        <v>14064400</v>
+        <v>12827600</v>
       </c>
       <c r="H60" s="3">
-        <v>12510700</v>
+        <v>13603900</v>
       </c>
       <c r="I60" s="3">
-        <v>12997400</v>
+        <v>12101100</v>
       </c>
       <c r="J60" s="3">
+        <v>12571800</v>
+      </c>
+      <c r="K60" s="3">
         <v>13230300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13318300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17329100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19169700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19380300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31668200</v>
+        <v>29554100</v>
       </c>
       <c r="E61" s="3">
-        <v>30356600</v>
+        <v>30631300</v>
       </c>
       <c r="F61" s="3">
-        <v>31020100</v>
+        <v>29362700</v>
       </c>
       <c r="G61" s="3">
-        <v>29440700</v>
+        <v>30004400</v>
       </c>
       <c r="H61" s="3">
-        <v>32117000</v>
+        <v>28476800</v>
       </c>
       <c r="I61" s="3">
-        <v>33814900</v>
+        <v>31065500</v>
       </c>
       <c r="J61" s="3">
+        <v>32707700</v>
+      </c>
+      <c r="K61" s="3">
         <v>32740000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36078700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38335700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39702200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41997600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9241300</v>
+        <v>9324900</v>
       </c>
       <c r="E62" s="3">
-        <v>8849900</v>
+        <v>8938700</v>
       </c>
       <c r="F62" s="3">
-        <v>9715900</v>
+        <v>8560100</v>
       </c>
       <c r="G62" s="3">
-        <v>9534100</v>
+        <v>9397800</v>
       </c>
       <c r="H62" s="3">
-        <v>9750500</v>
+        <v>9221900</v>
       </c>
       <c r="I62" s="3">
-        <v>9886100</v>
+        <v>9431300</v>
       </c>
       <c r="J62" s="3">
+        <v>9562400</v>
+      </c>
+      <c r="K62" s="3">
         <v>10080000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10961800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11919100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12432900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12916700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,49 +3010,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56797200</v>
+        <v>55840300</v>
       </c>
       <c r="E66" s="3">
-        <v>54938300</v>
+        <v>54937500</v>
       </c>
       <c r="F66" s="3">
-        <v>54001500</v>
+        <v>53139500</v>
       </c>
       <c r="G66" s="3">
-        <v>53042400</v>
+        <v>52233400</v>
       </c>
       <c r="H66" s="3">
-        <v>54381100</v>
+        <v>51305600</v>
       </c>
       <c r="I66" s="3">
-        <v>56728700</v>
+        <v>52600500</v>
       </c>
       <c r="J66" s="3">
+        <v>54871300</v>
+      </c>
+      <c r="K66" s="3">
         <v>56080200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60390800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67618100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71340000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74332300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,49 +3248,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10700100</v>
+        <v>10849100</v>
       </c>
       <c r="E72" s="3">
-        <v>10846300</v>
+        <v>10349700</v>
       </c>
       <c r="F72" s="3">
-        <v>10752600</v>
+        <v>10491200</v>
       </c>
       <c r="G72" s="3">
-        <v>11369900</v>
+        <v>10400500</v>
       </c>
       <c r="H72" s="3">
-        <v>11022900</v>
+        <v>10997700</v>
       </c>
       <c r="I72" s="3">
-        <v>11067600</v>
+        <v>10662000</v>
       </c>
       <c r="J72" s="3">
+        <v>10705200</v>
+      </c>
+      <c r="K72" s="3">
         <v>9577100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10415700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11345400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12069500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12557700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,49 +3424,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46302400</v>
+        <v>47594700</v>
       </c>
       <c r="E76" s="3">
-        <v>41656500</v>
+        <v>44786300</v>
       </c>
       <c r="F76" s="3">
-        <v>39078600</v>
+        <v>40292600</v>
       </c>
       <c r="G76" s="3">
-        <v>39024400</v>
+        <v>37799100</v>
       </c>
       <c r="H76" s="3">
-        <v>38396400</v>
+        <v>37746700</v>
       </c>
       <c r="I76" s="3">
-        <v>37918400</v>
+        <v>37139200</v>
       </c>
       <c r="J76" s="3">
+        <v>36676800</v>
+      </c>
+      <c r="K76" s="3">
         <v>33977100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36320100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39978100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41613900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44384600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,95 +3512,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>769800</v>
+        <v>437800</v>
       </c>
       <c r="E81" s="3">
-        <v>-83300</v>
+        <v>744500</v>
       </c>
       <c r="F81" s="3">
-        <v>423500</v>
+        <v>-80500</v>
       </c>
       <c r="G81" s="3">
-        <v>336900</v>
+        <v>409600</v>
       </c>
       <c r="H81" s="3">
-        <v>1009200</v>
+        <v>325900</v>
       </c>
       <c r="I81" s="3">
-        <v>1444700</v>
+        <v>976200</v>
       </c>
       <c r="J81" s="3">
+        <v>1397400</v>
+      </c>
+      <c r="K81" s="3">
         <v>677000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>703800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-293500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,49 +3625,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1160200</v>
+        <v>1189900</v>
       </c>
       <c r="E83" s="3">
-        <v>1116200</v>
+        <v>1122200</v>
       </c>
       <c r="F83" s="3">
         <v>1079600</v>
       </c>
       <c r="G83" s="3">
-        <v>1030900</v>
+        <v>1044200</v>
       </c>
       <c r="H83" s="3">
-        <v>1047800</v>
+        <v>997200</v>
       </c>
       <c r="I83" s="3">
-        <v>1021700</v>
+        <v>1013500</v>
       </c>
       <c r="J83" s="3">
+        <v>988300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1024400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1082400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1207700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1283900</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,49 +3887,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>617500</v>
+        <v>1566800</v>
       </c>
       <c r="E89" s="3">
-        <v>2753000</v>
+        <v>597300</v>
       </c>
       <c r="F89" s="3">
-        <v>2547200</v>
+        <v>2662900</v>
       </c>
       <c r="G89" s="3">
-        <v>1709000</v>
+        <v>2463800</v>
       </c>
       <c r="H89" s="3">
-        <v>1223100</v>
+        <v>1653100</v>
       </c>
       <c r="I89" s="3">
-        <v>2939500</v>
+        <v>1183000</v>
       </c>
       <c r="J89" s="3">
+        <v>2843300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1598600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1915900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1244200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1633700</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,49 +3951,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-308800</v>
+        <v>-207700</v>
       </c>
       <c r="E91" s="3">
-        <v>-260800</v>
+        <v>-298700</v>
       </c>
       <c r="F91" s="3">
-        <v>-198400</v>
+        <v>-252300</v>
       </c>
       <c r="G91" s="3">
-        <v>-225500</v>
+        <v>-191900</v>
       </c>
       <c r="H91" s="3">
-        <v>-218700</v>
+        <v>-218100</v>
       </c>
       <c r="I91" s="3">
-        <v>-265100</v>
+        <v>-211600</v>
       </c>
       <c r="J91" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-180000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-213000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-197300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-328100</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,49 +4081,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-694300</v>
+        <v>-192900</v>
       </c>
       <c r="E94" s="3">
-        <v>-187900</v>
+        <v>-671500</v>
       </c>
       <c r="F94" s="3">
-        <v>-506800</v>
+        <v>-181800</v>
       </c>
       <c r="G94" s="3">
-        <v>-241200</v>
+        <v>-490200</v>
       </c>
       <c r="H94" s="3">
-        <v>-516400</v>
+        <v>-233300</v>
       </c>
       <c r="I94" s="3">
-        <v>2150100</v>
+        <v>-499500</v>
       </c>
       <c r="J94" s="3">
+        <v>2079700</v>
+      </c>
+      <c r="K94" s="3">
         <v>527600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>214700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>319300</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,49 +4145,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-944600</v>
+        <v>-78900</v>
       </c>
       <c r="E96" s="3">
-        <v>-78000</v>
+        <v>-913700</v>
       </c>
       <c r="F96" s="3">
-        <v>-963500</v>
+        <v>-75400</v>
       </c>
       <c r="G96" s="3">
-        <v>-69900</v>
+        <v>-932000</v>
       </c>
       <c r="H96" s="3">
-        <v>-967800</v>
+        <v>-67600</v>
       </c>
       <c r="I96" s="3">
-        <v>-63600</v>
+        <v>-936100</v>
       </c>
       <c r="J96" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-974300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-67300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1135500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-73300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,127 +4319,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1581200</v>
+        <v>-367800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1787100</v>
+        <v>-1529400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1231900</v>
+        <v>-1728500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1813200</v>
+        <v>-1191500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3012900</v>
+        <v>-1753800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2712600</v>
+        <v>-2914300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2623800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2199500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1756200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1644300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1268000</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>164800</v>
+        <v>72600</v>
       </c>
       <c r="E101" s="3">
-        <v>140800</v>
+        <v>159400</v>
       </c>
       <c r="F101" s="3">
-        <v>45100</v>
+        <v>136200</v>
       </c>
       <c r="G101" s="3">
+        <v>43600</v>
+      </c>
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
-        <v>24400</v>
-      </c>
       <c r="I101" s="3">
-        <v>178100</v>
+        <v>23600</v>
       </c>
       <c r="J101" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-23700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-54400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-74100</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1493200</v>
+        <v>1078700</v>
       </c>
       <c r="E102" s="3">
-        <v>918900</v>
+        <v>-1444300</v>
       </c>
       <c r="F102" s="3">
-        <v>853600</v>
+        <v>888800</v>
       </c>
       <c r="G102" s="3">
-        <v>-344800</v>
+        <v>825700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2281800</v>
+        <v>-333500</v>
       </c>
       <c r="I102" s="3">
-        <v>2555100</v>
+        <v>-2207100</v>
       </c>
       <c r="J102" s="3">
+        <v>2471500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-97000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>320000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-408000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>610800</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,216 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7106400</v>
+        <v>8059600</v>
       </c>
       <c r="E8" s="3">
-        <v>6894800</v>
+        <v>7367000</v>
       </c>
       <c r="F8" s="3">
-        <v>6191600</v>
+        <v>7147600</v>
       </c>
       <c r="G8" s="3">
-        <v>6390200</v>
+        <v>6418700</v>
       </c>
       <c r="H8" s="3">
-        <v>5989800</v>
+        <v>6624500</v>
       </c>
       <c r="I8" s="3">
-        <v>6732700</v>
+        <v>6209400</v>
       </c>
       <c r="J8" s="3">
+        <v>6979600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5461200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6133400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6145800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6839800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6798700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7828400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2165600</v>
+        <v>2469400</v>
       </c>
       <c r="E9" s="3">
-        <v>2076500</v>
+        <v>2245000</v>
       </c>
       <c r="F9" s="3">
-        <v>2186400</v>
+        <v>2152700</v>
       </c>
       <c r="G9" s="3">
-        <v>1995200</v>
+        <v>2266600</v>
       </c>
       <c r="H9" s="3">
-        <v>1955400</v>
+        <v>2068300</v>
       </c>
       <c r="I9" s="3">
-        <v>1710600</v>
+        <v>2027100</v>
       </c>
       <c r="J9" s="3">
+        <v>1773300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1796900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1855500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1944700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2030800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2186500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2546900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4940800</v>
+        <v>5590200</v>
       </c>
       <c r="E10" s="3">
-        <v>4818200</v>
+        <v>5121900</v>
       </c>
       <c r="F10" s="3">
-        <v>4005200</v>
+        <v>4994900</v>
       </c>
       <c r="G10" s="3">
-        <v>4395000</v>
+        <v>4152100</v>
       </c>
       <c r="H10" s="3">
-        <v>4034400</v>
+        <v>4556200</v>
       </c>
       <c r="I10" s="3">
-        <v>5022100</v>
+        <v>4182300</v>
       </c>
       <c r="J10" s="3">
+        <v>5206300</v>
+      </c>
+      <c r="K10" s="3">
         <v>3664300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4277900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4201100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4809000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4612200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5281400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,52 +891,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1092900</v>
+        <v>1283500</v>
       </c>
       <c r="E12" s="3">
-        <v>1018200</v>
+        <v>1133000</v>
       </c>
       <c r="F12" s="3">
-        <v>1018300</v>
+        <v>1055500</v>
       </c>
       <c r="G12" s="3">
-        <v>910200</v>
+        <v>1055700</v>
       </c>
       <c r="H12" s="3">
-        <v>933000</v>
+        <v>943600</v>
       </c>
       <c r="I12" s="3">
-        <v>868400</v>
+        <v>967300</v>
       </c>
       <c r="J12" s="3">
+        <v>900200</v>
+      </c>
+      <c r="K12" s="3">
         <v>803200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>861800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>920400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>911200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1227300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1117900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -967,96 +983,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>109500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>234400</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>189800</v>
+        <v>243000</v>
       </c>
       <c r="H14" s="3">
-        <v>198400</v>
+        <v>196700</v>
       </c>
       <c r="I14" s="3">
-        <v>118800</v>
+        <v>205600</v>
       </c>
       <c r="J14" s="3">
+        <v>123100</v>
+      </c>
+      <c r="K14" s="3">
         <v>208700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>152600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>325000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>203900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1009400</v>
+        <v>996500</v>
       </c>
       <c r="E15" s="3">
-        <v>930800</v>
+        <v>1046400</v>
       </c>
       <c r="F15" s="3">
-        <v>1058400</v>
+        <v>964900</v>
       </c>
       <c r="G15" s="3">
-        <v>837200</v>
+        <v>1097200</v>
       </c>
       <c r="H15" s="3">
-        <v>728300</v>
+        <v>867900</v>
       </c>
       <c r="I15" s="3">
-        <v>729000</v>
+        <v>755000</v>
       </c>
       <c r="J15" s="3">
+        <v>755800</v>
+      </c>
+      <c r="K15" s="3">
         <v>810300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>729100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>809000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>889300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1112500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>946800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1095,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6365900</v>
+        <v>6979300</v>
       </c>
       <c r="E17" s="3">
-        <v>5827600</v>
+        <v>6599300</v>
       </c>
       <c r="F17" s="3">
-        <v>6203100</v>
+        <v>6041300</v>
       </c>
       <c r="G17" s="3">
-        <v>5564300</v>
+        <v>6430600</v>
       </c>
       <c r="H17" s="3">
-        <v>5299000</v>
+        <v>5768400</v>
       </c>
       <c r="I17" s="3">
-        <v>4970500</v>
+        <v>5493300</v>
       </c>
       <c r="J17" s="3">
+        <v>5152700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4393900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5084200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5769500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5412800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7346100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7340900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>740500</v>
+        <v>1080400</v>
       </c>
       <c r="E18" s="3">
-        <v>1067200</v>
+        <v>767600</v>
       </c>
       <c r="F18" s="3">
-        <v>-11500</v>
+        <v>1106300</v>
       </c>
       <c r="G18" s="3">
-        <v>825900</v>
+        <v>-11900</v>
       </c>
       <c r="H18" s="3">
-        <v>690800</v>
+        <v>856200</v>
       </c>
       <c r="I18" s="3">
-        <v>1762200</v>
+        <v>716100</v>
       </c>
       <c r="J18" s="3">
+        <v>1826900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1067300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1049200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>376300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1426900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-547400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>487500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,96 +1208,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-282800</v>
+        <v>-292800</v>
       </c>
       <c r="E20" s="3">
-        <v>35200</v>
+        <v>-293200</v>
       </c>
       <c r="F20" s="3">
-        <v>-371700</v>
+        <v>36400</v>
       </c>
       <c r="G20" s="3">
-        <v>-314000</v>
+        <v>-385300</v>
       </c>
       <c r="H20" s="3">
-        <v>-255100</v>
+        <v>-325500</v>
       </c>
       <c r="I20" s="3">
-        <v>-181300</v>
+        <v>-264500</v>
       </c>
       <c r="J20" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-139400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-244400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-413100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-315600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-481300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-261200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1647500</v>
+        <v>2087600</v>
       </c>
       <c r="E21" s="3">
-        <v>2224500</v>
+        <v>1708000</v>
       </c>
       <c r="F21" s="3">
-        <v>696400</v>
+        <v>2306100</v>
       </c>
       <c r="G21" s="3">
-        <v>1556100</v>
+        <v>722000</v>
       </c>
       <c r="H21" s="3">
-        <v>1432800</v>
+        <v>1613100</v>
       </c>
       <c r="I21" s="3">
-        <v>2594400</v>
+        <v>1485400</v>
       </c>
       <c r="J21" s="3">
+        <v>2689600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1916200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1829200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1045500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2319100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>255200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4215800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,96 +1347,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>457700</v>
+        <v>787600</v>
       </c>
       <c r="E23" s="3">
-        <v>1102300</v>
+        <v>474400</v>
       </c>
       <c r="F23" s="3">
-        <v>-383200</v>
+        <v>1142700</v>
       </c>
       <c r="G23" s="3">
-        <v>511800</v>
+        <v>-397200</v>
       </c>
       <c r="H23" s="3">
-        <v>435700</v>
+        <v>530600</v>
       </c>
       <c r="I23" s="3">
-        <v>1580900</v>
+        <v>451600</v>
       </c>
       <c r="J23" s="3">
+        <v>1638900</v>
+      </c>
+      <c r="K23" s="3">
         <v>927900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>804800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1111400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1028700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>226300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20000</v>
+        <v>-88200</v>
       </c>
       <c r="E24" s="3">
-        <v>357700</v>
+        <v>20700</v>
       </c>
       <c r="F24" s="3">
-        <v>-302500</v>
+        <v>370800</v>
       </c>
       <c r="G24" s="3">
-        <v>101900</v>
+        <v>-313600</v>
       </c>
       <c r="H24" s="3">
-        <v>109600</v>
+        <v>105600</v>
       </c>
       <c r="I24" s="3">
-        <v>604400</v>
+        <v>113600</v>
       </c>
       <c r="J24" s="3">
+        <v>626600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-469800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-68600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>407500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1042400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>518800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1488,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>437700</v>
+        <v>875700</v>
       </c>
       <c r="E26" s="3">
-        <v>744600</v>
+        <v>453700</v>
       </c>
       <c r="F26" s="3">
-        <v>-80600</v>
+        <v>771900</v>
       </c>
       <c r="G26" s="3">
-        <v>409900</v>
+        <v>-83600</v>
       </c>
       <c r="H26" s="3">
-        <v>326100</v>
+        <v>425000</v>
       </c>
       <c r="I26" s="3">
-        <v>976500</v>
+        <v>338100</v>
       </c>
       <c r="J26" s="3">
+        <v>1012300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1397800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>677600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>703900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-292500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>437800</v>
+        <v>875600</v>
       </c>
       <c r="E27" s="3">
-        <v>744500</v>
+        <v>453800</v>
       </c>
       <c r="F27" s="3">
-        <v>-80500</v>
+        <v>771900</v>
       </c>
       <c r="G27" s="3">
-        <v>409600</v>
+        <v>-83500</v>
       </c>
       <c r="H27" s="3">
-        <v>325900</v>
+        <v>424600</v>
       </c>
       <c r="I27" s="3">
-        <v>976200</v>
+        <v>337800</v>
       </c>
       <c r="J27" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1397400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>677000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>703800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-293500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,96 +1770,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>282800</v>
+        <v>292800</v>
       </c>
       <c r="E32" s="3">
-        <v>-35200</v>
+        <v>293200</v>
       </c>
       <c r="F32" s="3">
-        <v>371700</v>
+        <v>-36400</v>
       </c>
       <c r="G32" s="3">
-        <v>314000</v>
+        <v>385300</v>
       </c>
       <c r="H32" s="3">
-        <v>255100</v>
+        <v>325500</v>
       </c>
       <c r="I32" s="3">
-        <v>181300</v>
+        <v>264500</v>
       </c>
       <c r="J32" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K32" s="3">
         <v>139400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>244400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>413100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>315600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>481300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>261200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>437800</v>
+        <v>875600</v>
       </c>
       <c r="E33" s="3">
-        <v>744500</v>
+        <v>453800</v>
       </c>
       <c r="F33" s="3">
-        <v>-80500</v>
+        <v>771900</v>
       </c>
       <c r="G33" s="3">
-        <v>409600</v>
+        <v>-83500</v>
       </c>
       <c r="H33" s="3">
-        <v>325900</v>
+        <v>424600</v>
       </c>
       <c r="I33" s="3">
-        <v>976200</v>
+        <v>337800</v>
       </c>
       <c r="J33" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1397400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>677000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>703800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-293500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1911,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>437800</v>
+        <v>875600</v>
       </c>
       <c r="E35" s="3">
-        <v>744500</v>
+        <v>453800</v>
       </c>
       <c r="F35" s="3">
-        <v>-80500</v>
+        <v>771900</v>
       </c>
       <c r="G35" s="3">
-        <v>409600</v>
+        <v>-83500</v>
       </c>
       <c r="H35" s="3">
-        <v>325900</v>
+        <v>424600</v>
       </c>
       <c r="I35" s="3">
-        <v>976200</v>
+        <v>337800</v>
       </c>
       <c r="J35" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1397400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>677000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>703800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-293500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,404 +2050,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5658800</v>
+        <v>5035800</v>
       </c>
       <c r="E41" s="3">
-        <v>4580100</v>
+        <v>5866300</v>
       </c>
       <c r="F41" s="3">
-        <v>6024300</v>
+        <v>4748000</v>
       </c>
       <c r="G41" s="3">
-        <v>5135600</v>
+        <v>6245300</v>
       </c>
       <c r="H41" s="3">
-        <v>4309900</v>
+        <v>5323900</v>
       </c>
       <c r="I41" s="3">
-        <v>4643400</v>
+        <v>4467900</v>
       </c>
       <c r="J41" s="3">
+        <v>4813700</v>
+      </c>
+      <c r="K41" s="3">
         <v>6850500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4527300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4914500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5030900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5617400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5177000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>226400</v>
+        <v>304800</v>
       </c>
       <c r="E42" s="3">
-        <v>131500</v>
+        <v>234700</v>
       </c>
       <c r="F42" s="3">
-        <v>179400</v>
+        <v>136300</v>
       </c>
       <c r="G42" s="3">
-        <v>195400</v>
+        <v>186000</v>
       </c>
       <c r="H42" s="3">
-        <v>182500</v>
+        <v>202500</v>
       </c>
       <c r="I42" s="3">
-        <v>212200</v>
+        <v>189200</v>
       </c>
       <c r="J42" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K42" s="3">
         <v>259500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>268700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>119300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>95000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>139400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>183500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5675800</v>
+        <v>5732100</v>
       </c>
       <c r="E43" s="3">
-        <v>5630100</v>
+        <v>5883900</v>
       </c>
       <c r="F43" s="3">
-        <v>5135800</v>
+        <v>5836600</v>
       </c>
       <c r="G43" s="3">
-        <v>5360900</v>
+        <v>5324200</v>
       </c>
       <c r="H43" s="3">
-        <v>6290900</v>
+        <v>5557500</v>
       </c>
       <c r="I43" s="3">
-        <v>6090000</v>
+        <v>6521600</v>
       </c>
       <c r="J43" s="3">
+        <v>6313300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5762100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6076100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5996800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6954300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6915200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7762900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6760000</v>
+        <v>6815600</v>
       </c>
       <c r="E44" s="3">
-        <v>6576100</v>
+        <v>7007900</v>
       </c>
       <c r="F44" s="3">
-        <v>6049000</v>
+        <v>6817200</v>
       </c>
       <c r="G44" s="3">
-        <v>5752300</v>
+        <v>6270800</v>
       </c>
       <c r="H44" s="3">
-        <v>5554800</v>
+        <v>5963200</v>
       </c>
       <c r="I44" s="3">
-        <v>5524200</v>
+        <v>5758500</v>
       </c>
       <c r="J44" s="3">
+        <v>5726700</v>
+      </c>
+      <c r="K44" s="3">
         <v>5345000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5419500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5791700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6477500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6692100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7300200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1145500</v>
+        <v>1192000</v>
       </c>
       <c r="E45" s="3">
-        <v>1158400</v>
+        <v>1187500</v>
       </c>
       <c r="F45" s="3">
-        <v>1000400</v>
+        <v>1200800</v>
       </c>
       <c r="G45" s="3">
-        <v>1124200</v>
+        <v>1037100</v>
       </c>
       <c r="H45" s="3">
-        <v>1077400</v>
+        <v>1165400</v>
       </c>
       <c r="I45" s="3">
-        <v>1088300</v>
+        <v>1116900</v>
       </c>
       <c r="J45" s="3">
+        <v>1128200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1017300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2888100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3315900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2552100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2391700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2536500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19466400</v>
+        <v>19080200</v>
       </c>
       <c r="E46" s="3">
-        <v>18076100</v>
+        <v>20180300</v>
       </c>
       <c r="F46" s="3">
-        <v>18388900</v>
+        <v>18738900</v>
       </c>
       <c r="G46" s="3">
-        <v>17568300</v>
+        <v>19063300</v>
       </c>
       <c r="H46" s="3">
-        <v>17415500</v>
+        <v>18212500</v>
       </c>
       <c r="I46" s="3">
-        <v>17558100</v>
+        <v>18054200</v>
       </c>
       <c r="J46" s="3">
+        <v>18202000</v>
+      </c>
+      <c r="K46" s="3">
         <v>19234400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19179700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20138200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21109700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21755700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22960200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3018700</v>
+        <v>2715600</v>
       </c>
       <c r="E47" s="3">
-        <v>2705600</v>
+        <v>3129400</v>
       </c>
       <c r="F47" s="3">
-        <v>2340600</v>
+        <v>2804800</v>
       </c>
       <c r="G47" s="3">
-        <v>2373800</v>
+        <v>2426500</v>
       </c>
       <c r="H47" s="3">
-        <v>2496300</v>
+        <v>2460900</v>
       </c>
       <c r="I47" s="3">
-        <v>2656300</v>
+        <v>2587900</v>
       </c>
       <c r="J47" s="3">
+        <v>2753700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2469800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2756500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2723400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2871500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3254900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3594200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12480700</v>
+        <v>12174700</v>
       </c>
       <c r="E48" s="3">
-        <v>12091100</v>
+        <v>12938400</v>
       </c>
       <c r="F48" s="3">
-        <v>11222100</v>
+        <v>12534400</v>
       </c>
       <c r="G48" s="3">
-        <v>10589500</v>
+        <v>11633600</v>
       </c>
       <c r="H48" s="3">
-        <v>10350800</v>
+        <v>10977900</v>
       </c>
       <c r="I48" s="3">
-        <v>10295900</v>
+        <v>10730400</v>
       </c>
       <c r="J48" s="3">
+        <v>10673500</v>
+      </c>
+      <c r="K48" s="3">
         <v>10308300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9991800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10648500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11653500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12213900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13381200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65098200</v>
+        <v>62156800</v>
       </c>
       <c r="E49" s="3">
-        <v>63517200</v>
+        <v>67485400</v>
       </c>
       <c r="F49" s="3">
-        <v>58324400</v>
+        <v>65846400</v>
       </c>
       <c r="G49" s="3">
-        <v>56435500</v>
+        <v>60463300</v>
       </c>
       <c r="H49" s="3">
-        <v>55741900</v>
+        <v>58505000</v>
       </c>
       <c r="I49" s="3">
-        <v>56120000</v>
+        <v>57786000</v>
       </c>
       <c r="J49" s="3">
+        <v>58177900</v>
+      </c>
+      <c r="K49" s="3">
         <v>56316000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55572600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60251000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>68474000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>72100100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>76638300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,52 +2565,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3370900</v>
+        <v>3132300</v>
       </c>
       <c r="E52" s="3">
-        <v>3334000</v>
+        <v>3494600</v>
       </c>
       <c r="F52" s="3">
-        <v>3156100</v>
+        <v>3456200</v>
       </c>
       <c r="G52" s="3">
-        <v>3065400</v>
+        <v>3271900</v>
       </c>
       <c r="H52" s="3">
-        <v>3047700</v>
+        <v>3177800</v>
       </c>
       <c r="I52" s="3">
-        <v>3109500</v>
+        <v>3159500</v>
       </c>
       <c r="J52" s="3">
+        <v>3223500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3219600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2556900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2949700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3487500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3629300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2143100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,52 +2659,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103434900</v>
+        <v>99259600</v>
       </c>
       <c r="E54" s="3">
-        <v>99723900</v>
+        <v>107228000</v>
       </c>
       <c r="F54" s="3">
-        <v>93432100</v>
+        <v>103380900</v>
       </c>
       <c r="G54" s="3">
-        <v>90032500</v>
+        <v>96858400</v>
       </c>
       <c r="H54" s="3">
-        <v>89052300</v>
+        <v>93334100</v>
       </c>
       <c r="I54" s="3">
-        <v>89739800</v>
+        <v>92318000</v>
       </c>
       <c r="J54" s="3">
+        <v>93030700</v>
+      </c>
+      <c r="K54" s="3">
         <v>91548200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90057400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96710900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>107596200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112953800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118716900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,272 +2746,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2755300</v>
+        <v>2801200</v>
       </c>
       <c r="E57" s="3">
-        <v>3008700</v>
+        <v>2856300</v>
       </c>
       <c r="F57" s="3">
-        <v>3660500</v>
+        <v>3119000</v>
       </c>
       <c r="G57" s="3">
-        <v>2489900</v>
+        <v>3794800</v>
       </c>
       <c r="H57" s="3">
-        <v>2386500</v>
+        <v>2581200</v>
       </c>
       <c r="I57" s="3">
-        <v>2273400</v>
+        <v>2474000</v>
       </c>
       <c r="J57" s="3">
+        <v>2356700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2437800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2396700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2124900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2471500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2808800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2732000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4028700</v>
+        <v>2734300</v>
       </c>
       <c r="E58" s="3">
-        <v>1998600</v>
+        <v>4176500</v>
       </c>
       <c r="F58" s="3">
-        <v>1446300</v>
+        <v>2071900</v>
       </c>
       <c r="G58" s="3">
-        <v>871600</v>
+        <v>1499300</v>
       </c>
       <c r="H58" s="3">
-        <v>1523500</v>
+        <v>903600</v>
       </c>
       <c r="I58" s="3">
-        <v>172100</v>
+        <v>1579400</v>
       </c>
       <c r="J58" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K58" s="3">
         <v>157100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2085200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2154800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4953600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5169900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5572600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10173300</v>
+        <v>10905100</v>
       </c>
       <c r="E59" s="3">
-        <v>10356300</v>
+        <v>10546300</v>
       </c>
       <c r="F59" s="3">
-        <v>10106400</v>
+        <v>10736000</v>
       </c>
       <c r="G59" s="3">
-        <v>9466100</v>
+        <v>10477000</v>
       </c>
       <c r="H59" s="3">
-        <v>9693900</v>
+        <v>9813200</v>
       </c>
       <c r="I59" s="3">
-        <v>9655600</v>
+        <v>10049400</v>
       </c>
       <c r="J59" s="3">
+        <v>10009700</v>
+      </c>
+      <c r="K59" s="3">
         <v>9976900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8748400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9038500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9903900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11191000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11075700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16957300</v>
+        <v>16440500</v>
       </c>
       <c r="E60" s="3">
-        <v>15363600</v>
+        <v>17579100</v>
       </c>
       <c r="F60" s="3">
-        <v>15213200</v>
+        <v>15927000</v>
       </c>
       <c r="G60" s="3">
-        <v>12827600</v>
+        <v>15771100</v>
       </c>
       <c r="H60" s="3">
-        <v>13603900</v>
+        <v>13298000</v>
       </c>
       <c r="I60" s="3">
-        <v>12101100</v>
+        <v>14102800</v>
       </c>
       <c r="J60" s="3">
+        <v>12544800</v>
+      </c>
+      <c r="K60" s="3">
         <v>12571800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13230300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13318300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17329100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19169700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19380300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29554100</v>
+        <v>28774400</v>
       </c>
       <c r="E61" s="3">
-        <v>30631300</v>
+        <v>30637900</v>
       </c>
       <c r="F61" s="3">
-        <v>29362700</v>
+        <v>31754600</v>
       </c>
       <c r="G61" s="3">
-        <v>30004400</v>
+        <v>30439400</v>
       </c>
       <c r="H61" s="3">
-        <v>28476800</v>
+        <v>31104800</v>
       </c>
       <c r="I61" s="3">
-        <v>31065500</v>
+        <v>29521100</v>
       </c>
       <c r="J61" s="3">
+        <v>32204700</v>
+      </c>
+      <c r="K61" s="3">
         <v>32707700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32740000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36078700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38335700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39702200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41997600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9324900</v>
+        <v>8647400</v>
       </c>
       <c r="E62" s="3">
-        <v>8938700</v>
+        <v>9666900</v>
       </c>
       <c r="F62" s="3">
-        <v>8560100</v>
+        <v>9266500</v>
       </c>
       <c r="G62" s="3">
-        <v>9397800</v>
+        <v>8874000</v>
       </c>
       <c r="H62" s="3">
-        <v>9221900</v>
+        <v>9742500</v>
       </c>
       <c r="I62" s="3">
-        <v>9431300</v>
+        <v>9560100</v>
       </c>
       <c r="J62" s="3">
+        <v>9777100</v>
+      </c>
+      <c r="K62" s="3">
         <v>9562400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10080000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10961800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11919100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12432900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12916700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,52 +3167,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55840300</v>
+        <v>53866100</v>
       </c>
       <c r="E66" s="3">
-        <v>54937500</v>
+        <v>57888000</v>
       </c>
       <c r="F66" s="3">
-        <v>53139500</v>
+        <v>56952200</v>
       </c>
       <c r="G66" s="3">
-        <v>52233400</v>
+        <v>55088200</v>
       </c>
       <c r="H66" s="3">
-        <v>51305600</v>
+        <v>54148800</v>
       </c>
       <c r="I66" s="3">
-        <v>52600500</v>
+        <v>53187100</v>
       </c>
       <c r="J66" s="3">
+        <v>54529500</v>
+      </c>
+      <c r="K66" s="3">
         <v>54871300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56080200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60390800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>67618100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71340000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74332300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,52 +3421,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10849100</v>
+        <v>11081700</v>
       </c>
       <c r="E72" s="3">
-        <v>10349700</v>
+        <v>11247000</v>
       </c>
       <c r="F72" s="3">
-        <v>10491200</v>
+        <v>10729300</v>
       </c>
       <c r="G72" s="3">
-        <v>10400500</v>
+        <v>10875900</v>
       </c>
       <c r="H72" s="3">
-        <v>10997700</v>
+        <v>10781900</v>
       </c>
       <c r="I72" s="3">
-        <v>10662000</v>
+        <v>11401000</v>
       </c>
       <c r="J72" s="3">
+        <v>11053000</v>
+      </c>
+      <c r="K72" s="3">
         <v>10705200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9577100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10415700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11345400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12069500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12557700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,52 +3609,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47594700</v>
+        <v>45393400</v>
       </c>
       <c r="E76" s="3">
-        <v>44786300</v>
+        <v>49340000</v>
       </c>
       <c r="F76" s="3">
-        <v>40292600</v>
+        <v>46428700</v>
       </c>
       <c r="G76" s="3">
-        <v>37799100</v>
+        <v>41770200</v>
       </c>
       <c r="H76" s="3">
-        <v>37746700</v>
+        <v>39185300</v>
       </c>
       <c r="I76" s="3">
-        <v>37139200</v>
+        <v>39130900</v>
       </c>
       <c r="J76" s="3">
+        <v>38501200</v>
+      </c>
+      <c r="K76" s="3">
         <v>36676800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33977100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36320100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39978100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41613900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>44384600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3703,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>437800</v>
+        <v>875600</v>
       </c>
       <c r="E81" s="3">
-        <v>744500</v>
+        <v>453800</v>
       </c>
       <c r="F81" s="3">
-        <v>-80500</v>
+        <v>771900</v>
       </c>
       <c r="G81" s="3">
-        <v>409600</v>
+        <v>-83500</v>
       </c>
       <c r="H81" s="3">
-        <v>325900</v>
+        <v>424600</v>
       </c>
       <c r="I81" s="3">
-        <v>976200</v>
+        <v>337800</v>
       </c>
       <c r="J81" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1397400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>677000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>703800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-293500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,52 +3823,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1189900</v>
+        <v>1300100</v>
       </c>
       <c r="E83" s="3">
-        <v>1122200</v>
+        <v>1233500</v>
       </c>
       <c r="F83" s="3">
-        <v>1079600</v>
+        <v>1163400</v>
       </c>
       <c r="G83" s="3">
-        <v>1044200</v>
+        <v>1119200</v>
       </c>
       <c r="H83" s="3">
-        <v>997200</v>
+        <v>1082500</v>
       </c>
       <c r="I83" s="3">
-        <v>1013500</v>
+        <v>1033800</v>
       </c>
       <c r="J83" s="3">
+        <v>1050700</v>
+      </c>
+      <c r="K83" s="3">
         <v>988300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1024400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1082400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1207700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1283900</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,52 +4103,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1566800</v>
+        <v>2780000</v>
       </c>
       <c r="E89" s="3">
-        <v>597300</v>
+        <v>1624300</v>
       </c>
       <c r="F89" s="3">
-        <v>2662900</v>
+        <v>619200</v>
       </c>
       <c r="G89" s="3">
-        <v>2463800</v>
+        <v>2760500</v>
       </c>
       <c r="H89" s="3">
-        <v>1653100</v>
+        <v>2554200</v>
       </c>
       <c r="I89" s="3">
-        <v>1183000</v>
+        <v>1713700</v>
       </c>
       <c r="J89" s="3">
+        <v>1226400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2843300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1598600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1915900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1244200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1633700</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,52 +4171,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-207700</v>
+        <v>-246000</v>
       </c>
       <c r="E91" s="3">
-        <v>-298700</v>
+        <v>-215300</v>
       </c>
       <c r="F91" s="3">
-        <v>-252300</v>
+        <v>-309600</v>
       </c>
       <c r="G91" s="3">
-        <v>-191900</v>
+        <v>-261500</v>
       </c>
       <c r="H91" s="3">
-        <v>-218100</v>
+        <v>-199000</v>
       </c>
       <c r="I91" s="3">
-        <v>-211600</v>
+        <v>-226100</v>
       </c>
       <c r="J91" s="3">
+        <v>-219300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-256400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-180000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-213000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-197300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-328100</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,52 +4310,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-192900</v>
+        <v>-343200</v>
       </c>
       <c r="E94" s="3">
-        <v>-671500</v>
+        <v>-200000</v>
       </c>
       <c r="F94" s="3">
-        <v>-181800</v>
+        <v>-696100</v>
       </c>
       <c r="G94" s="3">
-        <v>-490200</v>
+        <v>-188400</v>
       </c>
       <c r="H94" s="3">
-        <v>-233300</v>
+        <v>-508200</v>
       </c>
       <c r="I94" s="3">
-        <v>-499500</v>
+        <v>-241800</v>
       </c>
       <c r="J94" s="3">
+        <v>-517800</v>
+      </c>
+      <c r="K94" s="3">
         <v>2079700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>527600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>214700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>319300</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,52 +4378,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-78900</v>
+        <v>-948100</v>
       </c>
       <c r="E96" s="3">
-        <v>-913700</v>
+        <v>-81800</v>
       </c>
       <c r="F96" s="3">
-        <v>-75400</v>
+        <v>-947200</v>
       </c>
       <c r="G96" s="3">
-        <v>-932000</v>
+        <v>-78200</v>
       </c>
       <c r="H96" s="3">
-        <v>-67600</v>
+        <v>-966200</v>
       </c>
       <c r="I96" s="3">
-        <v>-936100</v>
+        <v>-70100</v>
       </c>
       <c r="J96" s="3">
+        <v>-970400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-61500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-974300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-67300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1135500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-73300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,136 +4564,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-367800</v>
+        <v>-3196900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1529400</v>
+        <v>-381300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1728500</v>
+        <v>-1585500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1191500</v>
+        <v>-1791900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1753800</v>
+        <v>-1235200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2914300</v>
+        <v>-1818100</v>
       </c>
       <c r="J100" s="3">
+        <v>-3021100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2623800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2199500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1756200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1644300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1268000</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>72600</v>
+        <v>-70400</v>
       </c>
       <c r="E101" s="3">
-        <v>159400</v>
+        <v>75200</v>
       </c>
       <c r="F101" s="3">
-        <v>136200</v>
+        <v>165300</v>
       </c>
       <c r="G101" s="3">
-        <v>43600</v>
+        <v>141200</v>
       </c>
       <c r="H101" s="3">
+        <v>45200</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
-        <v>23600</v>
-      </c>
       <c r="J101" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K101" s="3">
         <v>172300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-23700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-54400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-74100</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1078700</v>
+        <v>-830500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1444300</v>
+        <v>1118300</v>
       </c>
       <c r="F102" s="3">
-        <v>888800</v>
+        <v>-1497200</v>
       </c>
       <c r="G102" s="3">
-        <v>825700</v>
+        <v>921400</v>
       </c>
       <c r="H102" s="3">
-        <v>-333500</v>
+        <v>856000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2207100</v>
+        <v>-345700</v>
       </c>
       <c r="J102" s="3">
+        <v>-2288100</v>
+      </c>
+      <c r="K102" s="3">
         <v>2471500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-97000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>320000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-408000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>610800</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,216 +665,228 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8059600</v>
+        <v>6893900</v>
       </c>
       <c r="E8" s="3">
-        <v>7367000</v>
+        <v>7906100</v>
       </c>
       <c r="F8" s="3">
-        <v>7147600</v>
+        <v>7226600</v>
       </c>
       <c r="G8" s="3">
-        <v>6418700</v>
+        <v>7011500</v>
       </c>
       <c r="H8" s="3">
-        <v>6624500</v>
+        <v>6296400</v>
       </c>
       <c r="I8" s="3">
-        <v>6209400</v>
+        <v>6498300</v>
       </c>
       <c r="J8" s="3">
+        <v>6091100</v>
+      </c>
+      <c r="K8" s="3">
         <v>6979600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5461200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6133400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6145800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6839800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6798700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7828400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2469400</v>
+        <v>2233500</v>
       </c>
       <c r="E9" s="3">
-        <v>2245000</v>
+        <v>2422400</v>
       </c>
       <c r="F9" s="3">
-        <v>2152700</v>
+        <v>2202300</v>
       </c>
       <c r="G9" s="3">
-        <v>2266600</v>
+        <v>2111700</v>
       </c>
       <c r="H9" s="3">
-        <v>2068300</v>
+        <v>2223400</v>
       </c>
       <c r="I9" s="3">
-        <v>2027100</v>
+        <v>2028900</v>
       </c>
       <c r="J9" s="3">
+        <v>1988500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1773300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1796900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1855500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1944700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2030800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2186500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2546900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5590200</v>
+        <v>4660400</v>
       </c>
       <c r="E10" s="3">
-        <v>5121900</v>
+        <v>5483800</v>
       </c>
       <c r="F10" s="3">
-        <v>4994900</v>
+        <v>5024400</v>
       </c>
       <c r="G10" s="3">
-        <v>4152100</v>
+        <v>4899800</v>
       </c>
       <c r="H10" s="3">
-        <v>4556200</v>
+        <v>4073000</v>
       </c>
       <c r="I10" s="3">
-        <v>4182300</v>
+        <v>4469400</v>
       </c>
       <c r="J10" s="3">
+        <v>4102600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5206300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3664300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4277900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4201100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4809000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4612200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5281400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,55 +904,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1283500</v>
+        <v>1160400</v>
       </c>
       <c r="E12" s="3">
-        <v>1133000</v>
+        <v>1259100</v>
       </c>
       <c r="F12" s="3">
-        <v>1055500</v>
+        <v>1111400</v>
       </c>
       <c r="G12" s="3">
-        <v>1055700</v>
+        <v>1035400</v>
       </c>
       <c r="H12" s="3">
-        <v>943600</v>
+        <v>1035600</v>
       </c>
       <c r="I12" s="3">
-        <v>967300</v>
+        <v>925600</v>
       </c>
       <c r="J12" s="3">
+        <v>948800</v>
+      </c>
+      <c r="K12" s="3">
         <v>900200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>803200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>861800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>920400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>911200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1227300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1117900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -986,102 +1002,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>109500</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>107400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>243000</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>196700</v>
+        <v>238400</v>
       </c>
       <c r="I14" s="3">
-        <v>205600</v>
+        <v>193000</v>
       </c>
       <c r="J14" s="3">
+        <v>201700</v>
+      </c>
+      <c r="K14" s="3">
         <v>123100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>208700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>152600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>325000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>203900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>996500</v>
+        <v>960500</v>
       </c>
       <c r="E15" s="3">
-        <v>1046400</v>
+        <v>977500</v>
       </c>
       <c r="F15" s="3">
-        <v>964900</v>
+        <v>1026500</v>
       </c>
       <c r="G15" s="3">
-        <v>1097200</v>
+        <v>946500</v>
       </c>
       <c r="H15" s="3">
-        <v>867900</v>
+        <v>1076300</v>
       </c>
       <c r="I15" s="3">
-        <v>755000</v>
+        <v>851400</v>
       </c>
       <c r="J15" s="3">
+        <v>740600</v>
+      </c>
+      <c r="K15" s="3">
         <v>755800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>810300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>729100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>809000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>889300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1112500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>946800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,102 +1121,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6979300</v>
+        <v>6255400</v>
       </c>
       <c r="E17" s="3">
-        <v>6599300</v>
+        <v>6846300</v>
       </c>
       <c r="F17" s="3">
-        <v>6041300</v>
+        <v>6473600</v>
       </c>
       <c r="G17" s="3">
-        <v>6430600</v>
+        <v>5926300</v>
       </c>
       <c r="H17" s="3">
-        <v>5768400</v>
+        <v>6308100</v>
       </c>
       <c r="I17" s="3">
-        <v>5493300</v>
+        <v>5658500</v>
       </c>
       <c r="J17" s="3">
+        <v>5388700</v>
+      </c>
+      <c r="K17" s="3">
         <v>5152700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4393900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5084200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5769500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5412800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7346100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7340900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1080400</v>
+        <v>638500</v>
       </c>
       <c r="E18" s="3">
-        <v>767600</v>
+        <v>1059800</v>
       </c>
       <c r="F18" s="3">
-        <v>1106300</v>
+        <v>753000</v>
       </c>
       <c r="G18" s="3">
-        <v>-11900</v>
+        <v>1085200</v>
       </c>
       <c r="H18" s="3">
-        <v>856200</v>
+        <v>-11700</v>
       </c>
       <c r="I18" s="3">
-        <v>716100</v>
+        <v>839800</v>
       </c>
       <c r="J18" s="3">
+        <v>702400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1826900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1067300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1049200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>376300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1426900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-547400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>487500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,102 +1241,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-292800</v>
+        <v>-293100</v>
       </c>
       <c r="E20" s="3">
-        <v>-293200</v>
+        <v>-287200</v>
       </c>
       <c r="F20" s="3">
-        <v>36400</v>
+        <v>-287600</v>
       </c>
       <c r="G20" s="3">
-        <v>-385300</v>
+        <v>35700</v>
       </c>
       <c r="H20" s="3">
-        <v>-325500</v>
+        <v>-378000</v>
       </c>
       <c r="I20" s="3">
-        <v>-264500</v>
+        <v>-319300</v>
       </c>
       <c r="J20" s="3">
+        <v>-259400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-188000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-139400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-244400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-413100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-315600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-481300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-261200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2087600</v>
+        <v>1509200</v>
       </c>
       <c r="E21" s="3">
-        <v>1708000</v>
+        <v>2047900</v>
       </c>
       <c r="F21" s="3">
-        <v>2306100</v>
+        <v>1675400</v>
       </c>
       <c r="G21" s="3">
-        <v>722000</v>
+        <v>2262200</v>
       </c>
       <c r="H21" s="3">
-        <v>1613100</v>
+        <v>708200</v>
       </c>
       <c r="I21" s="3">
-        <v>1485400</v>
+        <v>1582400</v>
       </c>
       <c r="J21" s="3">
+        <v>1457100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2689600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1916200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1829200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1045500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2319100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>255200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4215800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,102 +1389,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>787600</v>
+        <v>345500</v>
       </c>
       <c r="E23" s="3">
-        <v>474400</v>
+        <v>772600</v>
       </c>
       <c r="F23" s="3">
-        <v>1142700</v>
+        <v>465400</v>
       </c>
       <c r="G23" s="3">
-        <v>-397200</v>
+        <v>1121000</v>
       </c>
       <c r="H23" s="3">
-        <v>530600</v>
+        <v>-389700</v>
       </c>
       <c r="I23" s="3">
-        <v>451600</v>
+        <v>520500</v>
       </c>
       <c r="J23" s="3">
+        <v>443000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1638900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>927900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>804800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1111400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1028700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>226300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-88200</v>
+        <v>121000</v>
       </c>
       <c r="E24" s="3">
-        <v>20700</v>
+        <v>-86500</v>
       </c>
       <c r="F24" s="3">
-        <v>370800</v>
+        <v>20300</v>
       </c>
       <c r="G24" s="3">
-        <v>-313600</v>
+        <v>363800</v>
       </c>
       <c r="H24" s="3">
-        <v>105600</v>
+        <v>-307700</v>
       </c>
       <c r="I24" s="3">
-        <v>113600</v>
+        <v>103600</v>
       </c>
       <c r="J24" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K24" s="3">
         <v>626600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-469800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>127200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-68600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>407500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1042400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>518800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,102 +1539,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>875700</v>
+        <v>224500</v>
       </c>
       <c r="E26" s="3">
-        <v>453700</v>
+        <v>859100</v>
       </c>
       <c r="F26" s="3">
-        <v>771900</v>
+        <v>445100</v>
       </c>
       <c r="G26" s="3">
-        <v>-83600</v>
+        <v>757200</v>
       </c>
       <c r="H26" s="3">
-        <v>425000</v>
+        <v>-82000</v>
       </c>
       <c r="I26" s="3">
-        <v>338100</v>
+        <v>416900</v>
       </c>
       <c r="J26" s="3">
+        <v>331600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1012300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1397800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>677600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>703900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-292500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>875600</v>
+        <v>224500</v>
       </c>
       <c r="E27" s="3">
-        <v>453800</v>
+        <v>858900</v>
       </c>
       <c r="F27" s="3">
-        <v>771900</v>
+        <v>445200</v>
       </c>
       <c r="G27" s="3">
-        <v>-83500</v>
+        <v>757200</v>
       </c>
       <c r="H27" s="3">
-        <v>424600</v>
+        <v>-81900</v>
       </c>
       <c r="I27" s="3">
-        <v>337800</v>
+        <v>416500</v>
       </c>
       <c r="J27" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1012000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1397400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>677000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>703800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-293500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,102 +1839,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>292800</v>
+        <v>293100</v>
       </c>
       <c r="E32" s="3">
-        <v>293200</v>
+        <v>287200</v>
       </c>
       <c r="F32" s="3">
-        <v>-36400</v>
+        <v>287600</v>
       </c>
       <c r="G32" s="3">
-        <v>385300</v>
+        <v>-35700</v>
       </c>
       <c r="H32" s="3">
-        <v>325500</v>
+        <v>378000</v>
       </c>
       <c r="I32" s="3">
-        <v>264500</v>
+        <v>319300</v>
       </c>
       <c r="J32" s="3">
+        <v>259400</v>
+      </c>
+      <c r="K32" s="3">
         <v>188000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>139400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>244400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>413100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>315600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>481300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>261200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>875600</v>
+        <v>224500</v>
       </c>
       <c r="E33" s="3">
-        <v>453800</v>
+        <v>858900</v>
       </c>
       <c r="F33" s="3">
-        <v>771900</v>
+        <v>445200</v>
       </c>
       <c r="G33" s="3">
-        <v>-83500</v>
+        <v>757200</v>
       </c>
       <c r="H33" s="3">
-        <v>424600</v>
+        <v>-81900</v>
       </c>
       <c r="I33" s="3">
-        <v>337800</v>
+        <v>416500</v>
       </c>
       <c r="J33" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1012000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1397400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>677000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>703800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-293500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,107 +1989,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>875600</v>
+        <v>224500</v>
       </c>
       <c r="E35" s="3">
-        <v>453800</v>
+        <v>858900</v>
       </c>
       <c r="F35" s="3">
-        <v>771900</v>
+        <v>445200</v>
       </c>
       <c r="G35" s="3">
-        <v>-83500</v>
+        <v>757200</v>
       </c>
       <c r="H35" s="3">
-        <v>424600</v>
+        <v>-81900</v>
       </c>
       <c r="I35" s="3">
-        <v>337800</v>
+        <v>416500</v>
       </c>
       <c r="J35" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1012000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1397400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>677000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>703800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-293500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,431 +2136,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5035800</v>
+        <v>3846800</v>
       </c>
       <c r="E41" s="3">
-        <v>5866300</v>
+        <v>4939900</v>
       </c>
       <c r="F41" s="3">
-        <v>4748000</v>
+        <v>5754600</v>
       </c>
       <c r="G41" s="3">
-        <v>6245300</v>
+        <v>4657600</v>
       </c>
       <c r="H41" s="3">
-        <v>5323900</v>
+        <v>6126300</v>
       </c>
       <c r="I41" s="3">
-        <v>4467900</v>
+        <v>5222500</v>
       </c>
       <c r="J41" s="3">
+        <v>4382800</v>
+      </c>
+      <c r="K41" s="3">
         <v>4813700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6850500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4527300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4914500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5030900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5617400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5177000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>304800</v>
+        <v>145500</v>
       </c>
       <c r="E42" s="3">
-        <v>234700</v>
+        <v>299000</v>
       </c>
       <c r="F42" s="3">
-        <v>136300</v>
+        <v>230200</v>
       </c>
       <c r="G42" s="3">
-        <v>186000</v>
+        <v>133700</v>
       </c>
       <c r="H42" s="3">
-        <v>202500</v>
+        <v>182400</v>
       </c>
       <c r="I42" s="3">
-        <v>189200</v>
+        <v>198700</v>
       </c>
       <c r="J42" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K42" s="3">
         <v>220000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>259500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>268700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>119300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>95000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>139400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>183500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5732100</v>
+        <v>4915000</v>
       </c>
       <c r="E43" s="3">
-        <v>5883900</v>
+        <v>5622900</v>
       </c>
       <c r="F43" s="3">
-        <v>5836600</v>
+        <v>5771900</v>
       </c>
       <c r="G43" s="3">
-        <v>5324200</v>
+        <v>5725400</v>
       </c>
       <c r="H43" s="3">
-        <v>5557500</v>
+        <v>5222800</v>
       </c>
       <c r="I43" s="3">
-        <v>6521600</v>
+        <v>5451600</v>
       </c>
       <c r="J43" s="3">
+        <v>6397400</v>
+      </c>
+      <c r="K43" s="3">
         <v>6313300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5762100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6076100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5996800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6954300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6915200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7762900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6815600</v>
+        <v>7112400</v>
       </c>
       <c r="E44" s="3">
-        <v>7007900</v>
+        <v>6685700</v>
       </c>
       <c r="F44" s="3">
-        <v>6817200</v>
+        <v>6874400</v>
       </c>
       <c r="G44" s="3">
-        <v>6270800</v>
+        <v>6687400</v>
       </c>
       <c r="H44" s="3">
-        <v>5963200</v>
+        <v>6151300</v>
       </c>
       <c r="I44" s="3">
-        <v>5758500</v>
+        <v>5849600</v>
       </c>
       <c r="J44" s="3">
+        <v>5648900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5726700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5345000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5419500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5791700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6477500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6692100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7300200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1192000</v>
+        <v>1269700</v>
       </c>
       <c r="E45" s="3">
-        <v>1187500</v>
+        <v>1169300</v>
       </c>
       <c r="F45" s="3">
-        <v>1200800</v>
+        <v>1164900</v>
       </c>
       <c r="G45" s="3">
-        <v>1037100</v>
+        <v>1178000</v>
       </c>
       <c r="H45" s="3">
-        <v>1165400</v>
+        <v>1017300</v>
       </c>
       <c r="I45" s="3">
-        <v>1116900</v>
+        <v>1143200</v>
       </c>
       <c r="J45" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1128200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1017300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2888100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3315900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2552100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2391700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2536500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19080200</v>
+        <v>17289300</v>
       </c>
       <c r="E46" s="3">
-        <v>20180300</v>
+        <v>18716800</v>
       </c>
       <c r="F46" s="3">
-        <v>18738900</v>
+        <v>19795900</v>
       </c>
       <c r="G46" s="3">
-        <v>19063300</v>
+        <v>18382000</v>
       </c>
       <c r="H46" s="3">
-        <v>18212500</v>
+        <v>18700200</v>
       </c>
       <c r="I46" s="3">
-        <v>18054200</v>
+        <v>17865600</v>
       </c>
       <c r="J46" s="3">
+        <v>17710300</v>
+      </c>
+      <c r="K46" s="3">
         <v>18202000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19234400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19179700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20138200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21109700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21755700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22960200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2715600</v>
+        <v>2731600</v>
       </c>
       <c r="E47" s="3">
-        <v>3129400</v>
+        <v>2663900</v>
       </c>
       <c r="F47" s="3">
-        <v>2804800</v>
+        <v>3069800</v>
       </c>
       <c r="G47" s="3">
-        <v>2426500</v>
+        <v>2751400</v>
       </c>
       <c r="H47" s="3">
-        <v>2460900</v>
+        <v>2380300</v>
       </c>
       <c r="I47" s="3">
-        <v>2587900</v>
+        <v>2414000</v>
       </c>
       <c r="J47" s="3">
+        <v>2538600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2753700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2469800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2756500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2723400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2871500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3254900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3594200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12174700</v>
+        <v>12193800</v>
       </c>
       <c r="E48" s="3">
-        <v>12938400</v>
+        <v>11942800</v>
       </c>
       <c r="F48" s="3">
-        <v>12534400</v>
+        <v>12692000</v>
       </c>
       <c r="G48" s="3">
-        <v>11633600</v>
+        <v>12295700</v>
       </c>
       <c r="H48" s="3">
-        <v>10977900</v>
+        <v>11412000</v>
       </c>
       <c r="I48" s="3">
-        <v>10730400</v>
+        <v>10768800</v>
       </c>
       <c r="J48" s="3">
+        <v>10526000</v>
+      </c>
+      <c r="K48" s="3">
         <v>10673500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10308300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9991800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10648500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11653500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12213900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13381200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62156800</v>
+        <v>65325300</v>
       </c>
       <c r="E49" s="3">
-        <v>67485400</v>
+        <v>60972900</v>
       </c>
       <c r="F49" s="3">
-        <v>65846400</v>
+        <v>66200000</v>
       </c>
       <c r="G49" s="3">
-        <v>60463300</v>
+        <v>64592200</v>
       </c>
       <c r="H49" s="3">
-        <v>58505000</v>
+        <v>59311600</v>
       </c>
       <c r="I49" s="3">
-        <v>57786000</v>
+        <v>57390600</v>
       </c>
       <c r="J49" s="3">
+        <v>56685400</v>
+      </c>
+      <c r="K49" s="3">
         <v>58177900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56316000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55572600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>60251000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>68474000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>72100100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>76638300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,55 +2684,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3132300</v>
+        <v>3095500</v>
       </c>
       <c r="E52" s="3">
-        <v>3494600</v>
+        <v>3072700</v>
       </c>
       <c r="F52" s="3">
-        <v>3456200</v>
+        <v>3428000</v>
       </c>
       <c r="G52" s="3">
-        <v>3271900</v>
+        <v>3390400</v>
       </c>
       <c r="H52" s="3">
-        <v>3177800</v>
+        <v>3209500</v>
       </c>
       <c r="I52" s="3">
-        <v>3159500</v>
+        <v>3117300</v>
       </c>
       <c r="J52" s="3">
+        <v>3099300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3223500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3219600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2556900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2949700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3487500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3629300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2143100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,55 +2784,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>99259600</v>
+        <v>100635400</v>
       </c>
       <c r="E54" s="3">
-        <v>107228000</v>
+        <v>97368900</v>
       </c>
       <c r="F54" s="3">
-        <v>103380900</v>
+        <v>105185600</v>
       </c>
       <c r="G54" s="3">
-        <v>96858400</v>
+        <v>101411700</v>
       </c>
       <c r="H54" s="3">
-        <v>93334100</v>
+        <v>95013500</v>
       </c>
       <c r="I54" s="3">
-        <v>92318000</v>
+        <v>91556300</v>
       </c>
       <c r="J54" s="3">
+        <v>90559600</v>
+      </c>
+      <c r="K54" s="3">
         <v>93030700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91548200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>90057400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96710900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>107596200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112953800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118716900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,290 +2876,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2801200</v>
+        <v>4681000</v>
       </c>
       <c r="E57" s="3">
-        <v>2856300</v>
+        <v>2747800</v>
       </c>
       <c r="F57" s="3">
-        <v>3119000</v>
+        <v>2801900</v>
       </c>
       <c r="G57" s="3">
-        <v>3794800</v>
+        <v>3059600</v>
       </c>
       <c r="H57" s="3">
-        <v>2581200</v>
+        <v>3722500</v>
       </c>
       <c r="I57" s="3">
-        <v>2474000</v>
+        <v>2532000</v>
       </c>
       <c r="J57" s="3">
+        <v>2426900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2356700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2437800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2396700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2124900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2471500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2808800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2732000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2734300</v>
+        <v>2448500</v>
       </c>
       <c r="E58" s="3">
-        <v>4176500</v>
+        <v>2682300</v>
       </c>
       <c r="F58" s="3">
-        <v>2071900</v>
+        <v>4096900</v>
       </c>
       <c r="G58" s="3">
-        <v>1499300</v>
+        <v>2032500</v>
       </c>
       <c r="H58" s="3">
-        <v>903600</v>
+        <v>1470800</v>
       </c>
       <c r="I58" s="3">
-        <v>1579400</v>
+        <v>886400</v>
       </c>
       <c r="J58" s="3">
+        <v>1549300</v>
+      </c>
+      <c r="K58" s="3">
         <v>178400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>157100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2085200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2154800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4953600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5169900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5572600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10905100</v>
+        <v>10765300</v>
       </c>
       <c r="E59" s="3">
-        <v>10546300</v>
+        <v>10697300</v>
       </c>
       <c r="F59" s="3">
-        <v>10736000</v>
+        <v>10345500</v>
       </c>
       <c r="G59" s="3">
-        <v>10477000</v>
+        <v>10531600</v>
       </c>
       <c r="H59" s="3">
-        <v>9813200</v>
+        <v>10277400</v>
       </c>
       <c r="I59" s="3">
-        <v>10049400</v>
+        <v>9626300</v>
       </c>
       <c r="J59" s="3">
+        <v>9858000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10009700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9976900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8748400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9038500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9903900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11191000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11075700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16440500</v>
+        <v>17894800</v>
       </c>
       <c r="E60" s="3">
-        <v>17579100</v>
+        <v>16127400</v>
       </c>
       <c r="F60" s="3">
-        <v>15927000</v>
+        <v>17244300</v>
       </c>
       <c r="G60" s="3">
-        <v>15771100</v>
+        <v>15623700</v>
       </c>
       <c r="H60" s="3">
-        <v>13298000</v>
+        <v>15470700</v>
       </c>
       <c r="I60" s="3">
-        <v>14102800</v>
+        <v>13044700</v>
       </c>
       <c r="J60" s="3">
+        <v>13834200</v>
+      </c>
+      <c r="K60" s="3">
         <v>12544800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12571800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13230300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13318300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17329100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19169700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19380300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28774400</v>
+        <v>29148200</v>
       </c>
       <c r="E61" s="3">
-        <v>30637900</v>
+        <v>28226300</v>
       </c>
       <c r="F61" s="3">
-        <v>31754600</v>
+        <v>30054300</v>
       </c>
       <c r="G61" s="3">
-        <v>30439400</v>
+        <v>31149800</v>
       </c>
       <c r="H61" s="3">
-        <v>31104800</v>
+        <v>29859600</v>
       </c>
       <c r="I61" s="3">
-        <v>29521100</v>
+        <v>30512300</v>
       </c>
       <c r="J61" s="3">
+        <v>28958800</v>
+      </c>
+      <c r="K61" s="3">
         <v>32204700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32707700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32740000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36078700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38335700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39702200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>41997600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8647400</v>
+        <v>7775200</v>
       </c>
       <c r="E62" s="3">
-        <v>9666900</v>
+        <v>8482700</v>
       </c>
       <c r="F62" s="3">
-        <v>9266500</v>
+        <v>9482700</v>
       </c>
       <c r="G62" s="3">
-        <v>8874000</v>
+        <v>9090000</v>
       </c>
       <c r="H62" s="3">
-        <v>9742500</v>
+        <v>8705000</v>
       </c>
       <c r="I62" s="3">
-        <v>9560100</v>
+        <v>9556900</v>
       </c>
       <c r="J62" s="3">
+        <v>9378000</v>
+      </c>
+      <c r="K62" s="3">
         <v>9777100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9562400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10080000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10961800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11919100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12432900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12916700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,55 +3324,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53866100</v>
+        <v>54822200</v>
       </c>
       <c r="E66" s="3">
-        <v>57888000</v>
+        <v>52840100</v>
       </c>
       <c r="F66" s="3">
-        <v>56952200</v>
+        <v>56785400</v>
       </c>
       <c r="G66" s="3">
-        <v>55088200</v>
+        <v>55867400</v>
       </c>
       <c r="H66" s="3">
-        <v>54148800</v>
+        <v>54038900</v>
       </c>
       <c r="I66" s="3">
-        <v>53187100</v>
+        <v>53117400</v>
       </c>
       <c r="J66" s="3">
+        <v>52174000</v>
+      </c>
+      <c r="K66" s="3">
         <v>54529500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54871300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56080200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60390800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>67618100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>71340000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74332300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,55 +3594,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11081700</v>
+        <v>11111700</v>
       </c>
       <c r="E72" s="3">
-        <v>11247000</v>
+        <v>10870700</v>
       </c>
       <c r="F72" s="3">
-        <v>10729300</v>
+        <v>11032700</v>
       </c>
       <c r="G72" s="3">
-        <v>10875900</v>
+        <v>10524900</v>
       </c>
       <c r="H72" s="3">
-        <v>10781900</v>
+        <v>10668800</v>
       </c>
       <c r="I72" s="3">
-        <v>11401000</v>
+        <v>10576500</v>
       </c>
       <c r="J72" s="3">
+        <v>11183800</v>
+      </c>
+      <c r="K72" s="3">
         <v>11053000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10705200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9577100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10415700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11345400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12069500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12557700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,55 +3794,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45393400</v>
+        <v>45813200</v>
       </c>
       <c r="E76" s="3">
-        <v>49340000</v>
+        <v>44528800</v>
       </c>
       <c r="F76" s="3">
-        <v>46428700</v>
+        <v>48400200</v>
       </c>
       <c r="G76" s="3">
-        <v>41770200</v>
+        <v>45544400</v>
       </c>
       <c r="H76" s="3">
-        <v>39185300</v>
+        <v>40974600</v>
       </c>
       <c r="I76" s="3">
-        <v>39130900</v>
+        <v>38438900</v>
       </c>
       <c r="J76" s="3">
+        <v>38385600</v>
+      </c>
+      <c r="K76" s="3">
         <v>38501200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36676800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33977100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36320100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39978100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41613900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44384600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,107 +3894,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>875600</v>
+        <v>224500</v>
       </c>
       <c r="E81" s="3">
-        <v>453800</v>
+        <v>858900</v>
       </c>
       <c r="F81" s="3">
-        <v>771900</v>
+        <v>445200</v>
       </c>
       <c r="G81" s="3">
-        <v>-83500</v>
+        <v>757200</v>
       </c>
       <c r="H81" s="3">
-        <v>424600</v>
+        <v>-81900</v>
       </c>
       <c r="I81" s="3">
-        <v>337800</v>
+        <v>416500</v>
       </c>
       <c r="J81" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1012000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1397400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>677000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>703800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-293500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,55 +4021,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1300100</v>
+        <v>1163800</v>
       </c>
       <c r="E83" s="3">
-        <v>1233500</v>
+        <v>1275300</v>
       </c>
       <c r="F83" s="3">
-        <v>1163400</v>
+        <v>1210000</v>
       </c>
       <c r="G83" s="3">
-        <v>1119200</v>
+        <v>1141200</v>
       </c>
       <c r="H83" s="3">
-        <v>1082500</v>
+        <v>1097900</v>
       </c>
       <c r="I83" s="3">
-        <v>1033800</v>
+        <v>1061900</v>
       </c>
       <c r="J83" s="3">
+        <v>1014100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1050700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>988300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1024400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1082400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1207700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1283900</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,55 +4319,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2780000</v>
+        <v>2117500</v>
       </c>
       <c r="E89" s="3">
-        <v>1624300</v>
+        <v>2727000</v>
       </c>
       <c r="F89" s="3">
-        <v>619200</v>
+        <v>1593400</v>
       </c>
       <c r="G89" s="3">
-        <v>2760500</v>
+        <v>607400</v>
       </c>
       <c r="H89" s="3">
-        <v>2554200</v>
+        <v>2708000</v>
       </c>
       <c r="I89" s="3">
-        <v>1713700</v>
+        <v>2505500</v>
       </c>
       <c r="J89" s="3">
+        <v>1681000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1226400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2843300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1598600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1915900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1244200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1633700</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,55 +4391,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246000</v>
+        <v>-444080000</v>
       </c>
       <c r="E91" s="3">
-        <v>-215300</v>
+        <v>-50624000</v>
       </c>
       <c r="F91" s="3">
-        <v>-309600</v>
+        <v>-40609000</v>
       </c>
       <c r="G91" s="3">
-        <v>-261500</v>
+        <v>-98376000</v>
       </c>
       <c r="H91" s="3">
-        <v>-199000</v>
+        <v>-51823000</v>
       </c>
       <c r="I91" s="3">
-        <v>-226100</v>
+        <v>-48431000</v>
       </c>
       <c r="J91" s="3">
+        <v>-43491000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-219300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-256400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-180000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-213000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-197300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-328100</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,55 +4539,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-343200</v>
+        <v>-3161500</v>
       </c>
       <c r="E94" s="3">
-        <v>-200000</v>
+        <v>-336600</v>
       </c>
       <c r="F94" s="3">
-        <v>-696100</v>
+        <v>-196200</v>
       </c>
       <c r="G94" s="3">
-        <v>-188400</v>
+        <v>-682900</v>
       </c>
       <c r="H94" s="3">
-        <v>-508200</v>
+        <v>-184800</v>
       </c>
       <c r="I94" s="3">
-        <v>-241800</v>
+        <v>-498500</v>
       </c>
       <c r="J94" s="3">
+        <v>-237200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-517800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2079700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>527600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>214700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>319300</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,55 +4611,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-948100</v>
+        <v>-75100</v>
       </c>
       <c r="E96" s="3">
-        <v>-81800</v>
+        <v>-930000</v>
       </c>
       <c r="F96" s="3">
-        <v>-947200</v>
+        <v>-80300</v>
       </c>
       <c r="G96" s="3">
-        <v>-78200</v>
+        <v>-929200</v>
       </c>
       <c r="H96" s="3">
-        <v>-966200</v>
+        <v>-76700</v>
       </c>
       <c r="I96" s="3">
-        <v>-70100</v>
+        <v>-947800</v>
       </c>
       <c r="J96" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-970400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-61500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-974300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-67300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1135500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-73300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,145 +4809,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3196900</v>
+        <v>-47600</v>
       </c>
       <c r="E100" s="3">
-        <v>-381300</v>
+        <v>-3136000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1585500</v>
+        <v>-374000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1791900</v>
+        <v>-1555300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1235200</v>
+        <v>-1757800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1818100</v>
+        <v>-1211700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1783500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3021100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2623800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2199500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1756200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1644300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1268000</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-70400</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3">
-        <v>75200</v>
+        <v>-69100</v>
       </c>
       <c r="F101" s="3">
-        <v>165300</v>
+        <v>73800</v>
       </c>
       <c r="G101" s="3">
-        <v>141200</v>
+        <v>162100</v>
       </c>
       <c r="H101" s="3">
-        <v>45200</v>
+        <v>138500</v>
       </c>
       <c r="I101" s="3">
+        <v>44300</v>
+      </c>
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>24400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>172300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-23700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-54400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-74100</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-830500</v>
+        <v>-1093100</v>
       </c>
       <c r="E102" s="3">
-        <v>1118300</v>
+        <v>-814700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1497200</v>
+        <v>1097000</v>
       </c>
       <c r="G102" s="3">
-        <v>921400</v>
+        <v>-1468700</v>
       </c>
       <c r="H102" s="3">
-        <v>856000</v>
+        <v>903800</v>
       </c>
       <c r="I102" s="3">
-        <v>-345700</v>
+        <v>839700</v>
       </c>
       <c r="J102" s="3">
+        <v>-339200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2288100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2471500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-97000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>320000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-408000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>610800</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,240 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6893900</v>
+        <v>7272700</v>
       </c>
       <c r="E8" s="3">
-        <v>7906100</v>
+        <v>6568800</v>
       </c>
       <c r="F8" s="3">
-        <v>7226600</v>
+        <v>7533300</v>
       </c>
       <c r="G8" s="3">
-        <v>7011500</v>
+        <v>6885800</v>
       </c>
       <c r="H8" s="3">
-        <v>6296400</v>
+        <v>6680800</v>
       </c>
       <c r="I8" s="3">
-        <v>6498300</v>
+        <v>5999500</v>
       </c>
       <c r="J8" s="3">
+        <v>6191900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6091100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6979600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5461200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6133400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6145800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6839800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6798700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7828400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2233500</v>
+        <v>2206100</v>
       </c>
       <c r="E9" s="3">
-        <v>2422400</v>
+        <v>2128100</v>
       </c>
       <c r="F9" s="3">
-        <v>2202300</v>
+        <v>2308100</v>
       </c>
       <c r="G9" s="3">
-        <v>2111700</v>
+        <v>2098400</v>
       </c>
       <c r="H9" s="3">
-        <v>2223400</v>
+        <v>2012100</v>
       </c>
       <c r="I9" s="3">
-        <v>2028900</v>
+        <v>2118600</v>
       </c>
       <c r="J9" s="3">
+        <v>1933200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1988500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1773300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1796900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1855500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1944700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2030800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2186500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2546900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4660400</v>
+        <v>5066700</v>
       </c>
       <c r="E10" s="3">
-        <v>5483800</v>
+        <v>4440700</v>
       </c>
       <c r="F10" s="3">
-        <v>5024400</v>
+        <v>5225200</v>
       </c>
       <c r="G10" s="3">
-        <v>4899800</v>
+        <v>4787400</v>
       </c>
       <c r="H10" s="3">
-        <v>4073000</v>
+        <v>4668700</v>
       </c>
       <c r="I10" s="3">
-        <v>4469400</v>
+        <v>3880900</v>
       </c>
       <c r="J10" s="3">
+        <v>4258600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4102600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5206300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3664300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4277900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4201100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4809000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4612200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5281400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +917,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1160400</v>
+        <v>1118000</v>
       </c>
       <c r="E12" s="3">
-        <v>1259100</v>
+        <v>1105700</v>
       </c>
       <c r="F12" s="3">
-        <v>1111400</v>
+        <v>1199700</v>
       </c>
       <c r="G12" s="3">
-        <v>1035400</v>
+        <v>1059000</v>
       </c>
       <c r="H12" s="3">
-        <v>1035600</v>
+        <v>986600</v>
       </c>
       <c r="I12" s="3">
-        <v>925600</v>
+        <v>986700</v>
       </c>
       <c r="J12" s="3">
+        <v>882000</v>
+      </c>
+      <c r="K12" s="3">
         <v>948800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>803200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>861800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>920400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>911200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1227300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1117900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1021,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,99 +1033,105 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>107400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>77200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>102300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>238400</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>193000</v>
+        <v>227100</v>
       </c>
       <c r="J14" s="3">
+        <v>183900</v>
+      </c>
+      <c r="K14" s="3">
         <v>201700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>123100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>208700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>152600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>325000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>203900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>960500</v>
+        <v>889100</v>
       </c>
       <c r="E15" s="3">
-        <v>977500</v>
+        <v>915200</v>
       </c>
       <c r="F15" s="3">
-        <v>1026500</v>
+        <v>931400</v>
       </c>
       <c r="G15" s="3">
-        <v>946500</v>
+        <v>978100</v>
       </c>
       <c r="H15" s="3">
-        <v>1076300</v>
+        <v>901900</v>
       </c>
       <c r="I15" s="3">
-        <v>851400</v>
+        <v>1025600</v>
       </c>
       <c r="J15" s="3">
+        <v>811300</v>
+      </c>
+      <c r="K15" s="3">
         <v>740600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>755800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>810300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>729100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>809000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>889300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1112500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>946800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1147,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6255400</v>
+        <v>6114600</v>
       </c>
       <c r="E17" s="3">
-        <v>6846300</v>
+        <v>5960400</v>
       </c>
       <c r="F17" s="3">
-        <v>6473600</v>
+        <v>6523500</v>
       </c>
       <c r="G17" s="3">
-        <v>5926300</v>
+        <v>6168400</v>
       </c>
       <c r="H17" s="3">
-        <v>6308100</v>
+        <v>5646800</v>
       </c>
       <c r="I17" s="3">
-        <v>5658500</v>
+        <v>6010600</v>
       </c>
       <c r="J17" s="3">
+        <v>5391600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5388700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5152700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4393900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5084200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5769500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5412800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7346100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7340900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>638500</v>
+        <v>1158100</v>
       </c>
       <c r="E18" s="3">
-        <v>1059800</v>
+        <v>608400</v>
       </c>
       <c r="F18" s="3">
-        <v>753000</v>
+        <v>1009800</v>
       </c>
       <c r="G18" s="3">
-        <v>1085200</v>
+        <v>717500</v>
       </c>
       <c r="H18" s="3">
-        <v>-11700</v>
+        <v>1034000</v>
       </c>
       <c r="I18" s="3">
-        <v>839800</v>
+        <v>-11100</v>
       </c>
       <c r="J18" s="3">
+        <v>800200</v>
+      </c>
+      <c r="K18" s="3">
         <v>702400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1826900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1067300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1049200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>376300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1426900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-547400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>487500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,108 +1274,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-293100</v>
+        <v>-230400</v>
       </c>
       <c r="E20" s="3">
-        <v>-287200</v>
+        <v>-279200</v>
       </c>
       <c r="F20" s="3">
-        <v>-287600</v>
+        <v>-273700</v>
       </c>
       <c r="G20" s="3">
-        <v>35700</v>
+        <v>-274000</v>
       </c>
       <c r="H20" s="3">
-        <v>-378000</v>
+        <v>34100</v>
       </c>
       <c r="I20" s="3">
-        <v>-319300</v>
+        <v>-360200</v>
       </c>
       <c r="J20" s="3">
+        <v>-304300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-259400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-188000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-139400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-244400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-413100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-315600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-481300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-261200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1509200</v>
+        <v>2105900</v>
       </c>
       <c r="E21" s="3">
-        <v>2047900</v>
+        <v>1438100</v>
       </c>
       <c r="F21" s="3">
-        <v>1675400</v>
+        <v>1951300</v>
       </c>
       <c r="G21" s="3">
-        <v>2262200</v>
+        <v>1596400</v>
       </c>
       <c r="H21" s="3">
-        <v>708200</v>
+        <v>2155500</v>
       </c>
       <c r="I21" s="3">
-        <v>1582400</v>
+        <v>674800</v>
       </c>
       <c r="J21" s="3">
+        <v>1507800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1457100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2689600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1916200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1829200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1045500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2319100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>255200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4215800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,108 +1431,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>345500</v>
+        <v>927700</v>
       </c>
       <c r="E23" s="3">
-        <v>772600</v>
+        <v>329200</v>
       </c>
       <c r="F23" s="3">
-        <v>465400</v>
+        <v>736100</v>
       </c>
       <c r="G23" s="3">
-        <v>1121000</v>
+        <v>443500</v>
       </c>
       <c r="H23" s="3">
-        <v>-389700</v>
+        <v>1068100</v>
       </c>
       <c r="I23" s="3">
-        <v>520500</v>
+        <v>-371300</v>
       </c>
       <c r="J23" s="3">
+        <v>496000</v>
+      </c>
+      <c r="K23" s="3">
         <v>443000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1638900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>927900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>804800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1111400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1028700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>226300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>121000</v>
+        <v>313500</v>
       </c>
       <c r="E24" s="3">
-        <v>-86500</v>
+        <v>115300</v>
       </c>
       <c r="F24" s="3">
-        <v>20300</v>
+        <v>-82400</v>
       </c>
       <c r="G24" s="3">
-        <v>363800</v>
+        <v>19400</v>
       </c>
       <c r="H24" s="3">
-        <v>-307700</v>
+        <v>346600</v>
       </c>
       <c r="I24" s="3">
-        <v>103600</v>
+        <v>-293200</v>
       </c>
       <c r="J24" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K24" s="3">
         <v>111400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>626600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-469800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>127200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-68600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>407500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1042400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>518800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1590,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>224500</v>
+        <v>614200</v>
       </c>
       <c r="E26" s="3">
-        <v>859100</v>
+        <v>213900</v>
       </c>
       <c r="F26" s="3">
-        <v>445100</v>
+        <v>818600</v>
       </c>
       <c r="G26" s="3">
-        <v>757200</v>
+        <v>424100</v>
       </c>
       <c r="H26" s="3">
-        <v>-82000</v>
+        <v>721500</v>
       </c>
       <c r="I26" s="3">
-        <v>416900</v>
+        <v>-78100</v>
       </c>
       <c r="J26" s="3">
+        <v>397200</v>
+      </c>
+      <c r="K26" s="3">
         <v>331600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1012300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1397800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>677600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>703900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-292500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>224500</v>
+        <v>614100</v>
       </c>
       <c r="E27" s="3">
-        <v>858900</v>
+        <v>213900</v>
       </c>
       <c r="F27" s="3">
-        <v>445200</v>
+        <v>818400</v>
       </c>
       <c r="G27" s="3">
-        <v>757200</v>
+        <v>424200</v>
       </c>
       <c r="H27" s="3">
-        <v>-81900</v>
+        <v>721400</v>
       </c>
       <c r="I27" s="3">
-        <v>416500</v>
+        <v>-78000</v>
       </c>
       <c r="J27" s="3">
+        <v>396900</v>
+      </c>
+      <c r="K27" s="3">
         <v>331400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1012000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1397400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>677000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>703800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-293500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1908,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>293100</v>
+        <v>230400</v>
       </c>
       <c r="E32" s="3">
-        <v>287200</v>
+        <v>279200</v>
       </c>
       <c r="F32" s="3">
-        <v>287600</v>
+        <v>273700</v>
       </c>
       <c r="G32" s="3">
-        <v>-35700</v>
+        <v>274000</v>
       </c>
       <c r="H32" s="3">
-        <v>378000</v>
+        <v>-34100</v>
       </c>
       <c r="I32" s="3">
-        <v>319300</v>
+        <v>360200</v>
       </c>
       <c r="J32" s="3">
+        <v>304300</v>
+      </c>
+      <c r="K32" s="3">
         <v>259400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>188000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>139400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>244400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>413100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>315600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>481300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>261200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>224500</v>
+        <v>614100</v>
       </c>
       <c r="E33" s="3">
-        <v>858900</v>
+        <v>213900</v>
       </c>
       <c r="F33" s="3">
-        <v>445200</v>
+        <v>818400</v>
       </c>
       <c r="G33" s="3">
-        <v>757200</v>
+        <v>424200</v>
       </c>
       <c r="H33" s="3">
-        <v>-81900</v>
+        <v>721400</v>
       </c>
       <c r="I33" s="3">
-        <v>416500</v>
+        <v>-78000</v>
       </c>
       <c r="J33" s="3">
+        <v>396900</v>
+      </c>
+      <c r="K33" s="3">
         <v>331400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1012000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1397400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>677000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>703800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-293500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2067,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>224500</v>
+        <v>614100</v>
       </c>
       <c r="E35" s="3">
-        <v>858900</v>
+        <v>213900</v>
       </c>
       <c r="F35" s="3">
-        <v>445200</v>
+        <v>818400</v>
       </c>
       <c r="G35" s="3">
-        <v>757200</v>
+        <v>424200</v>
       </c>
       <c r="H35" s="3">
-        <v>-81900</v>
+        <v>721400</v>
       </c>
       <c r="I35" s="3">
-        <v>416500</v>
+        <v>-78000</v>
       </c>
       <c r="J35" s="3">
+        <v>396900</v>
+      </c>
+      <c r="K35" s="3">
         <v>331400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1012000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1397400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>677000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>703800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-293500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,458 +2222,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3846800</v>
+        <v>2173500</v>
       </c>
       <c r="E41" s="3">
-        <v>4939900</v>
+        <v>1577100</v>
       </c>
       <c r="F41" s="3">
-        <v>5754600</v>
+        <v>4706900</v>
       </c>
       <c r="G41" s="3">
-        <v>4657600</v>
+        <v>5483200</v>
       </c>
       <c r="H41" s="3">
-        <v>6126300</v>
+        <v>4438000</v>
       </c>
       <c r="I41" s="3">
-        <v>5222500</v>
+        <v>5837400</v>
       </c>
       <c r="J41" s="3">
+        <v>4976200</v>
+      </c>
+      <c r="K41" s="3">
         <v>4382800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4813700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6850500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4527300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4914500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5030900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5617400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5177000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>145500</v>
+        <v>358800</v>
       </c>
       <c r="E42" s="3">
-        <v>299000</v>
+        <v>2226900</v>
       </c>
       <c r="F42" s="3">
-        <v>230200</v>
+        <v>284900</v>
       </c>
       <c r="G42" s="3">
-        <v>133700</v>
+        <v>219400</v>
       </c>
       <c r="H42" s="3">
-        <v>182400</v>
+        <v>127400</v>
       </c>
       <c r="I42" s="3">
-        <v>198700</v>
+        <v>173800</v>
       </c>
       <c r="J42" s="3">
+        <v>189300</v>
+      </c>
+      <c r="K42" s="3">
         <v>185600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>220000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>259500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>268700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>119300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>95000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>139400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>183500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4915000</v>
+        <v>5671100</v>
       </c>
       <c r="E43" s="3">
-        <v>5622900</v>
+        <v>4683200</v>
       </c>
       <c r="F43" s="3">
-        <v>5771900</v>
+        <v>5357700</v>
       </c>
       <c r="G43" s="3">
-        <v>5725400</v>
+        <v>5499700</v>
       </c>
       <c r="H43" s="3">
-        <v>5222800</v>
+        <v>5455400</v>
       </c>
       <c r="I43" s="3">
-        <v>5451600</v>
+        <v>4976500</v>
       </c>
       <c r="J43" s="3">
+        <v>5194500</v>
+      </c>
+      <c r="K43" s="3">
         <v>6397400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6313300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5762100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6076100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5996800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6954300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6915200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7762900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7112400</v>
+        <v>7442800</v>
       </c>
       <c r="E44" s="3">
-        <v>6685700</v>
+        <v>6777000</v>
       </c>
       <c r="F44" s="3">
-        <v>6874400</v>
+        <v>6370500</v>
       </c>
       <c r="G44" s="3">
-        <v>6687400</v>
+        <v>6550200</v>
       </c>
       <c r="H44" s="3">
-        <v>6151300</v>
+        <v>6372000</v>
       </c>
       <c r="I44" s="3">
-        <v>5849600</v>
+        <v>5861300</v>
       </c>
       <c r="J44" s="3">
+        <v>5573800</v>
+      </c>
+      <c r="K44" s="3">
         <v>5648900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5726700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5345000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5419500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5791700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6477500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6692100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7300200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1269700</v>
+        <v>1336600</v>
       </c>
       <c r="E45" s="3">
-        <v>1169300</v>
+        <v>1209800</v>
       </c>
       <c r="F45" s="3">
-        <v>1164900</v>
+        <v>1114200</v>
       </c>
       <c r="G45" s="3">
-        <v>1178000</v>
+        <v>1109900</v>
       </c>
       <c r="H45" s="3">
+        <v>1122400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>969300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1089300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1128200</v>
+      </c>
+      <c r="M45" s="3">
         <v>1017300</v>
       </c>
-      <c r="I45" s="3">
-        <v>1143200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1095600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1128200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1017300</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2888100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3315900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2552100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2391700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2536500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17289300</v>
+        <v>16982800</v>
       </c>
       <c r="E46" s="3">
-        <v>18716800</v>
+        <v>16474000</v>
       </c>
       <c r="F46" s="3">
-        <v>19795900</v>
+        <v>17834100</v>
       </c>
       <c r="G46" s="3">
-        <v>18382000</v>
+        <v>18862400</v>
       </c>
       <c r="H46" s="3">
-        <v>18700200</v>
+        <v>17515200</v>
       </c>
       <c r="I46" s="3">
-        <v>17865600</v>
+        <v>17818300</v>
       </c>
       <c r="J46" s="3">
+        <v>17023100</v>
+      </c>
+      <c r="K46" s="3">
         <v>17710300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18202000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19234400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19179700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20138200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21109700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21755700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22960200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2731600</v>
+        <v>2703500</v>
       </c>
       <c r="E47" s="3">
-        <v>2663900</v>
+        <v>2602700</v>
       </c>
       <c r="F47" s="3">
-        <v>3069800</v>
+        <v>2538300</v>
       </c>
       <c r="G47" s="3">
-        <v>2751400</v>
+        <v>2925000</v>
       </c>
       <c r="H47" s="3">
-        <v>2380300</v>
+        <v>2621600</v>
       </c>
       <c r="I47" s="3">
-        <v>2414000</v>
+        <v>2268000</v>
       </c>
       <c r="J47" s="3">
+        <v>2300200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2538600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2753700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2469800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2756500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2723400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2871500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3254900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3594200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12193800</v>
+        <v>12333800</v>
       </c>
       <c r="E48" s="3">
-        <v>11942800</v>
+        <v>11618700</v>
       </c>
       <c r="F48" s="3">
-        <v>12692000</v>
+        <v>11379600</v>
       </c>
       <c r="G48" s="3">
-        <v>12295700</v>
+        <v>12093400</v>
       </c>
       <c r="H48" s="3">
-        <v>11412000</v>
+        <v>11715900</v>
       </c>
       <c r="I48" s="3">
-        <v>10768800</v>
+        <v>10873800</v>
       </c>
       <c r="J48" s="3">
+        <v>10260900</v>
+      </c>
+      <c r="K48" s="3">
         <v>10526000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10673500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10308300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9991800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10648500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11653500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12213900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13381200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65325300</v>
+        <v>66613000</v>
       </c>
       <c r="E49" s="3">
-        <v>60972900</v>
+        <v>62244800</v>
       </c>
       <c r="F49" s="3">
-        <v>66200000</v>
+        <v>58097600</v>
       </c>
       <c r="G49" s="3">
-        <v>64592200</v>
+        <v>63078200</v>
       </c>
       <c r="H49" s="3">
-        <v>59311600</v>
+        <v>61546300</v>
       </c>
       <c r="I49" s="3">
-        <v>57390600</v>
+        <v>56514600</v>
       </c>
       <c r="J49" s="3">
+        <v>54684300</v>
+      </c>
+      <c r="K49" s="3">
         <v>56685400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58177900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56316000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55572600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60251000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>68474000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>72100100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>76638300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,58 +2803,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3095500</v>
+        <v>2993000</v>
       </c>
       <c r="E52" s="3">
-        <v>3072700</v>
+        <v>2949500</v>
       </c>
       <c r="F52" s="3">
-        <v>3428000</v>
+        <v>2927800</v>
       </c>
       <c r="G52" s="3">
-        <v>3390400</v>
+        <v>3266300</v>
       </c>
       <c r="H52" s="3">
-        <v>3209500</v>
+        <v>3230500</v>
       </c>
       <c r="I52" s="3">
-        <v>3117300</v>
+        <v>3058200</v>
       </c>
       <c r="J52" s="3">
+        <v>2970300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3099300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3223500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3219600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2556900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2949700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3487500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3629300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2143100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2909,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100635400</v>
+        <v>101626100</v>
       </c>
       <c r="E54" s="3">
-        <v>97368900</v>
+        <v>95889700</v>
       </c>
       <c r="F54" s="3">
-        <v>105185600</v>
+        <v>92777300</v>
       </c>
       <c r="G54" s="3">
-        <v>101411700</v>
+        <v>100225400</v>
       </c>
       <c r="H54" s="3">
-        <v>95013500</v>
+        <v>96629500</v>
       </c>
       <c r="I54" s="3">
-        <v>91556300</v>
+        <v>90533000</v>
       </c>
       <c r="J54" s="3">
+        <v>87238800</v>
+      </c>
+      <c r="K54" s="3">
         <v>90559600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93030700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91548200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>90057400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96710900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>107596200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112953800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118716900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,308 +3006,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4681000</v>
+        <v>3029100</v>
       </c>
       <c r="E57" s="3">
-        <v>2747800</v>
+        <v>2112200</v>
       </c>
       <c r="F57" s="3">
-        <v>2801900</v>
+        <v>2618200</v>
       </c>
       <c r="G57" s="3">
-        <v>3059600</v>
+        <v>2669800</v>
       </c>
       <c r="H57" s="3">
-        <v>3722500</v>
+        <v>2915300</v>
       </c>
       <c r="I57" s="3">
-        <v>2532000</v>
+        <v>3547000</v>
       </c>
       <c r="J57" s="3">
+        <v>2412600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2426900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2356700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2437800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2396700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2124900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2471500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2808800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2732000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2448500</v>
+        <v>2863800</v>
       </c>
       <c r="E58" s="3">
-        <v>2682300</v>
+        <v>2333100</v>
       </c>
       <c r="F58" s="3">
-        <v>4096900</v>
+        <v>2555800</v>
       </c>
       <c r="G58" s="3">
-        <v>2032500</v>
+        <v>3903700</v>
       </c>
       <c r="H58" s="3">
-        <v>1470800</v>
+        <v>1936600</v>
       </c>
       <c r="I58" s="3">
-        <v>886400</v>
+        <v>1401400</v>
       </c>
       <c r="J58" s="3">
+        <v>844600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1549300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>178400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>157100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2085200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2154800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4953600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5169900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5572600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10765300</v>
+        <v>11294000</v>
       </c>
       <c r="E59" s="3">
-        <v>10697300</v>
+        <v>12605700</v>
       </c>
       <c r="F59" s="3">
-        <v>10345500</v>
+        <v>10192900</v>
       </c>
       <c r="G59" s="3">
-        <v>10531600</v>
+        <v>9857600</v>
       </c>
       <c r="H59" s="3">
-        <v>10277400</v>
+        <v>10034900</v>
       </c>
       <c r="I59" s="3">
-        <v>9626300</v>
+        <v>9792800</v>
       </c>
       <c r="J59" s="3">
+        <v>9172400</v>
+      </c>
+      <c r="K59" s="3">
         <v>9858000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10009700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9976900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8748400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9038500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9903900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11191000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11075700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17894800</v>
+        <v>17187000</v>
       </c>
       <c r="E60" s="3">
-        <v>16127400</v>
+        <v>17050900</v>
       </c>
       <c r="F60" s="3">
-        <v>17244300</v>
+        <v>15366900</v>
       </c>
       <c r="G60" s="3">
-        <v>15623700</v>
+        <v>16431100</v>
       </c>
       <c r="H60" s="3">
-        <v>15470700</v>
+        <v>14886900</v>
       </c>
       <c r="I60" s="3">
-        <v>13044700</v>
+        <v>14741200</v>
       </c>
       <c r="J60" s="3">
+        <v>12429600</v>
+      </c>
+      <c r="K60" s="3">
         <v>13834200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12544800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12571800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13230300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13318300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17329100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19169700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19380300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29148200</v>
+        <v>29748800</v>
       </c>
       <c r="E61" s="3">
-        <v>28226300</v>
+        <v>27773600</v>
       </c>
       <c r="F61" s="3">
-        <v>30054300</v>
+        <v>26895300</v>
       </c>
       <c r="G61" s="3">
-        <v>31149800</v>
+        <v>28637000</v>
       </c>
       <c r="H61" s="3">
-        <v>29859600</v>
+        <v>29680900</v>
       </c>
       <c r="I61" s="3">
-        <v>30512300</v>
+        <v>28451500</v>
       </c>
       <c r="J61" s="3">
+        <v>29073400</v>
+      </c>
+      <c r="K61" s="3">
         <v>28958800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32204700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32707700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32740000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36078700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38335700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39702200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>41997600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7775200</v>
+        <v>7138400</v>
       </c>
       <c r="E62" s="3">
-        <v>8482700</v>
+        <v>7408600</v>
       </c>
       <c r="F62" s="3">
-        <v>9482700</v>
+        <v>8082700</v>
       </c>
       <c r="G62" s="3">
-        <v>9090000</v>
+        <v>9035600</v>
       </c>
       <c r="H62" s="3">
-        <v>8705000</v>
+        <v>8661300</v>
       </c>
       <c r="I62" s="3">
-        <v>9556900</v>
+        <v>8294500</v>
       </c>
       <c r="J62" s="3">
+        <v>9106200</v>
+      </c>
+      <c r="K62" s="3">
         <v>9378000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9777100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9562400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10080000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10961800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11919100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12432900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12916700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3481,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54822200</v>
+        <v>54078500</v>
       </c>
       <c r="E66" s="3">
-        <v>52840100</v>
+        <v>52236900</v>
       </c>
       <c r="F66" s="3">
-        <v>56785400</v>
+        <v>50348400</v>
       </c>
       <c r="G66" s="3">
-        <v>55867400</v>
+        <v>54107600</v>
       </c>
       <c r="H66" s="3">
-        <v>54038900</v>
+        <v>53232800</v>
       </c>
       <c r="I66" s="3">
-        <v>53117400</v>
+        <v>51490600</v>
       </c>
       <c r="J66" s="3">
+        <v>50612600</v>
+      </c>
+      <c r="K66" s="3">
         <v>52174000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54529500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54871300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56080200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60390800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>67618100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>71340000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74332300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3767,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11111700</v>
+        <v>10237000</v>
       </c>
       <c r="E72" s="3">
-        <v>10870700</v>
+        <v>10587700</v>
       </c>
       <c r="F72" s="3">
-        <v>11032700</v>
+        <v>10358000</v>
       </c>
       <c r="G72" s="3">
-        <v>10524900</v>
+        <v>10512500</v>
       </c>
       <c r="H72" s="3">
-        <v>10668800</v>
+        <v>10028600</v>
       </c>
       <c r="I72" s="3">
-        <v>10576500</v>
+        <v>10165600</v>
       </c>
       <c r="J72" s="3">
+        <v>10077800</v>
+      </c>
+      <c r="K72" s="3">
         <v>11183800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11053000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10705200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9577100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10415700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11345400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12069500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12557700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3979,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45813200</v>
+        <v>47547600</v>
       </c>
       <c r="E76" s="3">
-        <v>44528800</v>
+        <v>43652800</v>
       </c>
       <c r="F76" s="3">
-        <v>48400200</v>
+        <v>42429000</v>
       </c>
       <c r="G76" s="3">
-        <v>45544400</v>
+        <v>46117800</v>
       </c>
       <c r="H76" s="3">
-        <v>40974600</v>
+        <v>43396600</v>
       </c>
       <c r="I76" s="3">
-        <v>38438900</v>
+        <v>39042300</v>
       </c>
       <c r="J76" s="3">
+        <v>36626200</v>
+      </c>
+      <c r="K76" s="3">
         <v>38385600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38501200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36676800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33977100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36320100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39978100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41613900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44384600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4085,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>224500</v>
+        <v>614100</v>
       </c>
       <c r="E81" s="3">
-        <v>858900</v>
+        <v>213900</v>
       </c>
       <c r="F81" s="3">
-        <v>445200</v>
+        <v>818400</v>
       </c>
       <c r="G81" s="3">
-        <v>757200</v>
+        <v>424200</v>
       </c>
       <c r="H81" s="3">
-        <v>-81900</v>
+        <v>721400</v>
       </c>
       <c r="I81" s="3">
-        <v>416500</v>
+        <v>-78000</v>
       </c>
       <c r="J81" s="3">
+        <v>396900</v>
+      </c>
+      <c r="K81" s="3">
         <v>331400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1012000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1397400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>677000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>703800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-293500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4219,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1163800</v>
+        <v>1178200</v>
       </c>
       <c r="E83" s="3">
-        <v>1275300</v>
+        <v>1108900</v>
       </c>
       <c r="F83" s="3">
-        <v>1210000</v>
+        <v>1215200</v>
       </c>
       <c r="G83" s="3">
-        <v>1141200</v>
+        <v>1153000</v>
       </c>
       <c r="H83" s="3">
-        <v>1097900</v>
+        <v>1087400</v>
       </c>
       <c r="I83" s="3">
-        <v>1061900</v>
+        <v>1046100</v>
       </c>
       <c r="J83" s="3">
+        <v>1011800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1014100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1050700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>988300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1024400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1082400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1207700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1283900</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4535,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2117500</v>
+        <v>634800</v>
       </c>
       <c r="E89" s="3">
-        <v>2727000</v>
+        <v>2017700</v>
       </c>
       <c r="F89" s="3">
-        <v>1593400</v>
+        <v>2598400</v>
       </c>
       <c r="G89" s="3">
-        <v>607400</v>
+        <v>1518200</v>
       </c>
       <c r="H89" s="3">
-        <v>2708000</v>
+        <v>578700</v>
       </c>
       <c r="I89" s="3">
-        <v>2505500</v>
+        <v>2580300</v>
       </c>
       <c r="J89" s="3">
+        <v>2387400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1681000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1226400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2843300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1598600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1915900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1244200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1633700</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,58 +4611,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-269237000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-444080000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50624000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40609000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-98376000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51823000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48431000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43491000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-219300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-256400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-180000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-213000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-197300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-328100</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4768,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3161500</v>
+        <v>-1831100</v>
       </c>
       <c r="E94" s="3">
-        <v>-336600</v>
+        <v>-3012400</v>
       </c>
       <c r="F94" s="3">
-        <v>-196200</v>
+        <v>-320800</v>
       </c>
       <c r="G94" s="3">
-        <v>-682900</v>
+        <v>-186900</v>
       </c>
       <c r="H94" s="3">
-        <v>-184800</v>
+        <v>-650700</v>
       </c>
       <c r="I94" s="3">
-        <v>-498500</v>
+        <v>-176100</v>
       </c>
       <c r="J94" s="3">
+        <v>-475000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-237200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-517800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2079700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>527600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>214700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>319300</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,58 +4844,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-75100</v>
+        <v>-898200</v>
       </c>
       <c r="E96" s="3">
-        <v>-930000</v>
+        <v>-71600</v>
       </c>
       <c r="F96" s="3">
-        <v>-80300</v>
+        <v>-886200</v>
       </c>
       <c r="G96" s="3">
-        <v>-929200</v>
+        <v>-76500</v>
       </c>
       <c r="H96" s="3">
-        <v>-76700</v>
+        <v>-885400</v>
       </c>
       <c r="I96" s="3">
-        <v>-947800</v>
+        <v>-73100</v>
       </c>
       <c r="J96" s="3">
+        <v>-903100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-68800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-970400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-61500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-974300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-67300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1135500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-73300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,154 +5054,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-47600</v>
+        <v>-396900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3136000</v>
+        <v>-45300</v>
       </c>
       <c r="F100" s="3">
-        <v>-374000</v>
+        <v>-2988100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1555300</v>
+        <v>-356400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1757800</v>
+        <v>-1482000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1211700</v>
+        <v>-1674900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1154600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1783500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3021100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2623800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2199500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1756200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1644300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1268000</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-69100</v>
-      </c>
       <c r="F101" s="3">
-        <v>73800</v>
+        <v>-65800</v>
       </c>
       <c r="G101" s="3">
-        <v>162100</v>
+        <v>70300</v>
       </c>
       <c r="H101" s="3">
-        <v>138500</v>
+        <v>154500</v>
       </c>
       <c r="I101" s="3">
-        <v>44300</v>
+        <v>132000</v>
       </c>
       <c r="J101" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>172300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-23700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-54400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-74100</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1093100</v>
+        <v>-1491800</v>
       </c>
       <c r="E102" s="3">
-        <v>-814700</v>
+        <v>-1041600</v>
       </c>
       <c r="F102" s="3">
-        <v>1097000</v>
+        <v>-776300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1468700</v>
+        <v>1045200</v>
       </c>
       <c r="H102" s="3">
-        <v>903800</v>
+        <v>-1399500</v>
       </c>
       <c r="I102" s="3">
-        <v>839700</v>
+        <v>861200</v>
       </c>
       <c r="J102" s="3">
+        <v>800100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-339200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2288100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2471500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-97000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>320000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-408000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>610800</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,251 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7272700</v>
+        <v>6926100</v>
       </c>
       <c r="E8" s="3">
-        <v>6568800</v>
+        <v>7029200</v>
       </c>
       <c r="F8" s="3">
-        <v>7533300</v>
+        <v>6348900</v>
       </c>
       <c r="G8" s="3">
-        <v>6885800</v>
+        <v>7281100</v>
       </c>
       <c r="H8" s="3">
-        <v>6680800</v>
+        <v>6655300</v>
       </c>
       <c r="I8" s="3">
-        <v>5999500</v>
+        <v>6457200</v>
       </c>
       <c r="J8" s="3">
+        <v>5798600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6191900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6091100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6979600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5461200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6133400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6145800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6839800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6798700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7828400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7388600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2206100</v>
+        <v>2281400</v>
       </c>
       <c r="E9" s="3">
-        <v>2128100</v>
+        <v>2132200</v>
       </c>
       <c r="F9" s="3">
-        <v>2308100</v>
+        <v>2056900</v>
       </c>
       <c r="G9" s="3">
-        <v>2098400</v>
+        <v>2230900</v>
       </c>
       <c r="H9" s="3">
-        <v>2012100</v>
+        <v>2028200</v>
       </c>
       <c r="I9" s="3">
-        <v>2118600</v>
+        <v>1944700</v>
       </c>
       <c r="J9" s="3">
+        <v>2047600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1933200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1988500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1773300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1796900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1855500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1944700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2030800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2186500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2546900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2461600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5066700</v>
+        <v>4644700</v>
       </c>
       <c r="E10" s="3">
-        <v>4440700</v>
+        <v>4897000</v>
       </c>
       <c r="F10" s="3">
-        <v>5225200</v>
+        <v>4292000</v>
       </c>
       <c r="G10" s="3">
-        <v>4787400</v>
+        <v>5050200</v>
       </c>
       <c r="H10" s="3">
-        <v>4668700</v>
+        <v>4627200</v>
       </c>
       <c r="I10" s="3">
-        <v>3880900</v>
+        <v>4512400</v>
       </c>
       <c r="J10" s="3">
+        <v>3751000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4258600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4102600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5206300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3664300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4277900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4201100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4809000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4612200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5281400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,61 +929,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1118000</v>
+        <v>1221400</v>
       </c>
       <c r="E12" s="3">
-        <v>1105700</v>
+        <v>1080600</v>
       </c>
       <c r="F12" s="3">
-        <v>1199700</v>
+        <v>1068700</v>
       </c>
       <c r="G12" s="3">
-        <v>1059000</v>
+        <v>1159500</v>
       </c>
       <c r="H12" s="3">
-        <v>986600</v>
+        <v>1023500</v>
       </c>
       <c r="I12" s="3">
-        <v>986700</v>
+        <v>953600</v>
       </c>
       <c r="J12" s="3">
+        <v>953700</v>
+      </c>
+      <c r="K12" s="3">
         <v>882000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>948800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>803200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>861800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>920400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>911200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1227300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1117900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1034000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,114 +1039,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>727400</v>
       </c>
       <c r="E14" s="3">
-        <v>77200</v>
+        <v>41200</v>
       </c>
       <c r="F14" s="3">
-        <v>102300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>74700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>98900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>227100</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K14" s="3">
         <v>183900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>201700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>123100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>208700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>152600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>325000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>203900</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>889100</v>
+        <v>867800</v>
       </c>
       <c r="E15" s="3">
-        <v>915200</v>
+        <v>818200</v>
       </c>
       <c r="F15" s="3">
-        <v>931400</v>
+        <v>884600</v>
       </c>
       <c r="G15" s="3">
-        <v>978100</v>
+        <v>900200</v>
       </c>
       <c r="H15" s="3">
-        <v>901900</v>
+        <v>945300</v>
       </c>
       <c r="I15" s="3">
-        <v>1025600</v>
+        <v>871700</v>
       </c>
       <c r="J15" s="3">
+        <v>991200</v>
+      </c>
+      <c r="K15" s="3">
         <v>811300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>740600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>755800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>810300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>729100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>809000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>889300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1112500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>946800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>942600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,114 +1172,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6114600</v>
+        <v>7253700</v>
       </c>
       <c r="E17" s="3">
-        <v>5960400</v>
+        <v>5909900</v>
       </c>
       <c r="F17" s="3">
-        <v>6523500</v>
+        <v>5760800</v>
       </c>
       <c r="G17" s="3">
-        <v>6168400</v>
+        <v>6305100</v>
       </c>
       <c r="H17" s="3">
-        <v>5646800</v>
+        <v>5961900</v>
       </c>
       <c r="I17" s="3">
-        <v>6010600</v>
+        <v>5457700</v>
       </c>
       <c r="J17" s="3">
+        <v>5809400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5391600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5388700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5152700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4393900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5084200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5769500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5412800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7346100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7340900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6806800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1158100</v>
+        <v>-327600</v>
       </c>
       <c r="E18" s="3">
-        <v>608400</v>
+        <v>1119300</v>
       </c>
       <c r="F18" s="3">
-        <v>1009800</v>
+        <v>588100</v>
       </c>
       <c r="G18" s="3">
-        <v>717500</v>
+        <v>976000</v>
       </c>
       <c r="H18" s="3">
-        <v>1034000</v>
+        <v>693500</v>
       </c>
       <c r="I18" s="3">
-        <v>-11100</v>
+        <v>999400</v>
       </c>
       <c r="J18" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K18" s="3">
         <v>800200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>702400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1826900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1067300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1049200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>376300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1426900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-547400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>487500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>581800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,114 +1306,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-230400</v>
+        <v>-309700</v>
       </c>
       <c r="E20" s="3">
-        <v>-279200</v>
+        <v>-222700</v>
       </c>
       <c r="F20" s="3">
-        <v>-273700</v>
+        <v>-269900</v>
       </c>
       <c r="G20" s="3">
-        <v>-274000</v>
+        <v>-264500</v>
       </c>
       <c r="H20" s="3">
-        <v>34100</v>
+        <v>-264900</v>
       </c>
       <c r="I20" s="3">
-        <v>-360200</v>
+        <v>32900</v>
       </c>
       <c r="J20" s="3">
+        <v>-348100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-304300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-259400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-188000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-139400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-244400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-413100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-315600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-481300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-261200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-390000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2105900</v>
+        <v>575800</v>
       </c>
       <c r="E21" s="3">
-        <v>1438100</v>
+        <v>2035400</v>
       </c>
       <c r="F21" s="3">
-        <v>1951300</v>
+        <v>1389900</v>
       </c>
       <c r="G21" s="3">
-        <v>1596400</v>
+        <v>1886000</v>
       </c>
       <c r="H21" s="3">
-        <v>2155500</v>
+        <v>1543000</v>
       </c>
       <c r="I21" s="3">
-        <v>674800</v>
+        <v>2083300</v>
       </c>
       <c r="J21" s="3">
+        <v>652200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1507800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1457100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2689600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1916200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1829200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1045500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2319100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>255200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4215800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3307100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,114 +1472,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>927700</v>
+        <v>-637300</v>
       </c>
       <c r="E23" s="3">
-        <v>329200</v>
+        <v>896600</v>
       </c>
       <c r="F23" s="3">
-        <v>736100</v>
+        <v>318200</v>
       </c>
       <c r="G23" s="3">
-        <v>443500</v>
+        <v>711500</v>
       </c>
       <c r="H23" s="3">
-        <v>1068100</v>
+        <v>428600</v>
       </c>
       <c r="I23" s="3">
-        <v>-371300</v>
+        <v>1032300</v>
       </c>
       <c r="J23" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="K23" s="3">
         <v>496000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>443000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1638900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>927900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>804800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-36800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1111400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1028700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>226300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>191800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>313500</v>
+        <v>-318800</v>
       </c>
       <c r="E24" s="3">
-        <v>115300</v>
+        <v>303000</v>
       </c>
       <c r="F24" s="3">
-        <v>-82400</v>
+        <v>111400</v>
       </c>
       <c r="G24" s="3">
-        <v>19400</v>
+        <v>-79700</v>
       </c>
       <c r="H24" s="3">
-        <v>346600</v>
+        <v>18700</v>
       </c>
       <c r="I24" s="3">
-        <v>-293200</v>
+        <v>335000</v>
       </c>
       <c r="J24" s="3">
+        <v>-283300</v>
+      </c>
+      <c r="K24" s="3">
         <v>98700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>111400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>626600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-469800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>127200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-68600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>407500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1042400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>518800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-425900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,114 +1640,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>614200</v>
+        <v>-318500</v>
       </c>
       <c r="E26" s="3">
-        <v>213900</v>
+        <v>593700</v>
       </c>
       <c r="F26" s="3">
-        <v>818600</v>
+        <v>206700</v>
       </c>
       <c r="G26" s="3">
-        <v>424100</v>
+        <v>791100</v>
       </c>
       <c r="H26" s="3">
-        <v>721500</v>
+        <v>409900</v>
       </c>
       <c r="I26" s="3">
-        <v>-78100</v>
+        <v>697300</v>
       </c>
       <c r="J26" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="K26" s="3">
         <v>397200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>331600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1012300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1397800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>677600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>703900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-292500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>614100</v>
+        <v>-318900</v>
       </c>
       <c r="E27" s="3">
-        <v>213900</v>
+        <v>593600</v>
       </c>
       <c r="F27" s="3">
-        <v>818400</v>
+        <v>206700</v>
       </c>
       <c r="G27" s="3">
-        <v>424200</v>
+        <v>791000</v>
       </c>
       <c r="H27" s="3">
-        <v>721400</v>
+        <v>410000</v>
       </c>
       <c r="I27" s="3">
-        <v>-78000</v>
+        <v>697300</v>
       </c>
       <c r="J27" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K27" s="3">
         <v>396900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>331400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1012000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1397400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>677000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>703800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-293500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1808,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1864,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1920,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,114 +1976,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>230400</v>
+        <v>309700</v>
       </c>
       <c r="E32" s="3">
-        <v>279200</v>
+        <v>222700</v>
       </c>
       <c r="F32" s="3">
-        <v>273700</v>
+        <v>269900</v>
       </c>
       <c r="G32" s="3">
-        <v>274000</v>
+        <v>264500</v>
       </c>
       <c r="H32" s="3">
-        <v>-34100</v>
+        <v>264900</v>
       </c>
       <c r="I32" s="3">
-        <v>360200</v>
+        <v>-32900</v>
       </c>
       <c r="J32" s="3">
+        <v>348100</v>
+      </c>
+      <c r="K32" s="3">
         <v>304300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>259400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>188000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>139400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>244400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>413100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>315600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>481300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>261200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>390000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>614100</v>
+        <v>-318900</v>
       </c>
       <c r="E33" s="3">
-        <v>213900</v>
+        <v>593600</v>
       </c>
       <c r="F33" s="3">
-        <v>818400</v>
+        <v>206700</v>
       </c>
       <c r="G33" s="3">
-        <v>424200</v>
+        <v>791000</v>
       </c>
       <c r="H33" s="3">
-        <v>721400</v>
+        <v>410000</v>
       </c>
       <c r="I33" s="3">
-        <v>-78000</v>
+        <v>697300</v>
       </c>
       <c r="J33" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K33" s="3">
         <v>396900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>331400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1012000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1397400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>677000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>703800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-293500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,119 +2144,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>614100</v>
+        <v>-318900</v>
       </c>
       <c r="E35" s="3">
-        <v>213900</v>
+        <v>593600</v>
       </c>
       <c r="F35" s="3">
-        <v>818400</v>
+        <v>206700</v>
       </c>
       <c r="G35" s="3">
-        <v>424200</v>
+        <v>791000</v>
       </c>
       <c r="H35" s="3">
-        <v>721400</v>
+        <v>410000</v>
       </c>
       <c r="I35" s="3">
-        <v>-78000</v>
+        <v>697300</v>
       </c>
       <c r="J35" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K35" s="3">
         <v>396900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>331400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1012000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1397400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>677000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>703800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-293500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2285,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,485 +2307,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2173500</v>
+        <v>2111900</v>
       </c>
       <c r="E41" s="3">
-        <v>1577100</v>
+        <v>2100800</v>
       </c>
       <c r="F41" s="3">
-        <v>4706900</v>
+        <v>1524300</v>
       </c>
       <c r="G41" s="3">
-        <v>5483200</v>
+        <v>4549300</v>
       </c>
       <c r="H41" s="3">
-        <v>4438000</v>
+        <v>5299600</v>
       </c>
       <c r="I41" s="3">
-        <v>5837400</v>
+        <v>4289400</v>
       </c>
       <c r="J41" s="3">
+        <v>5642000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4976200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4382800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4813700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6850500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4527300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4914500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5030900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5617400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5177000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4951400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>358800</v>
+        <v>104600</v>
       </c>
       <c r="E42" s="3">
-        <v>2226900</v>
+        <v>346800</v>
       </c>
       <c r="F42" s="3">
-        <v>284900</v>
+        <v>2152300</v>
       </c>
       <c r="G42" s="3">
-        <v>219400</v>
+        <v>275300</v>
       </c>
       <c r="H42" s="3">
-        <v>127400</v>
+        <v>212000</v>
       </c>
       <c r="I42" s="3">
-        <v>173800</v>
+        <v>123100</v>
       </c>
       <c r="J42" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K42" s="3">
         <v>189300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>185600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>220000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>259500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>268700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>119300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>95000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>139400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>183500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>126800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5671100</v>
+        <v>5232800</v>
       </c>
       <c r="E43" s="3">
-        <v>4683200</v>
+        <v>5481200</v>
       </c>
       <c r="F43" s="3">
-        <v>5357700</v>
+        <v>4526400</v>
       </c>
       <c r="G43" s="3">
-        <v>5499700</v>
+        <v>5178400</v>
       </c>
       <c r="H43" s="3">
-        <v>5455400</v>
+        <v>5315600</v>
       </c>
       <c r="I43" s="3">
-        <v>4976500</v>
+        <v>5272800</v>
       </c>
       <c r="J43" s="3">
+        <v>4809900</v>
+      </c>
+      <c r="K43" s="3">
         <v>5194500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6397400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6313300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5762100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6076100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5996800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6954300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6915200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7762900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7340300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7442800</v>
+        <v>7675000</v>
       </c>
       <c r="E44" s="3">
-        <v>6777000</v>
+        <v>7193600</v>
       </c>
       <c r="F44" s="3">
-        <v>6370500</v>
+        <v>6550100</v>
       </c>
       <c r="G44" s="3">
-        <v>6550200</v>
+        <v>6157200</v>
       </c>
       <c r="H44" s="3">
-        <v>6372000</v>
+        <v>6330900</v>
       </c>
       <c r="I44" s="3">
-        <v>5861300</v>
+        <v>6158700</v>
       </c>
       <c r="J44" s="3">
+        <v>5665000</v>
+      </c>
+      <c r="K44" s="3">
         <v>5573800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5648900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5726700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5345000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5419500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5791700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6477500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6692100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7300200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7660100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1336600</v>
+        <v>1223900</v>
       </c>
       <c r="E45" s="3">
-        <v>1209800</v>
+        <v>1291800</v>
       </c>
       <c r="F45" s="3">
-        <v>1114200</v>
+        <v>1169300</v>
       </c>
       <c r="G45" s="3">
-        <v>1109900</v>
+        <v>1076900</v>
       </c>
       <c r="H45" s="3">
-        <v>1122400</v>
+        <v>1072800</v>
       </c>
       <c r="I45" s="3">
-        <v>969300</v>
+        <v>1084800</v>
       </c>
       <c r="J45" s="3">
+        <v>936900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1089300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1095600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1128200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1017300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2888100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3315900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2552100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2391700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2536500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1552600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16982800</v>
+        <v>16348100</v>
       </c>
       <c r="E46" s="3">
-        <v>16474000</v>
+        <v>16414200</v>
       </c>
       <c r="F46" s="3">
-        <v>17834100</v>
+        <v>15922400</v>
       </c>
       <c r="G46" s="3">
-        <v>18862400</v>
+        <v>17237100</v>
       </c>
       <c r="H46" s="3">
-        <v>17515200</v>
+        <v>18230900</v>
       </c>
       <c r="I46" s="3">
-        <v>17818300</v>
+        <v>16928800</v>
       </c>
       <c r="J46" s="3">
+        <v>17221800</v>
+      </c>
+      <c r="K46" s="3">
         <v>17023100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17710300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18202000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19234400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19179700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20138200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21109700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21755700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22960200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21631100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2703500</v>
+        <v>2764700</v>
       </c>
       <c r="E47" s="3">
-        <v>2602700</v>
+        <v>2613000</v>
       </c>
       <c r="F47" s="3">
-        <v>2538300</v>
+        <v>2515600</v>
       </c>
       <c r="G47" s="3">
-        <v>2925000</v>
+        <v>2453300</v>
       </c>
       <c r="H47" s="3">
-        <v>2621600</v>
+        <v>2827100</v>
       </c>
       <c r="I47" s="3">
-        <v>2268000</v>
+        <v>2533900</v>
       </c>
       <c r="J47" s="3">
+        <v>2192100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2300200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2538600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2753700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2469800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2756500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2723400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2871500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3254900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3594200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3193800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12333800</v>
+        <v>12577100</v>
       </c>
       <c r="E48" s="3">
-        <v>11618700</v>
+        <v>11920900</v>
       </c>
       <c r="F48" s="3">
-        <v>11379600</v>
+        <v>11229800</v>
       </c>
       <c r="G48" s="3">
-        <v>12093400</v>
+        <v>10998600</v>
       </c>
       <c r="H48" s="3">
-        <v>11715900</v>
+        <v>11688600</v>
       </c>
       <c r="I48" s="3">
-        <v>10873800</v>
+        <v>11323600</v>
       </c>
       <c r="J48" s="3">
+        <v>10509800</v>
+      </c>
+      <c r="K48" s="3">
         <v>10260900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10526000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10673500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10308300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9991800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10648500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11653500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12213900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13381200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13273800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>66613000</v>
+        <v>64430800</v>
       </c>
       <c r="E49" s="3">
-        <v>62244800</v>
+        <v>64382800</v>
       </c>
       <c r="F49" s="3">
-        <v>58097600</v>
+        <v>60160900</v>
       </c>
       <c r="G49" s="3">
-        <v>63078200</v>
+        <v>56152500</v>
       </c>
       <c r="H49" s="3">
-        <v>61546300</v>
+        <v>60966400</v>
       </c>
       <c r="I49" s="3">
-        <v>56514600</v>
+        <v>59485800</v>
       </c>
       <c r="J49" s="3">
+        <v>54622600</v>
+      </c>
+      <c r="K49" s="3">
         <v>54684300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56685400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>58177900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56316000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>55572600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60251000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>68474000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>72100100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>76638300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>77022400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2865,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,61 +2921,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2993000</v>
+        <v>2628700</v>
       </c>
       <c r="E52" s="3">
-        <v>2949500</v>
+        <v>2892800</v>
       </c>
       <c r="F52" s="3">
-        <v>2927800</v>
+        <v>2850700</v>
       </c>
       <c r="G52" s="3">
-        <v>3266300</v>
+        <v>2829800</v>
       </c>
       <c r="H52" s="3">
-        <v>3230500</v>
+        <v>3157000</v>
       </c>
       <c r="I52" s="3">
-        <v>3058200</v>
+        <v>3122400</v>
       </c>
       <c r="J52" s="3">
+        <v>2955800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2970300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3099300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3223500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3219600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2556900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2949700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3487500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3629300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2143100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2217000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,61 +3033,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>101626100</v>
+        <v>98749300</v>
       </c>
       <c r="E54" s="3">
-        <v>95889700</v>
+        <v>98223800</v>
       </c>
       <c r="F54" s="3">
-        <v>92777300</v>
+        <v>92679500</v>
       </c>
       <c r="G54" s="3">
-        <v>100225400</v>
+        <v>89671200</v>
       </c>
       <c r="H54" s="3">
-        <v>96629500</v>
+        <v>96869900</v>
       </c>
       <c r="I54" s="3">
-        <v>90533000</v>
+        <v>93394400</v>
       </c>
       <c r="J54" s="3">
+        <v>87502000</v>
+      </c>
+      <c r="K54" s="3">
         <v>87238800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90559600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93030700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91548200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>90057400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96710900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>107596200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112953800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118716900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>117338100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3113,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,326 +3135,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3029100</v>
+        <v>2796000</v>
       </c>
       <c r="E57" s="3">
-        <v>2112200</v>
+        <v>2927700</v>
       </c>
       <c r="F57" s="3">
-        <v>2618200</v>
+        <v>2041500</v>
       </c>
       <c r="G57" s="3">
-        <v>2669800</v>
+        <v>2530600</v>
       </c>
       <c r="H57" s="3">
-        <v>2915300</v>
+        <v>2580400</v>
       </c>
       <c r="I57" s="3">
-        <v>3547000</v>
+        <v>2817700</v>
       </c>
       <c r="J57" s="3">
+        <v>3428200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2412600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2426900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2356700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2437800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2396700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2124900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2471500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2808800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2732000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2554500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2863800</v>
+        <v>1824900</v>
       </c>
       <c r="E58" s="3">
-        <v>2333100</v>
+        <v>2768000</v>
       </c>
       <c r="F58" s="3">
-        <v>2555800</v>
+        <v>2254900</v>
       </c>
       <c r="G58" s="3">
-        <v>3903700</v>
+        <v>2470200</v>
       </c>
       <c r="H58" s="3">
-        <v>1936600</v>
+        <v>3773000</v>
       </c>
       <c r="I58" s="3">
-        <v>1401400</v>
+        <v>1871800</v>
       </c>
       <c r="J58" s="3">
+        <v>1354500</v>
+      </c>
+      <c r="K58" s="3">
         <v>844600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1549300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>178400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>157100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2085200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2154800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4953600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5169900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5572600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1561400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11294000</v>
+        <v>11100100</v>
       </c>
       <c r="E59" s="3">
-        <v>12605700</v>
+        <v>10915900</v>
       </c>
       <c r="F59" s="3">
-        <v>10192900</v>
+        <v>12183600</v>
       </c>
       <c r="G59" s="3">
-        <v>9857600</v>
+        <v>9851600</v>
       </c>
       <c r="H59" s="3">
-        <v>10034900</v>
+        <v>9527600</v>
       </c>
       <c r="I59" s="3">
-        <v>9792800</v>
+        <v>9699000</v>
       </c>
       <c r="J59" s="3">
+        <v>9464900</v>
+      </c>
+      <c r="K59" s="3">
         <v>9172400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9858000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10009700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9976900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8748400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9038500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9903900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11191000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11075700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10775600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17187000</v>
+        <v>15721000</v>
       </c>
       <c r="E60" s="3">
-        <v>17050900</v>
+        <v>16611600</v>
       </c>
       <c r="F60" s="3">
-        <v>15366900</v>
+        <v>16480100</v>
       </c>
       <c r="G60" s="3">
-        <v>16431100</v>
+        <v>14852400</v>
       </c>
       <c r="H60" s="3">
-        <v>14886900</v>
+        <v>15881000</v>
       </c>
       <c r="I60" s="3">
-        <v>14741200</v>
+        <v>14388500</v>
       </c>
       <c r="J60" s="3">
+        <v>14247600</v>
+      </c>
+      <c r="K60" s="3">
         <v>12429600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13834200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12544800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12571800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13230300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13318300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17329100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19169700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19380300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14891500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29748800</v>
+        <v>29245000</v>
       </c>
       <c r="E61" s="3">
-        <v>27773600</v>
+        <v>28752900</v>
       </c>
       <c r="F61" s="3">
-        <v>26895300</v>
+        <v>26843800</v>
       </c>
       <c r="G61" s="3">
-        <v>28637000</v>
+        <v>25994800</v>
       </c>
       <c r="H61" s="3">
-        <v>29680900</v>
+        <v>27678300</v>
       </c>
       <c r="I61" s="3">
-        <v>28451500</v>
+        <v>28687200</v>
       </c>
       <c r="J61" s="3">
+        <v>27499000</v>
+      </c>
+      <c r="K61" s="3">
         <v>29073400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28958800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32204700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32707700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32740000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36078700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38335700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>39702200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>41997600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44212800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7138400</v>
+        <v>6831800</v>
       </c>
       <c r="E62" s="3">
-        <v>7408600</v>
+        <v>6899500</v>
       </c>
       <c r="F62" s="3">
-        <v>8082700</v>
+        <v>7160600</v>
       </c>
       <c r="G62" s="3">
-        <v>9035600</v>
+        <v>7812100</v>
       </c>
       <c r="H62" s="3">
-        <v>8661300</v>
+        <v>8733100</v>
       </c>
       <c r="I62" s="3">
-        <v>8294500</v>
+        <v>8371300</v>
       </c>
       <c r="J62" s="3">
+        <v>8016800</v>
+      </c>
+      <c r="K62" s="3">
         <v>9106200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9378000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9777100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9562400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10080000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10961800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11919100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12432900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12916700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13870900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3525,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3581,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,61 +3637,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54078500</v>
+        <v>51802200</v>
       </c>
       <c r="E66" s="3">
-        <v>52236900</v>
+        <v>52268000</v>
       </c>
       <c r="F66" s="3">
-        <v>50348400</v>
+        <v>50488100</v>
       </c>
       <c r="G66" s="3">
-        <v>54107600</v>
+        <v>48662700</v>
       </c>
       <c r="H66" s="3">
-        <v>53232800</v>
+        <v>52296100</v>
       </c>
       <c r="I66" s="3">
-        <v>51490600</v>
+        <v>51450700</v>
       </c>
       <c r="J66" s="3">
+        <v>49766800</v>
+      </c>
+      <c r="K66" s="3">
         <v>50612600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52174000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54529500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54871300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56080200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60390800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>67618100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>71340000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74332300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73011400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3717,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3771,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3827,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +3883,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,61 +3939,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10237000</v>
+        <v>9601600</v>
       </c>
       <c r="E72" s="3">
-        <v>10587700</v>
+        <v>9894200</v>
       </c>
       <c r="F72" s="3">
-        <v>10358000</v>
+        <v>10233200</v>
       </c>
       <c r="G72" s="3">
-        <v>10512500</v>
+        <v>10011300</v>
       </c>
       <c r="H72" s="3">
-        <v>10028600</v>
+        <v>10160500</v>
       </c>
       <c r="I72" s="3">
-        <v>10165600</v>
+        <v>9692800</v>
       </c>
       <c r="J72" s="3">
+        <v>9825300</v>
+      </c>
+      <c r="K72" s="3">
         <v>10077800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11183800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11053000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10705200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9577100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10415700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11345400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12069500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12557700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13460800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4051,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4107,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,61 +4163,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47547600</v>
+        <v>46947100</v>
       </c>
       <c r="E76" s="3">
-        <v>43652800</v>
+        <v>45955800</v>
       </c>
       <c r="F76" s="3">
-        <v>42429000</v>
+        <v>42191400</v>
       </c>
       <c r="G76" s="3">
-        <v>46117800</v>
+        <v>41008500</v>
       </c>
       <c r="H76" s="3">
-        <v>43396600</v>
+        <v>44573800</v>
       </c>
       <c r="I76" s="3">
-        <v>39042300</v>
+        <v>41943800</v>
       </c>
       <c r="J76" s="3">
+        <v>37735200</v>
+      </c>
+      <c r="K76" s="3">
         <v>36626200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38385600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38501200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36676800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33977100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36320100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39978100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41613900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44384600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44326700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,119 +4275,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>614100</v>
+        <v>-318900</v>
       </c>
       <c r="E81" s="3">
-        <v>213900</v>
+        <v>593600</v>
       </c>
       <c r="F81" s="3">
-        <v>818400</v>
+        <v>206700</v>
       </c>
       <c r="G81" s="3">
-        <v>424200</v>
+        <v>791000</v>
       </c>
       <c r="H81" s="3">
-        <v>721400</v>
+        <v>410000</v>
       </c>
       <c r="I81" s="3">
-        <v>-78000</v>
+        <v>697300</v>
       </c>
       <c r="J81" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K81" s="3">
         <v>396900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>331400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1012000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1397400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>677000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>703800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-293500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,61 +4416,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1178200</v>
+        <v>1213100</v>
       </c>
       <c r="E83" s="3">
-        <v>1108900</v>
+        <v>1138800</v>
       </c>
       <c r="F83" s="3">
-        <v>1215200</v>
+        <v>1071800</v>
       </c>
       <c r="G83" s="3">
-        <v>1153000</v>
+        <v>1174500</v>
       </c>
       <c r="H83" s="3">
-        <v>1087400</v>
+        <v>1114400</v>
       </c>
       <c r="I83" s="3">
-        <v>1046100</v>
+        <v>1051000</v>
       </c>
       <c r="J83" s="3">
+        <v>1011100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1011800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1014100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1050700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>988300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1024400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1082400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1207700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1283900</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4526,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4582,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4638,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4694,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,61 +4750,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>634800</v>
+        <v>1320700</v>
       </c>
       <c r="E89" s="3">
-        <v>2017700</v>
+        <v>613500</v>
       </c>
       <c r="F89" s="3">
-        <v>2598400</v>
+        <v>1950100</v>
       </c>
       <c r="G89" s="3">
-        <v>1518200</v>
+        <v>2511400</v>
       </c>
       <c r="H89" s="3">
-        <v>578700</v>
+        <v>1467400</v>
       </c>
       <c r="I89" s="3">
-        <v>2580300</v>
+        <v>559400</v>
       </c>
       <c r="J89" s="3">
+        <v>2493900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2387400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1681000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1226400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2843300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1598600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1915900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1244200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1633700</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,61 +4830,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70043000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-269237000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-444080000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-50624000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40609000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-98376000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51823000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48431000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43491000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-219300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-256400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-180000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-213000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-197300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-328100</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4940,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,61 +4996,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1831100</v>
+        <v>-402200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3012400</v>
+        <v>-1769800</v>
       </c>
       <c r="F94" s="3">
-        <v>-320800</v>
+        <v>-2911600</v>
       </c>
       <c r="G94" s="3">
-        <v>-186900</v>
+        <v>-310000</v>
       </c>
       <c r="H94" s="3">
-        <v>-650700</v>
+        <v>-180600</v>
       </c>
       <c r="I94" s="3">
-        <v>-176100</v>
+        <v>-628900</v>
       </c>
       <c r="J94" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-475000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-237200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-517800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2079700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>527600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>214700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>319300</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,61 +5076,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-898200</v>
+        <v>-60200</v>
       </c>
       <c r="E96" s="3">
-        <v>-71600</v>
+        <v>-868200</v>
       </c>
       <c r="F96" s="3">
-        <v>-886200</v>
+        <v>-69200</v>
       </c>
       <c r="G96" s="3">
-        <v>-76500</v>
+        <v>-856500</v>
       </c>
       <c r="H96" s="3">
-        <v>-885400</v>
+        <v>-73900</v>
       </c>
       <c r="I96" s="3">
-        <v>-73100</v>
+        <v>-855700</v>
       </c>
       <c r="J96" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-903100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-68800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-970400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-61500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-974300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-67300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1135500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-73300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5186,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5242,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,163 +5298,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-396900</v>
+        <v>-933900</v>
       </c>
       <c r="E100" s="3">
-        <v>-45300</v>
+        <v>-383600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2988100</v>
+        <v>-43800</v>
       </c>
       <c r="G100" s="3">
-        <v>-356400</v>
+        <v>-2888100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1482000</v>
+        <v>-344500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1674900</v>
+        <v>-1432400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1618800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1154600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1783500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3021100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2623800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2199500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1756200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1644300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1268000</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>101400</v>
+        <v>26600</v>
       </c>
       <c r="E101" s="3">
-        <v>-1500</v>
+        <v>98000</v>
       </c>
       <c r="F101" s="3">
-        <v>-65800</v>
+        <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>70300</v>
+        <v>-63600</v>
       </c>
       <c r="H101" s="3">
-        <v>154500</v>
+        <v>68000</v>
       </c>
       <c r="I101" s="3">
-        <v>132000</v>
+        <v>149300</v>
       </c>
       <c r="J101" s="3">
+        <v>127500</v>
+      </c>
+      <c r="K101" s="3">
         <v>42200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>172300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-23700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-54400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-74100</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1491800</v>
+        <v>11100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1041600</v>
+        <v>-1441900</v>
       </c>
       <c r="F102" s="3">
-        <v>-776300</v>
+        <v>-1006700</v>
       </c>
       <c r="G102" s="3">
-        <v>1045200</v>
+        <v>-750300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1399500</v>
+        <v>1010200</v>
       </c>
       <c r="I102" s="3">
-        <v>861200</v>
+        <v>-1352600</v>
       </c>
       <c r="J102" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K102" s="3">
         <v>800100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-339200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2288100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2471500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-97000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>320000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-408000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>610800</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>10</v>
       </c>
     </row>
